--- a/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
+++ b/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\문서\카카오~1-DESKTOP-TNRALHM-18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\문서\GitHub\RevoltDay\기획서\일정 관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="11_F0974D4C33CAD8EE2B1C80118FF02171B7213FB2" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{AFF547FD-4344-4FBB-92B1-B0840A47DE63}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_F0974D4C33CAD8EE2B1C80118FF02171B7213FB2" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8A1DF8BB-FFF1-4930-A7D4-2F36AF2C62EA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
@@ -3671,9 +3671,9 @@
   </sheetPr>
   <dimension ref="B1:BY169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H163" sqref="H163"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -16986,10 +16986,10 @@
       <c r="J143" s="38"/>
       <c r="K143" s="38"/>
       <c r="L143" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M143" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N143" s="40">
         <v>0</v>
@@ -17001,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="Q143" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
@@ -18252,7 +18252,7 @@
       </c>
       <c r="Q158" s="45">
         <f>AVERAGE(Q5:Q157)</f>
-        <v>0.39849624060150363</v>
+        <v>0.40451127819548854</v>
       </c>
     </row>
     <row r="159" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -23868,11 +23868,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A3:A4"/>
@@ -23881,6 +23876,11 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AI2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="AH4:BO4">
@@ -24040,7 +24040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:BZ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
+    <sheetView topLeftCell="BI1" workbookViewId="0">
       <selection activeCell="BZ7" sqref="BZ7"/>
     </sheetView>
   </sheetViews>

--- a/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
+++ b/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\문서\GitHub\RevoltDay\기획서\일정 관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F0974D4C33CAD8EE2B1C80118FF02171B7213FB2" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{8A1DF8BB-FFF1-4930-A7D4-2F36AF2C62EA}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_F0974D4C33CAD8EE2B1C80118FF02171B7213FB2" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F3958428-C72B-4791-AAB8-E3F50D60E54F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="526">
   <si>
     <t>프로젝트 플래너</t>
   </si>
@@ -1143,9 +1143,6 @@
     <t>활동 101</t>
   </si>
   <si>
-    <t>활동 102</t>
-  </si>
-  <si>
     <t>활동 103</t>
   </si>
   <si>
@@ -1336,10 +1333,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>스킬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>아이콘</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1451,9 +1444,6 @@
     <t>활동 121</t>
   </si>
   <si>
-    <t>활동 122</t>
-  </si>
-  <si>
     <t>활동 123</t>
   </si>
   <si>
@@ -1794,10 +1784,6 @@
   </si>
   <si>
     <t>제갈우진, 이정현, 강건희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>밝기 조절 제한 수립</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3669,11 +3655,11 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BY169"/>
+  <dimension ref="B1:BY167"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I161" sqref="I161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3917,7 +3903,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="Q3" s="69" t="s">
         <v>32</v>
@@ -4195,7 +4181,7 @@
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
       <c r="H6" s="38" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="38"/>
@@ -4291,7 +4277,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
       <c r="H7" s="38" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
@@ -4387,7 +4373,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="38" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -4483,7 +4469,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -4581,7 +4567,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="38" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -4759,7 +4745,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -4855,7 +4841,7 @@
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
       <c r="H13" s="38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
@@ -4951,7 +4937,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
@@ -5047,7 +5033,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
@@ -5143,7 +5129,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="38"/>
@@ -5239,7 +5225,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
@@ -5335,7 +5321,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
@@ -5425,13 +5411,13 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
@@ -5609,7 +5595,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -5705,7 +5691,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
@@ -5795,13 +5781,13 @@
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -5897,7 +5883,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
@@ -5993,7 +5979,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
@@ -6089,7 +6075,7 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="38" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
@@ -6185,7 +6171,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -6281,7 +6267,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
@@ -6707,15 +6693,15 @@
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
@@ -7654,7 +7640,7 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
@@ -9065,7 +9051,7 @@
         <v>249</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E58" s="38" t="s">
         <v>252</v>
@@ -9083,7 +9069,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O58" s="40">
         <v>0</v>
@@ -9092,7 +9078,7 @@
         <v>0.5</v>
       </c>
       <c r="Q58" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
@@ -9177,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O59" s="40">
         <v>0</v>
@@ -9186,7 +9172,7 @@
         <v>0.5</v>
       </c>
       <c r="Q59" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
@@ -9829,13 +9815,13 @@
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
       <c r="L66" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M66" s="40">
         <v>0</v>
       </c>
       <c r="N66" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O66" s="40">
         <v>0</v>
@@ -9844,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="Q66" s="41">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
@@ -9923,13 +9909,13 @@
       <c r="J67" s="38"/>
       <c r="K67" s="38"/>
       <c r="L67" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M67" s="40">
         <v>0</v>
       </c>
       <c r="N67" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O67" s="40">
         <v>0</v>
@@ -9938,7 +9924,7 @@
         <v>0</v>
       </c>
       <c r="Q67" s="41">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
@@ -10198,7 +10184,7 @@
         <v>135</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
@@ -10292,7 +10278,7 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
@@ -10386,7 +10372,7 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
@@ -10480,7 +10466,7 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
@@ -10574,7 +10560,7 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
@@ -10668,7 +10654,7 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
@@ -10762,7 +10748,7 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
@@ -10856,7 +10842,7 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
@@ -10950,7 +10936,7 @@
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
@@ -10959,13 +10945,13 @@
       <c r="J78" s="38"/>
       <c r="K78" s="38"/>
       <c r="L78" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M78" s="40">
         <v>0</v>
       </c>
       <c r="N78" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O78" s="40">
         <v>0</v>
@@ -10974,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="Q78" s="41">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
@@ -11126,7 +11112,7 @@
         <v>138</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -11220,7 +11206,7 @@
       <c r="C81" s="38"/>
       <c r="D81" s="39"/>
       <c r="E81" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -11408,7 +11394,7 @@
       <c r="C83" s="38"/>
       <c r="D83" s="39"/>
       <c r="E83" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -11501,7 +11487,7 @@
       <c r="C84" s="38"/>
       <c r="D84" s="39"/>
       <c r="E84" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -11594,7 +11580,7 @@
       <c r="C85" s="38"/>
       <c r="D85" s="39"/>
       <c r="E85" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -11687,7 +11673,7 @@
       <c r="C86" s="38"/>
       <c r="D86" s="39"/>
       <c r="E86" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -11780,7 +11766,7 @@
       <c r="C87" s="38"/>
       <c r="D87" s="39"/>
       <c r="E87" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -11873,7 +11859,7 @@
       <c r="C88" s="38"/>
       <c r="D88" s="39"/>
       <c r="E88" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -11966,7 +11952,7 @@
       <c r="C89" s="38"/>
       <c r="D89" s="39"/>
       <c r="E89" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -12059,7 +12045,7 @@
       <c r="C90" s="38"/>
       <c r="D90" s="39"/>
       <c r="E90" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -12152,7 +12138,7 @@
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -12247,7 +12233,7 @@
         <v>179</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -12271,7 +12257,7 @@
         <v>0.5</v>
       </c>
       <c r="Q92" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
@@ -12340,7 +12326,7 @@
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -12433,7 +12419,7 @@
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -12526,7 +12512,7 @@
       <c r="C95" s="38"/>
       <c r="D95" s="39"/>
       <c r="E95" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -12619,7 +12605,7 @@
       <c r="C96" s="38"/>
       <c r="D96" s="39"/>
       <c r="E96" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -12712,7 +12698,7 @@
       <c r="C97" s="38"/>
       <c r="D97" s="39"/>
       <c r="E97" s="38" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -12805,7 +12791,7 @@
       <c r="C98" s="38"/>
       <c r="D98" s="39"/>
       <c r="E98" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -12898,7 +12884,7 @@
       <c r="C99" s="38"/>
       <c r="D99" s="39"/>
       <c r="E99" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -12991,7 +12977,7 @@
       <c r="C100" s="38"/>
       <c r="D100" s="39"/>
       <c r="E100" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -13084,7 +13070,7 @@
       <c r="C101" s="38"/>
       <c r="D101" s="39"/>
       <c r="E101" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -13179,7 +13165,7 @@
         <v>180</v>
       </c>
       <c r="E102" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -13203,7 +13189,7 @@
         <v>0</v>
       </c>
       <c r="Q102" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
@@ -13272,7 +13258,7 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -13296,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="Q103" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
@@ -13365,7 +13351,7 @@
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -13389,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="Q104" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
@@ -13458,7 +13444,7 @@
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -13482,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="Q105" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R105" s="7"/>
       <c r="S105" s="7"/>
@@ -13551,7 +13537,7 @@
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -13575,7 +13561,7 @@
         <v>0.5</v>
       </c>
       <c r="Q106" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
@@ -13644,7 +13630,7 @@
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -13737,7 +13723,7 @@
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -13761,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="Q108" s="41">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
@@ -13830,7 +13816,7 @@
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38" t="s">
-        <v>342</v>
+        <v>420</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -13922,33 +13908,19 @@
       </c>
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
-      <c r="E110" s="38" t="s">
-        <v>423</v>
-      </c>
+      <c r="E110" s="38"/>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="38"/>
       <c r="I110" s="38"/>
       <c r="J110" s="38"/>
       <c r="K110" s="38"/>
-      <c r="L110" s="40">
-        <v>0</v>
-      </c>
-      <c r="M110" s="40">
-        <v>0</v>
-      </c>
-      <c r="N110" s="40">
-        <v>0</v>
-      </c>
-      <c r="O110" s="40">
-        <v>0</v>
-      </c>
-      <c r="P110" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q110" s="41">
-        <v>0.3</v>
-      </c>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="40"/>
+      <c r="O110" s="40"/>
+      <c r="P110" s="41"/>
+      <c r="Q110" s="41"/>
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
@@ -14014,20 +13986,36 @@
         <v>287</v>
       </c>
       <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
+      <c r="D111" s="38" t="s">
+        <v>181</v>
+      </c>
+      <c r="E111" s="38" t="s">
+        <v>335</v>
+      </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
       <c r="H111" s="38"/>
       <c r="I111" s="38"/>
       <c r="J111" s="38"/>
       <c r="K111" s="38"/>
-      <c r="L111" s="40"/>
-      <c r="M111" s="40"/>
-      <c r="N111" s="40"/>
-      <c r="O111" s="40"/>
-      <c r="P111" s="41"/>
-      <c r="Q111" s="41"/>
+      <c r="L111" s="40">
+        <v>6</v>
+      </c>
+      <c r="M111" s="40">
+        <v>1</v>
+      </c>
+      <c r="N111" s="40">
+        <v>6</v>
+      </c>
+      <c r="O111" s="40">
+        <v>0</v>
+      </c>
+      <c r="P111" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="41">
+        <v>0.2</v>
+      </c>
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
@@ -14093,11 +14081,9 @@
         <v>288</v>
       </c>
       <c r="C112" s="38"/>
-      <c r="D112" s="38" t="s">
-        <v>181</v>
-      </c>
+      <c r="D112" s="38"/>
       <c r="E112" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -14121,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="Q112" s="41">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
@@ -14190,7 +14176,7 @@
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -14283,7 +14269,7 @@
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -14376,7 +14362,7 @@
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -14562,7 +14548,7 @@
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -14655,7 +14641,7 @@
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -14746,9 +14732,11 @@
         <v>295</v>
       </c>
       <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
+      <c r="D119" s="38" t="s">
+        <v>136</v>
+      </c>
       <c r="E119" s="38" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -14839,11 +14827,9 @@
         <v>296</v>
       </c>
       <c r="C120" s="38"/>
-      <c r="D120" s="38" t="s">
-        <v>136</v>
-      </c>
+      <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -14957,7 +14943,7 @@
         <v>0</v>
       </c>
       <c r="P121" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121" s="41">
         <v>0.5</v>
@@ -15024,12 +15010,12 @@
     </row>
     <row r="122" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="38" t="s">
-        <v>298</v>
+        <v>359</v>
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -15117,37 +15103,25 @@
     </row>
     <row r="123" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38" t="s">
-        <v>347</v>
-      </c>
+      <c r="D123" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="E123" s="38"/>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
       <c r="I123" s="38"/>
       <c r="J123" s="38"/>
       <c r="K123" s="38"/>
-      <c r="L123" s="40">
-        <v>6</v>
-      </c>
-      <c r="M123" s="40">
-        <v>1</v>
-      </c>
-      <c r="N123" s="40">
-        <v>6</v>
-      </c>
-      <c r="O123" s="40">
-        <v>0</v>
-      </c>
-      <c r="P123" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="41">
-        <v>0.5</v>
-      </c>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
+      <c r="N123" s="40"/>
+      <c r="O123" s="40"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="41"/>
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
@@ -15210,25 +15184,36 @@
     </row>
     <row r="124" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C124" s="38"/>
-      <c r="D124" s="38" t="s">
-        <v>514</v>
-      </c>
-      <c r="E124" s="38"/>
+      <c r="E124" s="38" t="s">
+        <v>511</v>
+      </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
       <c r="H124" s="38"/>
       <c r="I124" s="38"/>
       <c r="J124" s="38"/>
       <c r="K124" s="38"/>
-      <c r="L124" s="40"/>
-      <c r="M124" s="40"/>
-      <c r="N124" s="40"/>
-      <c r="O124" s="40"/>
-      <c r="P124" s="41"/>
-      <c r="Q124" s="41"/>
+      <c r="L124" s="40">
+        <v>11</v>
+      </c>
+      <c r="M124" s="40">
+        <v>1</v>
+      </c>
+      <c r="N124" s="40">
+        <v>11</v>
+      </c>
+      <c r="O124" s="40">
+        <v>1</v>
+      </c>
+      <c r="P124" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="Q124" s="41">
+        <v>0.8</v>
+      </c>
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
       <c r="T124" s="7"/>
@@ -15291,11 +15276,14 @@
     </row>
     <row r="125" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C125" s="38"/>
-      <c r="E125" s="38" t="s">
-        <v>515</v>
+      <c r="D125" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -15304,22 +15292,22 @@
       <c r="J125" s="38"/>
       <c r="K125" s="38"/>
       <c r="L125" s="40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M125" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125" s="40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O125" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P125" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q125" s="41">
         <v>0.5</v>
-      </c>
-      <c r="Q125" s="41">
-        <v>0.8</v>
       </c>
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
@@ -15383,14 +15371,12 @@
     </row>
     <row r="126" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C126" s="38"/>
-      <c r="D126" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>348</v>
+      <c r="D126" s="38"/>
+      <c r="E126" s="38" t="s">
+        <v>347</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -15478,12 +15464,12 @@
     </row>
     <row r="127" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -15571,36 +15557,40 @@
     </row>
     <row r="128" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
+      <c r="D128" s="38" t="s">
+        <v>298</v>
+      </c>
       <c r="E128" s="38" t="s">
-        <v>460</v>
+        <v>349</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
+      <c r="H128" s="38" t="s">
+        <v>425</v>
+      </c>
       <c r="I128" s="38"/>
       <c r="J128" s="38"/>
       <c r="K128" s="38"/>
       <c r="L128" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M128" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O128" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
@@ -15664,7 +15654,7 @@
     </row>
     <row r="129" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="38" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
@@ -15673,27 +15663,29 @@
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
+      <c r="H129" s="38" t="s">
+        <v>426</v>
+      </c>
       <c r="I129" s="38"/>
       <c r="J129" s="38"/>
       <c r="K129" s="38"/>
       <c r="L129" s="40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M129" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" s="40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O129" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R129" s="7"/>
       <c r="S129" s="7"/>
@@ -15757,37 +15749,35 @@
     </row>
     <row r="130" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="38" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C130" s="38"/>
-      <c r="D130" s="38" t="s">
-        <v>299</v>
-      </c>
+      <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
         <v>351</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
       <c r="H130" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I130" s="38"/>
       <c r="J130" s="38"/>
       <c r="K130" s="38"/>
       <c r="L130" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M130" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N130" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O130" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P130" s="41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q130" s="41">
         <v>1</v>
@@ -15854,7 +15844,7 @@
     </row>
     <row r="131" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
@@ -15864,19 +15854,19 @@
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
       <c r="H131" s="38" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I131" s="38"/>
       <c r="J131" s="38"/>
       <c r="K131" s="38"/>
       <c r="L131" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M131" s="40">
         <v>1</v>
       </c>
       <c r="N131" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O131" s="40">
         <v>1</v>
@@ -15949,7 +15939,7 @@
     </row>
     <row r="132" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
@@ -15959,25 +15949,25 @@
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
       <c r="H132" s="38" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I132" s="38"/>
       <c r="J132" s="38"/>
       <c r="K132" s="38"/>
       <c r="L132" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M132" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N132" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O132" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P132" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q132" s="41">
         <v>1</v>
@@ -16044,7 +16034,7 @@
     </row>
     <row r="133" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="38" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
@@ -16054,7 +16044,7 @@
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
       <c r="H133" s="38" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I133" s="38"/>
       <c r="J133" s="38"/>
@@ -16139,7 +16129,7 @@
     </row>
     <row r="134" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="38" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
@@ -16155,22 +16145,20 @@
       <c r="J134" s="38"/>
       <c r="K134" s="38"/>
       <c r="L134" s="40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M134" s="40">
         <v>1</v>
       </c>
-      <c r="N134" s="40">
-        <v>8</v>
-      </c>
+      <c r="N134" s="40"/>
       <c r="O134" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P134" s="41">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="Q134" s="41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R134" s="7"/>
       <c r="S134" s="7"/>
@@ -16234,35 +16222,37 @@
     </row>
     <row r="135" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="38" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
+      <c r="D135" s="38" t="s">
+        <v>356</v>
+      </c>
       <c r="E135" s="38" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
       <c r="H135" s="38" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I135" s="38"/>
       <c r="J135" s="38"/>
       <c r="K135" s="38"/>
       <c r="L135" s="40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M135" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135" s="40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O135" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P135" s="41">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q135" s="41">
         <v>1</v>
@@ -16329,17 +16319,17 @@
     </row>
     <row r="136" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="38" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
       <c r="H136" s="38" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="I136" s="38"/>
       <c r="J136" s="38"/>
@@ -16350,15 +16340,17 @@
       <c r="M136" s="40">
         <v>1</v>
       </c>
-      <c r="N136" s="40"/>
+      <c r="N136" s="40">
+        <v>6</v>
+      </c>
       <c r="O136" s="40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P136" s="41">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q136" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
@@ -16422,41 +16414,23 @@
     </row>
     <row r="137" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C137" s="38"/>
-      <c r="D137" s="38" t="s">
-        <v>358</v>
-      </c>
-      <c r="E137" s="38" t="s">
-        <v>359</v>
-      </c>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38"/>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
-      <c r="H137" s="38" t="s">
-        <v>431</v>
-      </c>
+      <c r="H137" s="38"/>
       <c r="I137" s="38"/>
       <c r="J137" s="38"/>
       <c r="K137" s="38"/>
-      <c r="L137" s="40">
-        <v>9</v>
-      </c>
-      <c r="M137" s="40">
-        <v>0</v>
-      </c>
-      <c r="N137" s="40">
-        <v>0</v>
-      </c>
-      <c r="O137" s="40">
-        <v>0</v>
-      </c>
-      <c r="P137" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="Q137" s="41">
-        <v>1</v>
-      </c>
+      <c r="L137" s="40"/>
+      <c r="M137" s="40"/>
+      <c r="N137" s="40"/>
+      <c r="O137" s="40"/>
+      <c r="P137" s="41"/>
+      <c r="Q137" s="41"/>
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
@@ -16519,39 +16493,25 @@
     </row>
     <row r="138" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="38" t="s">
-        <v>376</v>
-      </c>
-      <c r="C138" s="38"/>
+        <v>375</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>189</v>
+      </c>
       <c r="D138" s="38"/>
-      <c r="E138" s="38" t="s">
-        <v>360</v>
-      </c>
+      <c r="E138" s="38"/>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
-      <c r="H138" s="38" t="s">
-        <v>429</v>
-      </c>
+      <c r="H138" s="38"/>
       <c r="I138" s="38"/>
       <c r="J138" s="38"/>
       <c r="K138" s="38"/>
-      <c r="L138" s="40">
-        <v>6</v>
-      </c>
-      <c r="M138" s="40">
-        <v>1</v>
-      </c>
-      <c r="N138" s="40">
-        <v>6</v>
-      </c>
-      <c r="O138" s="40">
-        <v>9</v>
-      </c>
-      <c r="P138" s="41">
-        <v>0.3</v>
-      </c>
-      <c r="Q138" s="41">
-        <v>1</v>
-      </c>
+      <c r="L138" s="40"/>
+      <c r="M138" s="40"/>
+      <c r="N138" s="40"/>
+      <c r="O138" s="40"/>
+      <c r="P138" s="41"/>
+      <c r="Q138" s="41"/>
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
@@ -16614,23 +16574,41 @@
     </row>
     <row r="139" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="38" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
+      <c r="D139" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E139" s="38" t="s">
+        <v>195</v>
+      </c>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
+      <c r="H139" s="38" t="s">
+        <v>413</v>
+      </c>
       <c r="I139" s="38"/>
       <c r="J139" s="38"/>
       <c r="K139" s="38"/>
-      <c r="L139" s="40"/>
-      <c r="M139" s="40"/>
-      <c r="N139" s="40"/>
-      <c r="O139" s="40"/>
-      <c r="P139" s="41"/>
-      <c r="Q139" s="41"/>
+      <c r="L139" s="40">
+        <v>3</v>
+      </c>
+      <c r="M139" s="40">
+        <v>0</v>
+      </c>
+      <c r="N139" s="40">
+        <v>10</v>
+      </c>
+      <c r="O139" s="40">
+        <v>12</v>
+      </c>
+      <c r="P139" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Q139" s="41">
+        <v>1</v>
+      </c>
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
       <c r="T139" s="7"/>
@@ -16693,25 +16671,41 @@
     </row>
     <row r="140" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="C140" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
+        <v>377</v>
+      </c>
+      <c r="C140" s="38"/>
+      <c r="D140" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E140" s="38" t="s">
+        <v>196</v>
+      </c>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
-      <c r="H140" s="38"/>
+      <c r="H140" s="38" t="s">
+        <v>424</v>
+      </c>
       <c r="I140" s="38"/>
       <c r="J140" s="38"/>
       <c r="K140" s="38"/>
-      <c r="L140" s="40"/>
-      <c r="M140" s="40"/>
-      <c r="N140" s="40"/>
-      <c r="O140" s="40"/>
-      <c r="P140" s="41"/>
-      <c r="Q140" s="41"/>
+      <c r="L140" s="40">
+        <v>5</v>
+      </c>
+      <c r="M140" s="40">
+        <v>1</v>
+      </c>
+      <c r="N140" s="40">
+        <v>5</v>
+      </c>
+      <c r="O140" s="40">
+        <v>0</v>
+      </c>
+      <c r="P140" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="Q140" s="41">
+        <v>0.5</v>
+      </c>
       <c r="R140" s="7"/>
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
@@ -16774,40 +16768,40 @@
     </row>
     <row r="141" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C141" s="38"/>
       <c r="D141" s="38" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E141" s="38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
       <c r="H141" s="38" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="I141" s="38"/>
       <c r="J141" s="38"/>
       <c r="K141" s="38"/>
       <c r="L141" s="40">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M141" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N141" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O141" s="40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P141" s="41">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Q141" s="41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R141" s="7"/>
       <c r="S141" s="7"/>
@@ -16871,40 +16865,40 @@
     </row>
     <row r="142" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="38" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C142" s="38"/>
       <c r="D142" s="38" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E142" s="38" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
       <c r="H142" s="38" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="I142" s="38"/>
       <c r="J142" s="38"/>
       <c r="K142" s="38"/>
       <c r="L142" s="40">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M142" s="40">
+        <v>3</v>
+      </c>
+      <c r="N142" s="40">
+        <v>12</v>
+      </c>
+      <c r="O142" s="40">
+        <v>0</v>
+      </c>
+      <c r="P142" s="41">
         <v>1</v>
       </c>
-      <c r="N142" s="40">
-        <v>5</v>
-      </c>
-      <c r="O142" s="40">
-        <v>0</v>
-      </c>
-      <c r="P142" s="41">
-        <v>0.5</v>
-      </c>
       <c r="Q142" s="41">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
@@ -16968,28 +16962,28 @@
     </row>
     <row r="143" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C143" s="38"/>
       <c r="D143" s="38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E143" s="38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
       <c r="H143" s="38" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="I143" s="38"/>
       <c r="J143" s="38"/>
       <c r="K143" s="38"/>
       <c r="L143" s="40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M143" s="40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N143" s="40">
         <v>0</v>
@@ -16998,10 +16992,10 @@
         <v>0</v>
       </c>
       <c r="P143" s="41">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q143" s="41">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
@@ -17065,41 +17059,25 @@
     </row>
     <row r="144" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="38" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C144" s="38"/>
-      <c r="D144" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E144" s="38" t="s">
-        <v>200</v>
+      <c r="D144" s="1"/>
+      <c r="E144" s="47" t="s">
+        <v>199</v>
       </c>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
-      <c r="H144" s="38" t="s">
-        <v>416</v>
-      </c>
+      <c r="H144" s="38"/>
       <c r="I144" s="38"/>
       <c r="J144" s="38"/>
       <c r="K144" s="38"/>
-      <c r="L144" s="40">
-        <v>0</v>
-      </c>
-      <c r="M144" s="40">
-        <v>10</v>
-      </c>
-      <c r="N144" s="40">
-        <v>12</v>
-      </c>
-      <c r="O144" s="40">
-        <v>0</v>
-      </c>
-      <c r="P144" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q144" s="41">
-        <v>0.05</v>
-      </c>
+      <c r="L144" s="40"/>
+      <c r="M144" s="40"/>
+      <c r="N144" s="40"/>
+      <c r="O144" s="40"/>
+      <c r="P144" s="41"/>
+      <c r="Q144" s="41"/>
       <c r="R144" s="7"/>
       <c r="S144" s="7"/>
       <c r="T144" s="7"/>
@@ -17162,40 +17140,40 @@
     </row>
     <row r="145" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="C145" s="38"/>
+        <v>382</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>201</v>
+      </c>
       <c r="D145" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="E145" s="38" t="s">
-        <v>198</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E145" s="38"/>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
       <c r="H145" s="38" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="I145" s="38"/>
       <c r="J145" s="38"/>
       <c r="K145" s="38"/>
       <c r="L145" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M145" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N145" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O145" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P145" s="41">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Q145" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145" s="7"/>
       <c r="S145" s="7"/>
@@ -17259,25 +17237,35 @@
     </row>
     <row r="146" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="38" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C146" s="38"/>
-      <c r="D146" s="1"/>
-      <c r="E146" s="47" t="s">
-        <v>199</v>
-      </c>
+      <c r="D146" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="E146" s="38"/>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
-      <c r="H146" s="38"/>
+      <c r="H146" s="38" t="s">
+        <v>400</v>
+      </c>
       <c r="I146" s="38"/>
       <c r="J146" s="38"/>
       <c r="K146" s="38"/>
-      <c r="L146" s="40"/>
+      <c r="L146" s="40">
+        <v>3</v>
+      </c>
       <c r="M146" s="40"/>
-      <c r="N146" s="40"/>
+      <c r="N146" s="40">
+        <v>3</v>
+      </c>
       <c r="O146" s="40"/>
-      <c r="P146" s="41"/>
-      <c r="Q146" s="41"/>
+      <c r="P146" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="Q146" s="41">
+        <v>0.8</v>
+      </c>
       <c r="R146" s="7"/>
       <c r="S146" s="7"/>
       <c r="T146" s="7"/>
@@ -17340,41 +17328,23 @@
     </row>
     <row r="147" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="38" t="s">
-        <v>385</v>
-      </c>
-      <c r="C147" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="D147" s="38" t="s">
-        <v>202</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="C147" s="38"/>
+      <c r="D147" s="38"/>
       <c r="E147" s="38"/>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
-      <c r="H147" s="38" t="s">
-        <v>418</v>
-      </c>
+      <c r="H147" s="38"/>
       <c r="I147" s="38"/>
       <c r="J147" s="38"/>
       <c r="K147" s="38"/>
-      <c r="L147" s="40">
-        <v>1</v>
-      </c>
-      <c r="M147" s="40">
-        <v>1</v>
-      </c>
-      <c r="N147" s="40">
-        <v>1</v>
-      </c>
-      <c r="O147" s="40">
-        <v>10</v>
-      </c>
-      <c r="P147" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q147" s="41">
-        <v>1</v>
-      </c>
+      <c r="L147" s="40"/>
+      <c r="M147" s="40"/>
+      <c r="N147" s="40"/>
+      <c r="O147" s="40"/>
+      <c r="P147" s="41"/>
+      <c r="Q147" s="41"/>
       <c r="R147" s="7"/>
       <c r="S147" s="7"/>
       <c r="T147" s="7"/>
@@ -17437,34 +17407,30 @@
     </row>
     <row r="148" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="38" t="s">
-        <v>386</v>
-      </c>
-      <c r="C148" s="38"/>
+        <v>385</v>
+      </c>
+      <c r="C148" s="38" t="s">
+        <v>206</v>
+      </c>
       <c r="D148" s="38" t="s">
-        <v>203</v>
+        <v>444</v>
       </c>
       <c r="E148" s="38"/>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
       <c r="H148" s="38" t="s">
-        <v>403</v>
+        <v>456</v>
       </c>
       <c r="I148" s="38"/>
       <c r="J148" s="38"/>
       <c r="K148" s="38"/>
-      <c r="L148" s="40">
-        <v>3</v>
-      </c>
+      <c r="L148" s="40"/>
       <c r="M148" s="40"/>
-      <c r="N148" s="40">
-        <v>3</v>
-      </c>
+      <c r="N148" s="40"/>
       <c r="O148" s="40"/>
-      <c r="P148" s="41">
-        <v>0.9</v>
-      </c>
+      <c r="P148" s="41"/>
       <c r="Q148" s="41">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
@@ -17528,7 +17494,7 @@
     </row>
     <row r="149" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
@@ -17607,20 +17573,14 @@
     </row>
     <row r="150" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="C150" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="D150" s="38" t="s">
-        <v>447</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="C150" s="38"/>
+      <c r="D150" s="38"/>
       <c r="E150" s="38"/>
       <c r="F150" s="38"/>
       <c r="G150" s="38"/>
-      <c r="H150" s="38" t="s">
-        <v>459</v>
-      </c>
+      <c r="H150" s="38"/>
       <c r="I150" s="38"/>
       <c r="J150" s="38"/>
       <c r="K150" s="38"/>
@@ -17629,9 +17589,7 @@
       <c r="N150" s="40"/>
       <c r="O150" s="40"/>
       <c r="P150" s="41"/>
-      <c r="Q150" s="41">
-        <v>0.6</v>
-      </c>
+      <c r="Q150" s="41"/>
       <c r="R150" s="7"/>
       <c r="S150" s="7"/>
       <c r="T150" s="7"/>
@@ -17694,7 +17652,7 @@
     </row>
     <row r="151" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="38" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
@@ -17773,7 +17731,7 @@
     </row>
     <row r="152" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="38" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
@@ -17852,7 +17810,7 @@
     </row>
     <row r="153" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
@@ -17867,8 +17825,8 @@
       <c r="M153" s="40"/>
       <c r="N153" s="40"/>
       <c r="O153" s="40"/>
-      <c r="P153" s="41"/>
-      <c r="Q153" s="41"/>
+      <c r="P153" s="48"/>
+      <c r="Q153" s="48"/>
       <c r="R153" s="7"/>
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
@@ -17931,7 +17889,7 @@
     </row>
     <row r="154" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="38" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
@@ -18010,7 +17968,7 @@
     </row>
     <row r="155" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
@@ -18025,8 +17983,8 @@
       <c r="M155" s="40"/>
       <c r="N155" s="40"/>
       <c r="O155" s="40"/>
-      <c r="P155" s="48"/>
-      <c r="Q155" s="48"/>
+      <c r="P155" s="41"/>
+      <c r="Q155" s="41"/>
       <c r="R155" s="7"/>
       <c r="S155" s="7"/>
       <c r="T155" s="7"/>
@@ -18087,333 +18045,177 @@
       <c r="BW155" s="8"/>
       <c r="BX155" s="8"/>
     </row>
-    <row r="156" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B156" s="38" t="s">
-        <v>394</v>
-      </c>
-      <c r="C156" s="38"/>
-      <c r="D156" s="38"/>
-      <c r="E156" s="38"/>
-      <c r="F156" s="38"/>
-      <c r="G156" s="38"/>
-      <c r="H156" s="38"/>
-      <c r="I156" s="38"/>
-      <c r="J156" s="38"/>
-      <c r="K156" s="38"/>
-      <c r="L156" s="40"/>
-      <c r="M156" s="40"/>
-      <c r="N156" s="40"/>
-      <c r="O156" s="40"/>
-      <c r="P156" s="41"/>
-      <c r="Q156" s="41"/>
-      <c r="R156" s="7"/>
-      <c r="S156" s="7"/>
-      <c r="T156" s="7"/>
-      <c r="U156" s="7"/>
-      <c r="V156" s="7"/>
-      <c r="W156" s="7"/>
-      <c r="X156" s="7"/>
-      <c r="Y156" s="7"/>
-      <c r="Z156" s="7"/>
-      <c r="AA156" s="7"/>
-      <c r="AB156" s="7"/>
-      <c r="AC156" s="7"/>
-      <c r="AD156" s="7"/>
-      <c r="AE156" s="7"/>
-      <c r="AF156" s="7"/>
-      <c r="AG156" s="7"/>
-      <c r="AH156" s="7"/>
-      <c r="AI156" s="7"/>
-      <c r="AJ156" s="7"/>
-      <c r="AK156" s="7"/>
-      <c r="AL156" s="8"/>
-      <c r="AM156" s="8"/>
-      <c r="AN156" s="8"/>
-      <c r="AO156" s="8"/>
-      <c r="AP156" s="8"/>
-      <c r="AQ156" s="8"/>
-      <c r="AR156" s="8"/>
-      <c r="AS156" s="8"/>
-      <c r="AT156" s="8"/>
-      <c r="AU156" s="8"/>
-      <c r="AV156" s="8"/>
-      <c r="AW156" s="8"/>
-      <c r="AX156" s="8"/>
-      <c r="AY156" s="8"/>
-      <c r="AZ156" s="8"/>
-      <c r="BA156" s="8"/>
-      <c r="BB156" s="8"/>
-      <c r="BC156" s="8"/>
-      <c r="BD156" s="8"/>
-      <c r="BE156" s="8"/>
-      <c r="BF156" s="8"/>
-      <c r="BG156" s="8"/>
-      <c r="BH156" s="8"/>
-      <c r="BI156" s="8"/>
-      <c r="BJ156" s="8"/>
-      <c r="BK156" s="8"/>
-      <c r="BL156" s="8"/>
-      <c r="BM156" s="8"/>
-      <c r="BN156" s="8"/>
-      <c r="BO156" s="8"/>
-      <c r="BP156" s="8"/>
-      <c r="BQ156" s="8"/>
-      <c r="BR156" s="8"/>
-      <c r="BS156" s="8"/>
-      <c r="BT156" s="8"/>
-      <c r="BU156" s="8"/>
-      <c r="BV156" s="8"/>
-      <c r="BW156" s="8"/>
-      <c r="BX156" s="8"/>
-    </row>
-    <row r="157" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B157" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="C157" s="38"/>
-      <c r="D157" s="38"/>
-      <c r="E157" s="38"/>
-      <c r="F157" s="38"/>
-      <c r="G157" s="38"/>
-      <c r="H157" s="38"/>
-      <c r="I157" s="38"/>
-      <c r="J157" s="38"/>
-      <c r="K157" s="38"/>
-      <c r="L157" s="40"/>
-      <c r="M157" s="40"/>
-      <c r="N157" s="40"/>
-      <c r="O157" s="40"/>
-      <c r="P157" s="41"/>
-      <c r="Q157" s="41"/>
-      <c r="R157" s="7"/>
-      <c r="S157" s="7"/>
-      <c r="T157" s="7"/>
-      <c r="U157" s="7"/>
-      <c r="V157" s="7"/>
-      <c r="W157" s="7"/>
-      <c r="X157" s="7"/>
-      <c r="Y157" s="7"/>
-      <c r="Z157" s="7"/>
-      <c r="AA157" s="7"/>
-      <c r="AB157" s="7"/>
-      <c r="AC157" s="7"/>
-      <c r="AD157" s="7"/>
-      <c r="AE157" s="7"/>
-      <c r="AF157" s="7"/>
-      <c r="AG157" s="7"/>
-      <c r="AH157" s="7"/>
-      <c r="AI157" s="7"/>
-      <c r="AJ157" s="7"/>
-      <c r="AK157" s="7"/>
-      <c r="AL157" s="8"/>
-      <c r="AM157" s="8"/>
-      <c r="AN157" s="8"/>
-      <c r="AO157" s="8"/>
-      <c r="AP157" s="8"/>
-      <c r="AQ157" s="8"/>
-      <c r="AR157" s="8"/>
-      <c r="AS157" s="8"/>
-      <c r="AT157" s="8"/>
-      <c r="AU157" s="8"/>
-      <c r="AV157" s="8"/>
-      <c r="AW157" s="8"/>
-      <c r="AX157" s="8"/>
-      <c r="AY157" s="8"/>
-      <c r="AZ157" s="8"/>
-      <c r="BA157" s="8"/>
-      <c r="BB157" s="8"/>
-      <c r="BC157" s="8"/>
-      <c r="BD157" s="8"/>
-      <c r="BE157" s="8"/>
-      <c r="BF157" s="8"/>
-      <c r="BG157" s="8"/>
-      <c r="BH157" s="8"/>
-      <c r="BI157" s="8"/>
-      <c r="BJ157" s="8"/>
-      <c r="BK157" s="8"/>
-      <c r="BL157" s="8"/>
-      <c r="BM157" s="8"/>
-      <c r="BN157" s="8"/>
-      <c r="BO157" s="8"/>
-      <c r="BP157" s="8"/>
-      <c r="BQ157" s="8"/>
-      <c r="BR157" s="8"/>
-      <c r="BS157" s="8"/>
-      <c r="BT157" s="8"/>
-      <c r="BU157" s="8"/>
-      <c r="BV157" s="8"/>
-      <c r="BW157" s="8"/>
-      <c r="BX157" s="8"/>
-    </row>
-    <row r="158" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P158" s="45">
-        <f>AVERAGE(P6:P157)</f>
-        <v>0.42234848484848475</v>
-      </c>
-      <c r="Q158" s="45">
-        <f>AVERAGE(Q5:Q157)</f>
-        <v>0.40451127819548854</v>
-      </c>
-    </row>
-    <row r="159" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B159" s="59" t="s">
-        <v>472</v>
-      </c>
-      <c r="C159" s="60"/>
-      <c r="D159" s="61"/>
-      <c r="H159" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I159" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q159" s="49"/>
+    <row r="156" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P156" s="45">
+        <f>AVERAGE(P6:P155)</f>
+        <v>0.43653846153846143</v>
+      </c>
+      <c r="Q156" s="45">
+        <f>AVERAGE(Q5:Q155)</f>
+        <v>0.43587786259541977</v>
+      </c>
+    </row>
+    <row r="157" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B157" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="C157" s="60"/>
+      <c r="D157" s="61"/>
+      <c r="H157" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q157" s="49"/>
+    </row>
+    <row r="158" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B158" s="51" t="s">
+        <v>429</v>
+      </c>
+      <c r="C158" s="51">
+        <v>0</v>
+      </c>
+      <c r="D158" s="51"/>
+      <c r="G158" s="39">
+        <v>11</v>
+      </c>
+      <c r="H158" s="39">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="I158" s="39">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B159" s="39">
+        <v>2</v>
+      </c>
+      <c r="C159" s="39">
+        <v>15.63</v>
+      </c>
+      <c r="D159" s="39"/>
+      <c r="G159" s="39">
+        <v>12</v>
+      </c>
+      <c r="H159" s="39">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="I159" s="39">
+        <v>39.85</v>
+      </c>
+      <c r="P159" s="50"/>
     </row>
     <row r="160" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="51" t="s">
-        <v>432</v>
-      </c>
-      <c r="C160" s="51">
-        <v>0</v>
-      </c>
-      <c r="D160" s="51"/>
+      <c r="B160" s="39">
+        <v>3</v>
+      </c>
+      <c r="C160" s="39">
+        <v>16.5</v>
+      </c>
+      <c r="D160" s="39"/>
       <c r="G160" s="39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H160" s="39">
-        <v>37.590000000000003</v>
+        <v>39.85</v>
       </c>
       <c r="I160" s="39">
-        <v>38.979999999999997</v>
-      </c>
-    </row>
-    <row r="161" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>43.59</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="39">
-        <v>2</v>
-      </c>
-      <c r="C161" s="39">
-        <v>15.63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C161" s="39"/>
       <c r="D161" s="39"/>
       <c r="G161" s="39">
-        <v>12</v>
-      </c>
-      <c r="H161" s="39">
-        <v>38.979999999999997</v>
-      </c>
-      <c r="I161" s="39">
-        <v>39.85</v>
-      </c>
-      <c r="P161" s="50"/>
-    </row>
-    <row r="162" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="39"/>
+    </row>
+    <row r="162" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C162" s="39">
-        <v>16.5</v>
+        <v>24.46</v>
       </c>
       <c r="D162" s="39"/>
       <c r="G162" s="39">
-        <v>13</v>
-      </c>
-      <c r="H162" s="39">
-        <v>39.85</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H162" s="39"/>
       <c r="I162" s="39"/>
     </row>
-    <row r="163" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C163" s="39"/>
       <c r="D163" s="39"/>
       <c r="G163" s="39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H163" s="39"/>
       <c r="I163" s="39"/>
     </row>
-    <row r="164" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" s="39">
-        <v>24.46</v>
+        <v>25.26</v>
       </c>
       <c r="D164" s="39"/>
       <c r="G164" s="39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H164" s="39"/>
       <c r="I164" s="39"/>
     </row>
-    <row r="165" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="39">
-        <v>6</v>
-      </c>
-      <c r="C165" s="39"/>
+        <v>8</v>
+      </c>
+      <c r="C165" s="39">
+        <v>31.68</v>
+      </c>
       <c r="D165" s="39"/>
-      <c r="G165" s="39">
-        <v>16</v>
-      </c>
+      <c r="G165" s="39"/>
       <c r="H165" s="39"/>
       <c r="I165" s="39"/>
     </row>
-    <row r="166" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B166" s="39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C166" s="39">
-        <v>25.26</v>
+        <v>33.81</v>
       </c>
       <c r="D166" s="39"/>
-      <c r="G166" s="39">
-        <v>17</v>
-      </c>
+      <c r="G166" s="39"/>
       <c r="H166" s="39"/>
       <c r="I166" s="39"/>
     </row>
-    <row r="167" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B167" s="39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C167" s="39">
-        <v>31.68</v>
+        <v>36.04</v>
       </c>
       <c r="D167" s="39"/>
       <c r="G167" s="39"/>
       <c r="H167" s="39"/>
       <c r="I167" s="39"/>
     </row>
-    <row r="168" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="39">
-        <v>9</v>
-      </c>
-      <c r="C168" s="39">
-        <v>33.81</v>
-      </c>
-      <c r="D168" s="39"/>
-      <c r="G168" s="39"/>
-      <c r="H168" s="39"/>
-      <c r="I168" s="39"/>
-    </row>
-    <row r="169" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="39">
-        <v>10</v>
-      </c>
-      <c r="C169" s="39">
-        <v>36.04</v>
-      </c>
-      <c r="D169" s="39"/>
-      <c r="G169" s="39"/>
-      <c r="H169" s="39"/>
-      <c r="I169" s="39"/>
-    </row>
   </sheetData>
   <autoFilter ref="B3:Q4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="15">
-    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B157:D157"/>
     <mergeCell ref="AS2:AZ2"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -18430,7 +18232,7 @@
     <mergeCell ref="S3:W3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="R5:BY5 S6:BY82 R6:R154">
+  <conditionalFormatting sqref="R5:BY5 S6:BY82 R6:R152 S83:BX152">
     <cfRule type="expression" dxfId="35" priority="9">
       <formula>완료율</formula>
     </cfRule>
@@ -18466,7 +18268,7 @@
       <formula>R$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R155:BX157 S83:BX154">
+  <conditionalFormatting sqref="R153:BX155">
     <cfRule type="expression" dxfId="25" priority="1">
       <formula>완료율</formula>
     </cfRule>
@@ -23868,6 +23670,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="Q3:U3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="A3:A4"/>
@@ -23876,11 +23683,6 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="Y2:AB2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AI2:AP2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="AH4:BO4">
@@ -24330,7 +24132,7 @@
       <c r="V4" s="29"/>
       <c r="W4" s="27"/>
       <c r="X4" s="31" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="Y4" s="28"/>
       <c r="Z4" s="28"/>
@@ -24341,7 +24143,7 @@
       <c r="AE4" s="28"/>
       <c r="AF4" s="29"/>
       <c r="AG4" s="30" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AH4" s="28"/>
       <c r="AI4" s="28"/>
@@ -24363,14 +24165,14 @@
       <c r="AY4" s="28"/>
       <c r="AZ4" s="29"/>
       <c r="BA4" s="56" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="BB4" s="56"/>
       <c r="BO4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="BP4" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="2:78" x14ac:dyDescent="0.3">
@@ -24399,7 +24201,7 @@
       <c r="V5" s="29"/>
       <c r="W5" s="27"/>
       <c r="X5" s="31" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Y5" s="28"/>
       <c r="Z5" s="28"/>
@@ -24410,7 +24212,7 @@
       <c r="AE5" s="28"/>
       <c r="AF5" s="29"/>
       <c r="AG5" s="30" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
@@ -24423,7 +24225,7 @@
       <c r="AP5" s="29"/>
       <c r="AQ5" s="27"/>
       <c r="AR5" s="31" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="AS5" s="28"/>
       <c r="AT5" s="28"/>
@@ -24435,7 +24237,7 @@
       <c r="AZ5" s="29"/>
       <c r="BA5" s="56"/>
       <c r="BB5" s="56" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="2:78" x14ac:dyDescent="0.3">
@@ -24466,7 +24268,7 @@
       <c r="V6" s="29"/>
       <c r="W6" s="27"/>
       <c r="X6" s="31" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
@@ -24477,7 +24279,7 @@
       <c r="AE6" s="28"/>
       <c r="AF6" s="29"/>
       <c r="AG6" s="30" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
@@ -24490,7 +24292,7 @@
       <c r="AP6" s="29"/>
       <c r="AQ6" s="27"/>
       <c r="AR6" s="86" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AS6" s="86"/>
       <c r="AT6" s="86"/>
@@ -24502,10 +24304,10 @@
       <c r="AZ6" s="87"/>
       <c r="BA6" s="56"/>
       <c r="BB6" s="56" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="BZ6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="2:78" x14ac:dyDescent="0.3">
@@ -24534,7 +24336,7 @@
       <c r="V7" s="29"/>
       <c r="W7" s="27"/>
       <c r="X7" s="31" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
@@ -24545,7 +24347,7 @@
       <c r="AE7" s="28"/>
       <c r="AF7" s="29"/>
       <c r="AG7" s="30" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
@@ -24569,7 +24371,7 @@
       <c r="BA7" s="56"/>
       <c r="BB7" s="56"/>
       <c r="BO7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="2:78" x14ac:dyDescent="0.3">
@@ -24609,7 +24411,7 @@
       <c r="AE8" s="28"/>
       <c r="AF8" s="29"/>
       <c r="AG8" s="30" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AH8" s="28"/>
       <c r="AI8" s="28"/>
@@ -24622,7 +24424,7 @@
       <c r="AP8" s="29"/>
       <c r="AQ8" s="27"/>
       <c r="AR8" s="31" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AS8" s="28"/>
       <c r="AT8" s="28"/>
@@ -24633,7 +24435,7 @@
       <c r="AY8" s="28"/>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="56" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="BB8" s="56"/>
     </row>
@@ -24672,7 +24474,7 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="29"/>
       <c r="AG9" s="30" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
@@ -24733,7 +24535,7 @@
       <c r="AE10" s="28"/>
       <c r="AF10" s="29"/>
       <c r="AG10" s="30" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AH10" s="28"/>
       <c r="AI10" s="28"/>
@@ -24746,7 +24548,7 @@
       <c r="AP10" s="29"/>
       <c r="AQ10" s="27"/>
       <c r="AR10" s="31" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AS10" s="28"/>
       <c r="AT10" s="28"/>
@@ -24757,7 +24559,7 @@
       <c r="AY10" s="28"/>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="56" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="BB10" s="56"/>
     </row>
@@ -24818,7 +24620,7 @@
       <c r="BA11" s="56"/>
       <c r="BB11" s="56"/>
       <c r="BO11" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="2:78" x14ac:dyDescent="0.3">
@@ -24856,7 +24658,7 @@
       <c r="AE12" s="28"/>
       <c r="AF12" s="29"/>
       <c r="AG12" s="30" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AH12" s="28"/>
       <c r="AI12" s="28"/>
@@ -24869,7 +24671,7 @@
       <c r="AP12" s="29"/>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="31" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AS12" s="28"/>
       <c r="AT12" s="28"/>
@@ -24880,11 +24682,11 @@
       <c r="AY12" s="28"/>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="56" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="BB12" s="56"/>
       <c r="BO12" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="2:78" x14ac:dyDescent="0.3">
@@ -24913,7 +24715,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="27"/>
       <c r="X13" s="54" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="Y13" s="28"/>
       <c r="Z13" s="28"/>
@@ -24924,7 +24726,7 @@
       <c r="AE13" s="28"/>
       <c r="AF13" s="29"/>
       <c r="AG13" s="30" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
@@ -24948,7 +24750,7 @@
       <c r="BA13" s="56"/>
       <c r="BB13" s="56"/>
       <c r="BO13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="2:78" x14ac:dyDescent="0.3">
@@ -24978,7 +24780,7 @@
       <c r="U14" s="28"/>
       <c r="V14" s="29"/>
       <c r="W14" s="30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="X14" s="28"/>
       <c r="Y14" s="28"/>
@@ -25001,7 +24803,7 @@
       <c r="AP14" s="29"/>
       <c r="AQ14" s="27"/>
       <c r="AR14" s="31" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AS14" s="28"/>
       <c r="AT14" s="28"/>
@@ -25012,11 +24814,11 @@
       <c r="AY14" s="28"/>
       <c r="AZ14" s="29"/>
       <c r="BA14" s="56" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BB14" s="56"/>
       <c r="BO14" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="2:78" x14ac:dyDescent="0.3">
@@ -25044,7 +24846,7 @@
       <c r="U15" s="28"/>
       <c r="V15" s="29"/>
       <c r="W15" s="30" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -25077,7 +24879,7 @@
       <c r="AZ15" s="29"/>
       <c r="BA15" s="56"/>
       <c r="BB15" s="56" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="2:78" x14ac:dyDescent="0.3">
@@ -25109,7 +24911,7 @@
       <c r="U16" s="28"/>
       <c r="V16" s="29"/>
       <c r="W16" s="30" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="X16" s="28"/>
       <c r="Y16" s="28"/>
@@ -25132,7 +24934,7 @@
       <c r="AP16" s="29"/>
       <c r="AQ16" s="27"/>
       <c r="AR16" s="31" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AS16" s="28"/>
       <c r="AT16" s="28"/>
@@ -25143,7 +24945,7 @@
       <c r="AY16" s="28"/>
       <c r="AZ16" s="29"/>
       <c r="BA16" s="56" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="BB16" s="56"/>
     </row>
@@ -25174,7 +24976,7 @@
       <c r="U17" s="28"/>
       <c r="V17" s="29"/>
       <c r="W17" s="30" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="X17" s="28"/>
       <c r="Y17" s="28"/>
@@ -25235,7 +25037,7 @@
       <c r="U18" s="28"/>
       <c r="V18" s="29"/>
       <c r="W18" s="30" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="28"/>
@@ -25258,7 +25060,7 @@
       <c r="AP18" s="29"/>
       <c r="AQ18" s="27"/>
       <c r="AR18" s="31" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AS18" s="28"/>
       <c r="AT18" s="28"/>
@@ -25269,7 +25071,7 @@
       <c r="AY18" s="28"/>
       <c r="AZ18" s="29"/>
       <c r="BA18" s="56" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="BB18" s="56"/>
     </row>
@@ -25357,7 +25159,7 @@
       <c r="U20" s="28"/>
       <c r="V20" s="29"/>
       <c r="W20" s="30" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="X20" s="28"/>
       <c r="Y20" s="28"/>
@@ -25380,7 +25182,7 @@
       <c r="AP20" s="29"/>
       <c r="AQ20" s="27"/>
       <c r="AR20" s="31" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AS20" s="28"/>
       <c r="AT20" s="28"/>
@@ -25391,11 +25193,11 @@
       <c r="AY20" s="28"/>
       <c r="AZ20" s="29"/>
       <c r="BA20" s="56" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="BB20" s="56"/>
       <c r="BO20" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.3">
@@ -25425,7 +25227,7 @@
       <c r="U21" s="28"/>
       <c r="V21" s="29"/>
       <c r="W21" s="30" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="X21" s="28"/>
       <c r="Y21" s="28"/>
@@ -25459,7 +25261,7 @@
       <c r="BA21" s="56"/>
       <c r="BB21" s="56"/>
       <c r="BO21" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.3">
@@ -25487,7 +25289,7 @@
       <c r="U22" s="28"/>
       <c r="V22" s="29"/>
       <c r="W22" s="30" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="X22" s="28"/>
       <c r="Y22" s="28"/>
@@ -25510,7 +25312,7 @@
       <c r="AP22" s="29"/>
       <c r="AQ22" s="27"/>
       <c r="AR22" s="31" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
@@ -25521,11 +25323,11 @@
       <c r="AY22" s="28"/>
       <c r="AZ22" s="29"/>
       <c r="BA22" s="56" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="BB22" s="56"/>
       <c r="BO22" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="23" spans="2:67" x14ac:dyDescent="0.3">
@@ -25555,16 +25357,16 @@
       <c r="U23" s="28"/>
       <c r="V23" s="29"/>
       <c r="W23" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="X23" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y23" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z23" s="28" t="s">
         <v>455</v>
-      </c>
-      <c r="X23" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="Y23" s="28" t="s">
-        <v>457</v>
-      </c>
-      <c r="Z23" s="28" t="s">
-        <v>458</v>
       </c>
       <c r="AA23" s="28"/>
       <c r="AB23" s="28"/>
@@ -25584,7 +25386,7 @@
       <c r="AP23" s="29"/>
       <c r="AQ23" s="27"/>
       <c r="AR23" s="55" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="AS23" s="28"/>
       <c r="AT23" s="28"/>
@@ -25597,7 +25399,7 @@
       <c r="BA23" s="56"/>
       <c r="BB23" s="56"/>
       <c r="BO23" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="24" spans="2:67" x14ac:dyDescent="0.3">
@@ -25646,7 +25448,7 @@
       <c r="AP24" s="29"/>
       <c r="AQ24" s="27"/>
       <c r="AR24" s="31" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28"/>
@@ -25657,11 +25459,11 @@
       <c r="AY24" s="28"/>
       <c r="AZ24" s="29"/>
       <c r="BA24" s="56" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="BB24" s="56"/>
       <c r="BO24" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="2:67" x14ac:dyDescent="0.3">
@@ -25693,7 +25495,7 @@
       <c r="U25" s="28"/>
       <c r="V25" s="29"/>
       <c r="W25" s="30" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="X25" s="28"/>
       <c r="Y25" s="28"/>
@@ -25716,7 +25518,7 @@
       <c r="AP25" s="29"/>
       <c r="AQ25" s="27"/>
       <c r="AR25" s="55" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="AS25" s="28"/>
       <c r="AT25" s="28"/>
@@ -25729,7 +25531,7 @@
       <c r="BA25" s="56"/>
       <c r="BB25" s="56"/>
       <c r="BO25" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="26" spans="2:67" x14ac:dyDescent="0.3">
@@ -25757,7 +25559,7 @@
       <c r="U26" s="28"/>
       <c r="V26" s="29"/>
       <c r="W26" s="30" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="X26" s="28"/>
       <c r="Y26" s="28"/>
@@ -25780,7 +25582,7 @@
       <c r="AP26" s="29"/>
       <c r="AQ26" s="27"/>
       <c r="AR26" s="55" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="AS26" s="28"/>
       <c r="AT26" s="28"/>
@@ -25791,7 +25593,7 @@
       <c r="AY26" s="28"/>
       <c r="AZ26" s="29"/>
       <c r="BA26" s="56" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="BB26" s="56"/>
     </row>
@@ -25843,7 +25645,7 @@
       <c r="AP27" s="29"/>
       <c r="AQ27" s="27"/>
       <c r="AR27" s="55" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="AS27" s="28"/>
       <c r="AT27" s="28"/>
@@ -25883,7 +25685,7 @@
       <c r="U28" s="28"/>
       <c r="V28" s="29"/>
       <c r="W28" s="30" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="X28" s="28"/>
       <c r="Y28" s="28"/>
@@ -25915,7 +25717,7 @@
       <c r="AY28" s="28"/>
       <c r="AZ28" s="29"/>
       <c r="BA28" s="56" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="BB28" s="56"/>
     </row>
@@ -25991,7 +25793,7 @@
       <c r="I30" s="28"/>
       <c r="J30" s="29"/>
       <c r="K30" s="52" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L30" s="53"/>
       <c r="M30" s="28"/>
@@ -26005,7 +25807,7 @@
       <c r="U30" s="28"/>
       <c r="V30" s="29"/>
       <c r="W30" s="30" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="X30" s="28"/>
       <c r="Y30" s="28"/>
@@ -26037,7 +25839,7 @@
       <c r="AY30" s="28"/>
       <c r="AZ30" s="29"/>
       <c r="BA30" s="56" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="BB30" s="56"/>
     </row>
@@ -26054,7 +25856,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="29"/>
       <c r="K31" s="52" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L31" s="53"/>
       <c r="M31" s="28"/>
@@ -26068,7 +25870,7 @@
       <c r="U31" s="28"/>
       <c r="V31" s="29"/>
       <c r="W31" s="27" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="X31" s="28"/>
       <c r="Y31" s="28"/>
@@ -26115,7 +25917,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="29"/>
       <c r="K32" s="52" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L32" s="53"/>
       <c r="M32" s="28"/>
@@ -26129,7 +25931,7 @@
       <c r="U32" s="28"/>
       <c r="V32" s="29"/>
       <c r="W32" s="30" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="X32" s="28"/>
       <c r="Y32" s="28"/>
@@ -26161,7 +25963,7 @@
       <c r="AY32" s="28"/>
       <c r="AZ32" s="29"/>
       <c r="BA32" s="56" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="BB32" s="56"/>
     </row>
@@ -26176,7 +25978,7 @@
       <c r="I33" s="28"/>
       <c r="J33" s="29"/>
       <c r="K33" s="52" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L33" s="53"/>
       <c r="M33" s="28"/>
@@ -26190,7 +25992,7 @@
       <c r="U33" s="28"/>
       <c r="V33" s="29"/>
       <c r="W33" s="27" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="X33" s="28"/>
       <c r="Y33" s="28"/>
@@ -26239,7 +26041,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="29"/>
       <c r="K34" s="52" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="L34" s="53"/>
       <c r="M34" s="28"/>
@@ -26283,7 +26085,7 @@
       <c r="AY34" s="28"/>
       <c r="AZ34" s="29"/>
       <c r="BA34" s="56" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="BB34" s="56"/>
     </row>
@@ -26397,7 +26199,7 @@
       <c r="AY36" s="28"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="57" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -26453,7 +26255,7 @@
       <c r="AY37" s="28"/>
       <c r="AZ37" s="29"/>
       <c r="BA37" s="56" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -26511,7 +26313,7 @@
       <c r="AY38" s="28"/>
       <c r="AZ38" s="29"/>
       <c r="BA38" s="56" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -26567,7 +26369,7 @@
       <c r="AY39" s="28"/>
       <c r="AZ39" s="29"/>
       <c r="BA39" s="56" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -26625,7 +26427,7 @@
       <c r="AY40" s="28"/>
       <c r="AZ40" s="29"/>
       <c r="BA40" s="56" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -26681,7 +26483,7 @@
       <c r="AY41" s="28"/>
       <c r="AZ41" s="29"/>
       <c r="BA41" s="56" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">

--- a/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
+++ b/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\문서\GitHub\RevoltDay\기획서\일정 관련\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\기획서\일정 관련\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_F0974D4C33CAD8EE2B1C80118FF02171B7213FB2" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F3958428-C72B-4791-AAB8-E3F50D60E54F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
@@ -41,7 +40,7 @@
     <definedName name="제목영역..BO60" localSheetId="1">'프로젝트 플래너 (2)'!$B$3:$B$4</definedName>
     <definedName name="제목영역..BO60">'프로젝트 플래너'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,12 +53,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>6kigs_11</author>
   </authors>
   <commentList>
-    <comment ref="Y4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="Y4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="527">
   <si>
     <t>프로젝트 플래너</t>
   </si>
@@ -961,10 +960,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>치안 저하/유지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">대기 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1025,10 +1020,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">치안 저하 이팩트 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>봉쇄 이팩트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2034,12 +2025,24 @@
   <si>
     <t>2019-01-05 작업 이어서 진행</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>치안 게이지 상승</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>치안 게이지 이팩트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
@@ -2869,25 +2872,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% 완료" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="% 완료(계획을 넘어서는) 범례" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="기간 값" xfId="13" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="기간 강조 표시 제어" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="기간 머리글" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="기간 범례" xfId="14" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="레이블" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="% 완료" xfId="16"/>
+    <cellStyle name="% 완료(계획을 넘어서는) 범례" xfId="18"/>
+    <cellStyle name="기간 값" xfId="13"/>
+    <cellStyle name="기간 강조 표시 제어" xfId="7"/>
+    <cellStyle name="기간 머리글" xfId="3"/>
+    <cellStyle name="기간 범례" xfId="14"/>
+    <cellStyle name="레이블" xfId="5"/>
     <cellStyle name="설명 텍스트" xfId="12" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="실제 범례" xfId="15" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="실제(계획을 넘어서는) 범례" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="완료율" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="실제 범례" xfId="15"/>
+    <cellStyle name="실제(계획을 넘어서는) 범례" xfId="17"/>
+    <cellStyle name="완료율" xfId="6"/>
     <cellStyle name="제목" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="제목 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="제목 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="제목 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="제목 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="프로젝트 머리글" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="활동" xfId="2" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="프로젝트 머리글" xfId="4"/>
+    <cellStyle name="활동" xfId="2"/>
   </cellStyles>
   <dxfs count="36">
     <dxf>
@@ -3650,16 +3653,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BY167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I161" sqref="I161"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q156" sqref="Q156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3903,7 +3906,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q3" s="69" t="s">
         <v>32</v>
@@ -4181,7 +4184,7 @@
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
       <c r="H6" s="38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="38"/>
@@ -4277,7 +4280,7 @@
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
       <c r="H7" s="38" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
@@ -4373,7 +4376,7 @@
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -4469,7 +4472,7 @@
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -4567,7 +4570,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="38" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -4745,7 +4748,7 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -4841,7 +4844,7 @@
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
       <c r="H13" s="38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
@@ -4937,7 +4940,7 @@
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
@@ -5033,7 +5036,7 @@
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
@@ -5129,7 +5132,7 @@
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="38"/>
@@ -5225,7 +5228,7 @@
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
@@ -5321,7 +5324,7 @@
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
@@ -5411,13 +5414,13 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
@@ -5595,7 +5598,7 @@
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -5691,7 +5694,7 @@
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
@@ -5781,13 +5784,13 @@
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -5883,7 +5886,7 @@
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
@@ -5979,7 +5982,7 @@
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
@@ -6075,7 +6078,7 @@
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="38" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
@@ -6171,7 +6174,7 @@
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -6267,7 +6270,7 @@
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
@@ -6461,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="41">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="41">
         <v>1</v>
@@ -6693,15 +6696,15 @@
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
@@ -6719,10 +6722,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="41">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="Q33" s="41">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
@@ -6798,7 +6801,9 @@
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
+      <c r="H34" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
@@ -6815,10 +6820,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="41">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="Q34" s="41">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -6892,7 +6897,9 @@
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="H35" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
@@ -6903,16 +6910,16 @@
         <v>0</v>
       </c>
       <c r="N35" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O35" s="40">
         <v>0</v>
       </c>
       <c r="P35" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q35" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -6986,7 +6993,9 @@
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="H36" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
       <c r="K36" s="38"/>
@@ -6997,16 +7006,16 @@
         <v>0</v>
       </c>
       <c r="N36" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O36" s="40">
         <v>0</v>
       </c>
       <c r="P36" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q36" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -7080,7 +7089,9 @@
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="H37" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
       <c r="K37" s="38"/>
@@ -7091,16 +7102,16 @@
         <v>0</v>
       </c>
       <c r="N37" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O37" s="40">
         <v>0</v>
       </c>
       <c r="P37" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q37" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
@@ -7174,7 +7185,9 @@
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I38" s="38"/>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
@@ -7185,16 +7198,16 @@
         <v>0</v>
       </c>
       <c r="N38" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O38" s="40">
         <v>0</v>
       </c>
       <c r="P38" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q38" s="41">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -7264,11 +7277,13 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38" t="s">
-        <v>231</v>
+        <v>524</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="H39" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
@@ -7285,7 +7300,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="Q39" s="41">
         <v>0.7</v>
@@ -7362,7 +7377,9 @@
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="H40" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
       <c r="K40" s="38"/>
@@ -7382,7 +7399,7 @@
         <v>0.5</v>
       </c>
       <c r="Q40" s="41">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
@@ -7456,7 +7473,9 @@
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="H41" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
       <c r="K41" s="38"/>
@@ -7550,7 +7569,9 @@
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="H42" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
@@ -7640,11 +7661,13 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="H43" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
       <c r="K43" s="38"/>
@@ -7738,7 +7761,9 @@
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="H44" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
       <c r="K44" s="38"/>
@@ -7758,7 +7783,7 @@
         <v>1</v>
       </c>
       <c r="Q44" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
@@ -7832,7 +7857,9 @@
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
+      <c r="H45" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
       <c r="K45" s="38"/>
@@ -7852,7 +7879,7 @@
         <v>0.5</v>
       </c>
       <c r="Q45" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
@@ -7926,7 +7953,9 @@
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="H46" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
       <c r="K46" s="38"/>
@@ -7946,7 +7975,7 @@
         <v>0.5</v>
       </c>
       <c r="Q46" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
@@ -8020,7 +8049,9 @@
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="H47" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
       <c r="K47" s="38"/>
@@ -8114,7 +8145,9 @@
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="H48" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
       <c r="K48" s="38"/>
@@ -8131,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="P48" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="41">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -8204,11 +8237,13 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="H49" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
       <c r="K49" s="38"/>
@@ -8228,7 +8263,7 @@
         <v>0.5</v>
       </c>
       <c r="Q49" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -8298,11 +8333,13 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="H50" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
       <c r="K50" s="38"/>
@@ -8392,11 +8429,13 @@
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="H51" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
@@ -8486,11 +8525,13 @@
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="H52" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
       <c r="K52" s="38"/>
@@ -8510,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="41">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -8580,11 +8621,13 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="H53" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
       <c r="K53" s="38"/>
@@ -8601,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="P53" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q53" s="41">
         <v>0</v>
@@ -8674,11 +8717,13 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="H54" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
@@ -8695,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q54" s="41">
         <v>0</v>
@@ -8768,11 +8813,13 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+      <c r="H55" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
@@ -8789,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q55" s="41">
         <v>0.2</v>
@@ -8862,11 +8909,13 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="H56" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I56" s="38"/>
       <c r="J56" s="38"/>
       <c r="K56" s="38"/>
@@ -8883,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q56" s="41">
         <v>0</v>
@@ -8956,11 +9005,13 @@
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
       <c r="E57" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="H57" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I57" s="38"/>
       <c r="J57" s="38"/>
       <c r="K57" s="38"/>
@@ -8977,7 +9028,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q57" s="41">
         <v>0</v>
@@ -9048,17 +9099,19 @@
         <v>155</v>
       </c>
       <c r="C58" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D58" s="38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E58" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="H58" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I58" s="38"/>
       <c r="J58" s="38"/>
       <c r="K58" s="38"/>
@@ -9075,10 +9128,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
@@ -9148,11 +9201,13 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="H59" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
       <c r="K59" s="38"/>
@@ -9169,10 +9224,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q59" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
@@ -9242,11 +9297,13 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="H60" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
       <c r="K60" s="38"/>
@@ -9263,10 +9320,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="41">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
@@ -9336,11 +9393,13 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
+      <c r="H61" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
       <c r="K61" s="38"/>
@@ -9357,10 +9416,10 @@
         <v>0</v>
       </c>
       <c r="P61" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q61" s="41">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
@@ -9430,11 +9489,13 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
+      <c r="H62" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
       <c r="K62" s="38"/>
@@ -9524,16 +9585,18 @@
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
+      <c r="H63" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
       <c r="K63" s="38"/>
       <c r="L63" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M63" s="40">
         <v>0</v>
@@ -9545,10 +9608,10 @@
         <v>0</v>
       </c>
       <c r="P63" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q63" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
@@ -9618,16 +9681,18 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
+      <c r="H64" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
       <c r="L64" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M64" s="40">
         <v>0</v>
@@ -9639,10 +9704,10 @@
         <v>0</v>
       </c>
       <c r="P64" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q64" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -9712,11 +9777,13 @@
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>247</v>
+        <v>525</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
+      <c r="H65" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
       <c r="K65" s="38"/>
@@ -9733,10 +9800,10 @@
         <v>0</v>
       </c>
       <c r="P65" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
@@ -9806,11 +9873,13 @@
       <c r="C66" s="38"/>
       <c r="D66" s="38"/>
       <c r="E66" s="38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
+      <c r="H66" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
       <c r="K66" s="38"/>
@@ -9827,10 +9896,10 @@
         <v>0</v>
       </c>
       <c r="P66" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66" s="41">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
@@ -9900,11 +9969,13 @@
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
+      <c r="H67" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
       <c r="K67" s="38"/>
@@ -9921,10 +9992,10 @@
         <v>0</v>
       </c>
       <c r="P67" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67" s="41">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
@@ -9994,31 +10065,33 @@
       <c r="C68" s="38"/>
       <c r="D68" s="38"/>
       <c r="E68" s="38" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
+      <c r="H68" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
       <c r="K68" s="38"/>
       <c r="L68" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M68" s="40">
         <v>0</v>
       </c>
       <c r="N68" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O68" s="40">
         <v>0</v>
       </c>
       <c r="P68" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q68" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
@@ -10088,11 +10161,13 @@
       <c r="C69" s="38"/>
       <c r="D69" s="38"/>
       <c r="E69" s="38" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
+      <c r="H69" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
       <c r="K69" s="38"/>
@@ -10184,11 +10259,13 @@
         <v>135</v>
       </c>
       <c r="E70" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
+      <c r="H70" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
       <c r="K70" s="38"/>
@@ -10278,11 +10355,13 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
+      <c r="H71" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
       <c r="K71" s="38"/>
@@ -10372,11 +10451,13 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
+      <c r="H72" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I72" s="38"/>
       <c r="J72" s="38"/>
       <c r="K72" s="38"/>
@@ -10466,11 +10547,13 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
+      <c r="H73" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
       <c r="K73" s="38"/>
@@ -10487,10 +10570,10 @@
         <v>0</v>
       </c>
       <c r="P73" s="41">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q73" s="41">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
@@ -10560,11 +10643,13 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
+      <c r="H74" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
       <c r="K74" s="38"/>
@@ -10581,7 +10666,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74" s="41">
         <v>0.8</v>
@@ -10654,11 +10739,13 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
+      <c r="H75" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I75" s="38"/>
       <c r="J75" s="38"/>
       <c r="K75" s="38"/>
@@ -10675,7 +10762,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75" s="41">
         <v>0.3</v>
@@ -10748,11 +10835,13 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
+      <c r="H76" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
       <c r="K76" s="38"/>
@@ -10769,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="P76" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="41">
         <v>0.3</v>
@@ -10842,11 +10931,13 @@
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
+      <c r="H77" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I77" s="38"/>
       <c r="J77" s="38"/>
       <c r="K77" s="38"/>
@@ -10863,7 +10954,7 @@
         <v>0</v>
       </c>
       <c r="P77" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77" s="41">
         <v>0.8</v>
@@ -10931,16 +11022,18 @@
     </row>
     <row r="78" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="38" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
       <c r="E78" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
+      <c r="H78" s="38" t="s">
+        <v>526</v>
+      </c>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
       <c r="K78" s="38"/>
@@ -10957,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="P78" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" s="41">
         <v>0.7</v>
@@ -11025,7 +11118,7 @@
     </row>
     <row r="79" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C79" s="38"/>
       <c r="D79" s="38"/>
@@ -11105,14 +11198,14 @@
     </row>
     <row r="80" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="38" t="s">
         <v>138</v>
       </c>
       <c r="E80" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -11201,12 +11294,12 @@
     </row>
     <row r="81" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="39"/>
       <c r="E81" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
@@ -11295,7 +11388,7 @@
     </row>
     <row r="82" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="38" t="s">
@@ -11389,12 +11482,12 @@
     </row>
     <row r="83" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="38" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="39"/>
       <c r="E83" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -11482,12 +11575,12 @@
     </row>
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C84" s="38"/>
       <c r="D84" s="39"/>
       <c r="E84" s="38" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -11575,12 +11668,12 @@
     </row>
     <row r="85" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="39"/>
       <c r="E85" s="38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -11668,12 +11761,12 @@
     </row>
     <row r="86" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="38" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="39"/>
       <c r="E86" s="38" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -11761,12 +11854,12 @@
     </row>
     <row r="87" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="38" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="39"/>
       <c r="E87" s="38" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -11854,12 +11947,12 @@
     </row>
     <row r="88" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="38" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="39"/>
       <c r="E88" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -11947,12 +12040,12 @@
     </row>
     <row r="89" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="38" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C89" s="38"/>
       <c r="D89" s="39"/>
       <c r="E89" s="38" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -12040,12 +12133,12 @@
     </row>
     <row r="90" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C90" s="38"/>
       <c r="D90" s="39"/>
       <c r="E90" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -12133,12 +12226,12 @@
     </row>
     <row r="91" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -12226,14 +12319,14 @@
     </row>
     <row r="92" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="38" t="s">
         <v>179</v>
       </c>
       <c r="E92" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -12257,7 +12350,7 @@
         <v>0.5</v>
       </c>
       <c r="Q92" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
@@ -12321,12 +12414,12 @@
     </row>
     <row r="93" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="38" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C93" s="38"/>
       <c r="D93" s="38"/>
       <c r="E93" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -12335,22 +12428,22 @@
       <c r="J93" s="38"/>
       <c r="K93" s="38"/>
       <c r="L93" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M93" s="40">
         <v>0</v>
       </c>
       <c r="N93" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O93" s="40">
         <v>0</v>
       </c>
       <c r="P93" s="41">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q93" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
@@ -12414,12 +12507,12 @@
     </row>
     <row r="94" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C94" s="38"/>
       <c r="D94" s="38"/>
       <c r="E94" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -12428,22 +12521,22 @@
       <c r="J94" s="38"/>
       <c r="K94" s="38"/>
       <c r="L94" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M94" s="40">
         <v>0</v>
       </c>
       <c r="N94" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O94" s="40">
         <v>0</v>
       </c>
       <c r="P94" s="41">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q94" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
@@ -12507,12 +12600,12 @@
     </row>
     <row r="95" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="39"/>
       <c r="E95" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -12521,22 +12614,22 @@
       <c r="J95" s="38"/>
       <c r="K95" s="38"/>
       <c r="L95" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M95" s="40">
         <v>0</v>
       </c>
       <c r="N95" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O95" s="40">
         <v>0</v>
       </c>
       <c r="P95" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q95" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
@@ -12600,12 +12693,12 @@
     </row>
     <row r="96" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="39"/>
       <c r="E96" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -12614,22 +12707,22 @@
       <c r="J96" s="38"/>
       <c r="K96" s="38"/>
       <c r="L96" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M96" s="40">
         <v>0</v>
       </c>
       <c r="N96" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O96" s="40">
         <v>0</v>
       </c>
       <c r="P96" s="41">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q96" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
@@ -12693,12 +12786,12 @@
     </row>
     <row r="97" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="39"/>
       <c r="E97" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -12707,22 +12800,22 @@
       <c r="J97" s="38"/>
       <c r="K97" s="38"/>
       <c r="L97" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M97" s="40">
         <v>0</v>
       </c>
       <c r="N97" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O97" s="40">
         <v>0</v>
       </c>
       <c r="P97" s="41">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q97" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
@@ -12786,12 +12879,12 @@
     </row>
     <row r="98" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="38" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C98" s="38"/>
       <c r="D98" s="39"/>
       <c r="E98" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -12800,22 +12893,22 @@
       <c r="J98" s="38"/>
       <c r="K98" s="38"/>
       <c r="L98" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M98" s="40">
         <v>0</v>
       </c>
       <c r="N98" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O98" s="40">
         <v>0</v>
       </c>
       <c r="P98" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q98" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
@@ -12879,12 +12972,12 @@
     </row>
     <row r="99" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="38" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C99" s="38"/>
       <c r="D99" s="39"/>
       <c r="E99" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -12893,22 +12986,22 @@
       <c r="J99" s="38"/>
       <c r="K99" s="38"/>
       <c r="L99" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M99" s="40">
         <v>0</v>
       </c>
       <c r="N99" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O99" s="40">
         <v>0</v>
       </c>
       <c r="P99" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q99" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
@@ -12972,12 +13065,12 @@
     </row>
     <row r="100" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="38" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C100" s="38"/>
       <c r="D100" s="39"/>
       <c r="E100" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -12986,22 +13079,22 @@
       <c r="J100" s="38"/>
       <c r="K100" s="38"/>
       <c r="L100" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M100" s="40">
         <v>0</v>
       </c>
       <c r="N100" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O100" s="40">
         <v>0</v>
       </c>
       <c r="P100" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q100" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
@@ -13065,12 +13158,12 @@
     </row>
     <row r="101" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="38" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C101" s="38"/>
       <c r="D101" s="39"/>
       <c r="E101" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -13079,13 +13172,13 @@
       <c r="J101" s="38"/>
       <c r="K101" s="38"/>
       <c r="L101" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M101" s="40">
         <v>0</v>
       </c>
       <c r="N101" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O101" s="40">
         <v>0</v>
@@ -13094,7 +13187,7 @@
         <v>0.3</v>
       </c>
       <c r="Q101" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R101" s="7"/>
       <c r="S101" s="7"/>
@@ -13158,14 +13251,14 @@
     </row>
     <row r="102" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C102" s="38"/>
       <c r="D102" s="38" t="s">
         <v>180</v>
       </c>
       <c r="E102" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -13174,7 +13267,7 @@
       <c r="J102" s="38"/>
       <c r="K102" s="38"/>
       <c r="L102" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M102" s="40">
         <v>0</v>
@@ -13253,12 +13346,12 @@
     </row>
     <row r="103" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="38" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -13267,7 +13360,7 @@
       <c r="J103" s="38"/>
       <c r="K103" s="38"/>
       <c r="L103" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M103" s="40">
         <v>0</v>
@@ -13346,12 +13439,12 @@
     </row>
     <row r="104" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -13360,7 +13453,7 @@
       <c r="J104" s="38"/>
       <c r="K104" s="38"/>
       <c r="L104" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M104" s="40">
         <v>0</v>
@@ -13439,12 +13532,12 @@
     </row>
     <row r="105" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -13453,7 +13546,7 @@
       <c r="J105" s="38"/>
       <c r="K105" s="38"/>
       <c r="L105" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M105" s="40">
         <v>0</v>
@@ -13532,12 +13625,12 @@
     </row>
     <row r="106" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -13625,12 +13718,12 @@
     </row>
     <row r="107" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -13718,12 +13811,12 @@
     </row>
     <row r="108" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
       <c r="E108" s="38" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
@@ -13811,12 +13904,12 @@
     </row>
     <row r="109" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="38" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C109" s="38"/>
       <c r="D109" s="38"/>
       <c r="E109" s="38" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -13904,7 +13997,7 @@
     </row>
     <row r="110" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="38" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
@@ -13983,14 +14076,14 @@
     </row>
     <row r="111" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="38" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C111" s="38"/>
       <c r="D111" s="38" t="s">
         <v>181</v>
       </c>
       <c r="E111" s="38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -14078,12 +14171,12 @@
     </row>
     <row r="112" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="38" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -14171,12 +14264,12 @@
     </row>
     <row r="113" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="38" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -14264,12 +14357,12 @@
     </row>
     <row r="114" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="38" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -14357,12 +14450,12 @@
     </row>
     <row r="115" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="38" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -14450,12 +14543,12 @@
     </row>
     <row r="116" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="38" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -14543,12 +14636,12 @@
     </row>
     <row r="117" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="38" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C117" s="38"/>
       <c r="D117" s="38"/>
       <c r="E117" s="38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -14636,12 +14729,12 @@
     </row>
     <row r="118" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="38" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -14729,14 +14822,14 @@
     </row>
     <row r="119" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="38" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C119" s="38"/>
       <c r="D119" s="38" t="s">
         <v>136</v>
       </c>
       <c r="E119" s="38" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -14824,12 +14917,12 @@
     </row>
     <row r="120" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="38" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -14917,12 +15010,12 @@
     </row>
     <row r="121" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C121" s="38"/>
       <c r="D121" s="38"/>
       <c r="E121" s="38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
@@ -15010,12 +15103,12 @@
     </row>
     <row r="122" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -15103,11 +15196,11 @@
     </row>
     <row r="123" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="38" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="38"/>
@@ -15184,11 +15277,11 @@
     </row>
     <row r="124" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -15276,14 +15369,14 @@
     </row>
     <row r="125" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C125" s="38"/>
       <c r="D125" s="38" t="s">
         <v>183</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -15371,12 +15464,12 @@
     </row>
     <row r="126" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C126" s="38"/>
       <c r="D126" s="38"/>
       <c r="E126" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -15464,12 +15557,12 @@
     </row>
     <row r="127" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
@@ -15557,19 +15650,19 @@
     </row>
     <row r="128" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C128" s="38"/>
       <c r="D128" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E128" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
       <c r="H128" s="38" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I128" s="38"/>
       <c r="J128" s="38"/>
@@ -15654,17 +15747,17 @@
     </row>
     <row r="129" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
       <c r="H129" s="38" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I129" s="38"/>
       <c r="J129" s="38"/>
@@ -15749,17 +15842,17 @@
     </row>
     <row r="130" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
       <c r="H130" s="38" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I130" s="38"/>
       <c r="J130" s="38"/>
@@ -15844,17 +15937,17 @@
     </row>
     <row r="131" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
       <c r="H131" s="38" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I131" s="38"/>
       <c r="J131" s="38"/>
@@ -15939,17 +16032,17 @@
     </row>
     <row r="132" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
       <c r="H132" s="38" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="I132" s="38"/>
       <c r="J132" s="38"/>
@@ -16034,17 +16127,17 @@
     </row>
     <row r="133" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C133" s="38"/>
       <c r="D133" s="38"/>
       <c r="E133" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
       <c r="H133" s="38" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="I133" s="38"/>
       <c r="J133" s="38"/>
@@ -16129,17 +16222,17 @@
     </row>
     <row r="134" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="38" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
       <c r="H134" s="38" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I134" s="38"/>
       <c r="J134" s="38"/>
@@ -16150,12 +16243,14 @@
       <c r="M134" s="40">
         <v>1</v>
       </c>
-      <c r="N134" s="40"/>
+      <c r="N134" s="40">
+        <v>6</v>
+      </c>
       <c r="O134" s="40">
         <v>0</v>
       </c>
       <c r="P134" s="41">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="Q134" s="41">
         <v>0.8</v>
@@ -16222,19 +16317,19 @@
     </row>
     <row r="135" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C135" s="38"/>
       <c r="D135" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E135" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
       <c r="H135" s="38" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="I135" s="38"/>
       <c r="J135" s="38"/>
@@ -16246,13 +16341,13 @@
         <v>0</v>
       </c>
       <c r="N135" s="40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O135" s="40">
         <v>0</v>
       </c>
       <c r="P135" s="41">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Q135" s="41">
         <v>1</v>
@@ -16319,17 +16414,17 @@
     </row>
     <row r="136" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="38" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C136" s="38"/>
       <c r="D136" s="38"/>
       <c r="E136" s="38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
       <c r="H136" s="38" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="I136" s="38"/>
       <c r="J136" s="38"/>
@@ -16347,7 +16442,7 @@
         <v>9</v>
       </c>
       <c r="P136" s="41">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Q136" s="41">
         <v>1</v>
@@ -16414,7 +16509,7 @@
     </row>
     <row r="137" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C137" s="38"/>
       <c r="D137" s="38"/>
@@ -16493,7 +16588,7 @@
     </row>
     <row r="138" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C138" s="38" t="s">
         <v>189</v>
@@ -16574,7 +16669,7 @@
     </row>
     <row r="139" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C139" s="38"/>
       <c r="D139" s="38" t="s">
@@ -16586,7 +16681,7 @@
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
       <c r="H139" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I139" s="38"/>
       <c r="J139" s="38"/>
@@ -16671,7 +16766,7 @@
     </row>
     <row r="140" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38" t="s">
@@ -16683,7 +16778,7 @@
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
       <c r="H140" s="38" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I140" s="38"/>
       <c r="J140" s="38"/>
@@ -16704,7 +16799,7 @@
         <v>0.5</v>
       </c>
       <c r="Q140" s="41">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="R140" s="7"/>
       <c r="S140" s="7"/>
@@ -16768,7 +16863,7 @@
     </row>
     <row r="141" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C141" s="38"/>
       <c r="D141" s="38" t="s">
@@ -16780,7 +16875,7 @@
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
       <c r="H141" s="38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="I141" s="38"/>
       <c r="J141" s="38"/>
@@ -16865,7 +16960,7 @@
     </row>
     <row r="142" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C142" s="38"/>
       <c r="D142" s="38" t="s">
@@ -16877,7 +16972,7 @@
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
       <c r="H142" s="38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I142" s="38"/>
       <c r="J142" s="38"/>
@@ -16898,7 +16993,7 @@
         <v>1</v>
       </c>
       <c r="Q142" s="41">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
@@ -16962,7 +17057,7 @@
     </row>
     <row r="143" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="38" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C143" s="38"/>
       <c r="D143" s="38" t="s">
@@ -16974,7 +17069,7 @@
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
       <c r="H143" s="38" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I143" s="38"/>
       <c r="J143" s="38"/>
@@ -16992,7 +17087,7 @@
         <v>0</v>
       </c>
       <c r="P143" s="41">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="Q143" s="41">
         <v>0</v>
@@ -17059,7 +17154,7 @@
     </row>
     <row r="144" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C144" s="38"/>
       <c r="D144" s="1"/>
@@ -17140,7 +17235,7 @@
     </row>
     <row r="145" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C145" s="38" t="s">
         <v>201</v>
@@ -17152,7 +17247,7 @@
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
       <c r="H145" s="38" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="I145" s="38"/>
       <c r="J145" s="38"/>
@@ -17237,7 +17332,7 @@
     </row>
     <row r="146" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C146" s="38"/>
       <c r="D146" s="38" t="s">
@@ -17247,7 +17342,7 @@
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
       <c r="H146" s="38" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="I146" s="38"/>
       <c r="J146" s="38"/>
@@ -17328,7 +17423,7 @@
     </row>
     <row r="147" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
@@ -17407,19 +17502,19 @@
     </row>
     <row r="148" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C148" s="38" t="s">
         <v>206</v>
       </c>
       <c r="D148" s="38" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E148" s="38"/>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
       <c r="H148" s="38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I148" s="38"/>
       <c r="J148" s="38"/>
@@ -17430,7 +17525,7 @@
       <c r="O148" s="40"/>
       <c r="P148" s="41"/>
       <c r="Q148" s="41">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
@@ -17494,7 +17589,7 @@
     </row>
     <row r="149" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
@@ -17573,7 +17668,7 @@
     </row>
     <row r="150" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
@@ -17652,7 +17747,7 @@
     </row>
     <row r="151" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="38" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
@@ -17731,7 +17826,7 @@
     </row>
     <row r="152" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
@@ -17810,7 +17905,7 @@
     </row>
     <row r="153" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="38" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
@@ -17889,7 +17984,7 @@
     </row>
     <row r="154" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="38" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C154" s="38"/>
       <c r="D154" s="38"/>
@@ -17968,7 +18063,7 @@
     </row>
     <row r="155" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B155" s="38" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C155" s="38"/>
       <c r="D155" s="38"/>
@@ -18048,30 +18143,30 @@
     <row r="156" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P156" s="45">
         <f>AVERAGE(P6:P155)</f>
-        <v>0.43653846153846143</v>
+        <v>0.62615384615384617</v>
       </c>
       <c r="Q156" s="45">
         <f>AVERAGE(Q5:Q155)</f>
-        <v>0.43587786259541977</v>
+        <v>0.52748091603053437</v>
       </c>
     </row>
     <row r="157" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C157" s="60"/>
       <c r="D157" s="61"/>
       <c r="H157" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I157" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="Q157" s="49"/>
     </row>
     <row r="158" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B158" s="51" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C158" s="51">
         <v>0</v>
@@ -18133,8 +18228,12 @@
       <c r="G161" s="39">
         <v>14</v>
       </c>
-      <c r="H161" s="39"/>
-      <c r="I161" s="39"/>
+      <c r="H161" s="39">
+        <v>49.73</v>
+      </c>
+      <c r="I161" s="39">
+        <v>52.75</v>
+      </c>
     </row>
     <row r="162" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="39">
@@ -18213,7 +18312,7 @@
       <c r="I167" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q4" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:Q4"/>
   <mergeCells count="15">
     <mergeCell ref="B157:D157"/>
     <mergeCell ref="AS2:AZ2"/>
@@ -18294,25 +18393,25 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" xWindow="1203" yWindow="399" count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다." prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="R2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations xWindow="1203" yWindow="399" count="16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다." prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="R2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="T2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="Z2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="AE2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서는 실제 기간을 나타냅니다." sqref="AJ2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AR2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="R3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="L3:L4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 D5부터 시작하여 D 열에 계획 기간을 입력합니다." sqref="M3:M4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 E5부터 시작하여 E 열에 실제 시작 기간을 입력합니다." sqref="N3:N4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 F5부터 시작하여 F 열에 실제 기간을 입력합니다." sqref="O3:P4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="G5 셀부터 시작하여 G 열에 완료된 프로젝트의 백분율을 입력합니다." sqref="Q3:Q4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트의 제목입니다. 이 셀에 새 제목을 입력합니다. H2 셀에서 기간을 강조 표시합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B1:K1" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="H2 셀에서 강조 표시할 기간을 선택합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B2:P2" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5부터 시작하여 B 열에 활동을 입력합니다._x000a_" sqref="B3:F3 B4:E4 H3:K4" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="T2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="Z2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="AE2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서는 실제 기간을 나타냅니다." sqref="AJ2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AR2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="R3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="L3:L4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 D5부터 시작하여 D 열에 계획 기간을 입력합니다." sqref="M3:M4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 E5부터 시작하여 E 열에 실제 시작 기간을 입력합니다." sqref="N3:N4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 F5부터 시작하여 F 열에 실제 기간을 입력합니다." sqref="O3:P4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="G5 셀부터 시작하여 G 열에 완료된 프로젝트의 백분율을 입력합니다." sqref="Q3:Q4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트의 제목입니다. 이 셀에 새 제목을 입력합니다. H2 셀에서 기간을 강조 표시합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B1:K1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="H2 셀에서 강조 표시할 기간을 선택합니다. 차트 범례는 J2~AI2에 있습니다." sqref="B2:P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5부터 시작하여 B 열에 활동을 입력합니다._x000a_" sqref="B3:F3 B4:E4 H3:K4"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -18325,7 +18424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
@@ -23748,20 +23847,20 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="14">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="H2 셀에서 강조 표시할 기간을 선택합니다. 차트 범례는 J2~AI2에 있습니다." sqref="A2:N2" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트의 제목입니다. 이 셀에 새 제목을 입력합니다. H2 셀에서 기간을 강조 표시합니다. 차트 범례는 J2~AI2에 있습니다." sqref="A1:J1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="G5 셀부터 시작하여 G 열에 완료된 프로젝트의 백분율을 입력합니다." sqref="O3:O4" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 F5부터 시작하여 F 열에 실제 기간을 입력합니다." sqref="N3:N4" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 E5부터 시작하여 E 열에 실제 시작 기간을 입력합니다." sqref="M3:M4" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 D5부터 시작하여 D 열에 계획 기간을 입력합니다." sqref="L3:L4" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="K3:K4" xr:uid="{00000000-0002-0000-0100-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5부터 시작하여 B 열에 활동을 입력합니다._x000a_" sqref="A3:E3 A4:D4 G3:J4" xr:uid="{00000000-0002-0000-0100-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="P3" xr:uid="{00000000-0002-0000-0100-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AH2" xr:uid="{00000000-0002-0000-0100-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="AC2" xr:uid="{00000000-0002-0000-0100-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="X2" xr:uid="{00000000-0002-0000-0100-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="R2" xr:uid="{00000000-0002-0000-0100-00000C000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다." prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="P2" xr:uid="{00000000-0002-0000-0100-00000D000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="H2 셀에서 강조 표시할 기간을 선택합니다. 차트 범례는 J2~AI2에 있습니다." sqref="A2:N2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트의 제목입니다. 이 셀에 새 제목을 입력합니다. H2 셀에서 기간을 강조 표시합니다. 차트 범례는 J2~AI2에 있습니다." sqref="A1:J1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="G5 셀부터 시작하여 G 열에 완료된 프로젝트의 백분율을 입력합니다." sqref="O3:O4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 F5부터 시작하여 F 열에 실제 기간을 입력합니다." sqref="N3:N4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 E5부터 시작하여 E 열에 실제 시작 기간을 입력합니다." sqref="M3:M4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 D5부터 시작하여 D 열에 계획 기간을 입력합니다." sqref="L3:L4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 C5부터 시작하여 C 열에 계획 시작 기간을 입력합니다." sqref="K3:K4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="셀 B5부터 시작하여 B 열에 활동을 입력합니다._x000a_" sqref="A3:E3 A4:D4 G3:J4"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="기간은 H4 셀에서 BO4 셀까지 1~60으로 차트화되어 있습니다. " sqref="P3"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획을 넘어서 완료된 프로젝트의 백분율을 나타냅니다." sqref="AH2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 완료된 프로젝트의 백분율을 나타냅니다." sqref="AC2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="범례 셀이 실제 기간을 나타냅니다." sqref="X2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 범례 셀은 계획 기간을 나타냅니다." sqref="R2"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다." prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="P2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23775,7 +23874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23839,7 +23938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BZ79"/>
   <sheetViews>
     <sheetView topLeftCell="BI1" workbookViewId="0">
@@ -24132,7 +24231,7 @@
       <c r="V4" s="29"/>
       <c r="W4" s="27"/>
       <c r="X4" s="31" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Y4" s="28"/>
       <c r="Z4" s="28"/>
@@ -24143,7 +24242,7 @@
       <c r="AE4" s="28"/>
       <c r="AF4" s="29"/>
       <c r="AG4" s="30" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AH4" s="28"/>
       <c r="AI4" s="28"/>
@@ -24165,14 +24264,14 @@
       <c r="AY4" s="28"/>
       <c r="AZ4" s="29"/>
       <c r="BA4" s="56" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="BB4" s="56"/>
       <c r="BO4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="BP4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="2:78" x14ac:dyDescent="0.3">
@@ -24201,7 +24300,7 @@
       <c r="V5" s="29"/>
       <c r="W5" s="27"/>
       <c r="X5" s="31" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="Y5" s="28"/>
       <c r="Z5" s="28"/>
@@ -24212,7 +24311,7 @@
       <c r="AE5" s="28"/>
       <c r="AF5" s="29"/>
       <c r="AG5" s="30" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
@@ -24225,7 +24324,7 @@
       <c r="AP5" s="29"/>
       <c r="AQ5" s="27"/>
       <c r="AR5" s="31" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="AS5" s="28"/>
       <c r="AT5" s="28"/>
@@ -24237,7 +24336,7 @@
       <c r="AZ5" s="29"/>
       <c r="BA5" s="56"/>
       <c r="BB5" s="56" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="2:78" x14ac:dyDescent="0.3">
@@ -24268,7 +24367,7 @@
       <c r="V6" s="29"/>
       <c r="W6" s="27"/>
       <c r="X6" s="31" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
@@ -24279,7 +24378,7 @@
       <c r="AE6" s="28"/>
       <c r="AF6" s="29"/>
       <c r="AG6" s="30" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
@@ -24292,7 +24391,7 @@
       <c r="AP6" s="29"/>
       <c r="AQ6" s="27"/>
       <c r="AR6" s="86" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AS6" s="86"/>
       <c r="AT6" s="86"/>
@@ -24304,10 +24403,10 @@
       <c r="AZ6" s="87"/>
       <c r="BA6" s="56"/>
       <c r="BB6" s="56" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="BZ6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="2:78" x14ac:dyDescent="0.3">
@@ -24336,7 +24435,7 @@
       <c r="V7" s="29"/>
       <c r="W7" s="27"/>
       <c r="X7" s="31" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
@@ -24347,7 +24446,7 @@
       <c r="AE7" s="28"/>
       <c r="AF7" s="29"/>
       <c r="AG7" s="30" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
@@ -24371,7 +24470,7 @@
       <c r="BA7" s="56"/>
       <c r="BB7" s="56"/>
       <c r="BO7" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="2:78" x14ac:dyDescent="0.3">
@@ -24411,7 +24510,7 @@
       <c r="AE8" s="28"/>
       <c r="AF8" s="29"/>
       <c r="AG8" s="30" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AH8" s="28"/>
       <c r="AI8" s="28"/>
@@ -24424,7 +24523,7 @@
       <c r="AP8" s="29"/>
       <c r="AQ8" s="27"/>
       <c r="AR8" s="31" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AS8" s="28"/>
       <c r="AT8" s="28"/>
@@ -24435,7 +24534,7 @@
       <c r="AY8" s="28"/>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="56" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="BB8" s="56"/>
     </row>
@@ -24474,7 +24573,7 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="29"/>
       <c r="AG9" s="30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
@@ -24535,7 +24634,7 @@
       <c r="AE10" s="28"/>
       <c r="AF10" s="29"/>
       <c r="AG10" s="30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AH10" s="28"/>
       <c r="AI10" s="28"/>
@@ -24548,7 +24647,7 @@
       <c r="AP10" s="29"/>
       <c r="AQ10" s="27"/>
       <c r="AR10" s="31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AS10" s="28"/>
       <c r="AT10" s="28"/>
@@ -24559,7 +24658,7 @@
       <c r="AY10" s="28"/>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="56" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="BB10" s="56"/>
     </row>
@@ -24620,7 +24719,7 @@
       <c r="BA11" s="56"/>
       <c r="BB11" s="56"/>
       <c r="BO11" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="2:78" x14ac:dyDescent="0.3">
@@ -24658,7 +24757,7 @@
       <c r="AE12" s="28"/>
       <c r="AF12" s="29"/>
       <c r="AG12" s="30" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AH12" s="28"/>
       <c r="AI12" s="28"/>
@@ -24671,7 +24770,7 @@
       <c r="AP12" s="29"/>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="31" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AS12" s="28"/>
       <c r="AT12" s="28"/>
@@ -24682,11 +24781,11 @@
       <c r="AY12" s="28"/>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="56" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="BB12" s="56"/>
       <c r="BO12" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="2:78" x14ac:dyDescent="0.3">
@@ -24715,7 +24814,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="27"/>
       <c r="X13" s="54" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Y13" s="28"/>
       <c r="Z13" s="28"/>
@@ -24726,7 +24825,7 @@
       <c r="AE13" s="28"/>
       <c r="AF13" s="29"/>
       <c r="AG13" s="30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
@@ -24750,7 +24849,7 @@
       <c r="BA13" s="56"/>
       <c r="BB13" s="56"/>
       <c r="BO13" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="14" spans="2:78" x14ac:dyDescent="0.3">
@@ -24780,7 +24879,7 @@
       <c r="U14" s="28"/>
       <c r="V14" s="29"/>
       <c r="W14" s="30" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="X14" s="28"/>
       <c r="Y14" s="28"/>
@@ -24803,7 +24902,7 @@
       <c r="AP14" s="29"/>
       <c r="AQ14" s="27"/>
       <c r="AR14" s="31" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AS14" s="28"/>
       <c r="AT14" s="28"/>
@@ -24814,11 +24913,11 @@
       <c r="AY14" s="28"/>
       <c r="AZ14" s="29"/>
       <c r="BA14" s="56" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="BB14" s="56"/>
       <c r="BO14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="2:78" x14ac:dyDescent="0.3">
@@ -24846,7 +24945,7 @@
       <c r="U15" s="28"/>
       <c r="V15" s="29"/>
       <c r="W15" s="30" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -24879,7 +24978,7 @@
       <c r="AZ15" s="29"/>
       <c r="BA15" s="56"/>
       <c r="BB15" s="56" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="2:78" x14ac:dyDescent="0.3">
@@ -24911,7 +25010,7 @@
       <c r="U16" s="28"/>
       <c r="V16" s="29"/>
       <c r="W16" s="30" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="X16" s="28"/>
       <c r="Y16" s="28"/>
@@ -24934,7 +25033,7 @@
       <c r="AP16" s="29"/>
       <c r="AQ16" s="27"/>
       <c r="AR16" s="31" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="AS16" s="28"/>
       <c r="AT16" s="28"/>
@@ -24945,7 +25044,7 @@
       <c r="AY16" s="28"/>
       <c r="AZ16" s="29"/>
       <c r="BA16" s="56" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BB16" s="56"/>
     </row>
@@ -24976,7 +25075,7 @@
       <c r="U17" s="28"/>
       <c r="V17" s="29"/>
       <c r="W17" s="30" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="X17" s="28"/>
       <c r="Y17" s="28"/>
@@ -25037,7 +25136,7 @@
       <c r="U18" s="28"/>
       <c r="V18" s="29"/>
       <c r="W18" s="30" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="28"/>
@@ -25060,7 +25159,7 @@
       <c r="AP18" s="29"/>
       <c r="AQ18" s="27"/>
       <c r="AR18" s="31" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AS18" s="28"/>
       <c r="AT18" s="28"/>
@@ -25071,7 +25170,7 @@
       <c r="AY18" s="28"/>
       <c r="AZ18" s="29"/>
       <c r="BA18" s="56" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="BB18" s="56"/>
     </row>
@@ -25159,7 +25258,7 @@
       <c r="U20" s="28"/>
       <c r="V20" s="29"/>
       <c r="W20" s="30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="X20" s="28"/>
       <c r="Y20" s="28"/>
@@ -25182,7 +25281,7 @@
       <c r="AP20" s="29"/>
       <c r="AQ20" s="27"/>
       <c r="AR20" s="31" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="AS20" s="28"/>
       <c r="AT20" s="28"/>
@@ -25193,11 +25292,11 @@
       <c r="AY20" s="28"/>
       <c r="AZ20" s="29"/>
       <c r="BA20" s="56" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="BB20" s="56"/>
       <c r="BO20" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.3">
@@ -25227,7 +25326,7 @@
       <c r="U21" s="28"/>
       <c r="V21" s="29"/>
       <c r="W21" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="X21" s="28"/>
       <c r="Y21" s="28"/>
@@ -25261,7 +25360,7 @@
       <c r="BA21" s="56"/>
       <c r="BB21" s="56"/>
       <c r="BO21" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.3">
@@ -25289,7 +25388,7 @@
       <c r="U22" s="28"/>
       <c r="V22" s="29"/>
       <c r="W22" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="X22" s="28"/>
       <c r="Y22" s="28"/>
@@ -25312,7 +25411,7 @@
       <c r="AP22" s="29"/>
       <c r="AQ22" s="27"/>
       <c r="AR22" s="31" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
@@ -25323,11 +25422,11 @@
       <c r="AY22" s="28"/>
       <c r="AZ22" s="29"/>
       <c r="BA22" s="56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BB22" s="56"/>
       <c r="BO22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="2:67" x14ac:dyDescent="0.3">
@@ -25357,16 +25456,16 @@
       <c r="U23" s="28"/>
       <c r="V23" s="29"/>
       <c r="W23" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="X23" s="28" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y23" s="28" t="s">
         <v>452</v>
       </c>
-      <c r="X23" s="28" t="s">
+      <c r="Z23" s="28" t="s">
         <v>453</v>
-      </c>
-      <c r="Y23" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="Z23" s="28" t="s">
-        <v>455</v>
       </c>
       <c r="AA23" s="28"/>
       <c r="AB23" s="28"/>
@@ -25386,7 +25485,7 @@
       <c r="AP23" s="29"/>
       <c r="AQ23" s="27"/>
       <c r="AR23" s="55" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="AS23" s="28"/>
       <c r="AT23" s="28"/>
@@ -25399,7 +25498,7 @@
       <c r="BA23" s="56"/>
       <c r="BB23" s="56"/>
       <c r="BO23" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="24" spans="2:67" x14ac:dyDescent="0.3">
@@ -25448,7 +25547,7 @@
       <c r="AP24" s="29"/>
       <c r="AQ24" s="27"/>
       <c r="AR24" s="31" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28"/>
@@ -25459,11 +25558,11 @@
       <c r="AY24" s="28"/>
       <c r="AZ24" s="29"/>
       <c r="BA24" s="56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="BB24" s="56"/>
       <c r="BO24" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25" spans="2:67" x14ac:dyDescent="0.3">
@@ -25495,7 +25594,7 @@
       <c r="U25" s="28"/>
       <c r="V25" s="29"/>
       <c r="W25" s="30" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="X25" s="28"/>
       <c r="Y25" s="28"/>
@@ -25518,7 +25617,7 @@
       <c r="AP25" s="29"/>
       <c r="AQ25" s="27"/>
       <c r="AR25" s="55" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AS25" s="28"/>
       <c r="AT25" s="28"/>
@@ -25531,7 +25630,7 @@
       <c r="BA25" s="56"/>
       <c r="BB25" s="56"/>
       <c r="BO25" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="2:67" x14ac:dyDescent="0.3">
@@ -25559,7 +25658,7 @@
       <c r="U26" s="28"/>
       <c r="V26" s="29"/>
       <c r="W26" s="30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="X26" s="28"/>
       <c r="Y26" s="28"/>
@@ -25582,7 +25681,7 @@
       <c r="AP26" s="29"/>
       <c r="AQ26" s="27"/>
       <c r="AR26" s="55" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="AS26" s="28"/>
       <c r="AT26" s="28"/>
@@ -25593,7 +25692,7 @@
       <c r="AY26" s="28"/>
       <c r="AZ26" s="29"/>
       <c r="BA26" s="56" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="BB26" s="56"/>
     </row>
@@ -25645,7 +25744,7 @@
       <c r="AP27" s="29"/>
       <c r="AQ27" s="27"/>
       <c r="AR27" s="55" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="AS27" s="28"/>
       <c r="AT27" s="28"/>
@@ -25685,7 +25784,7 @@
       <c r="U28" s="28"/>
       <c r="V28" s="29"/>
       <c r="W28" s="30" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="X28" s="28"/>
       <c r="Y28" s="28"/>
@@ -25717,7 +25816,7 @@
       <c r="AY28" s="28"/>
       <c r="AZ28" s="29"/>
       <c r="BA28" s="56" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="BB28" s="56"/>
     </row>
@@ -25793,7 +25892,7 @@
       <c r="I30" s="28"/>
       <c r="J30" s="29"/>
       <c r="K30" s="52" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L30" s="53"/>
       <c r="M30" s="28"/>
@@ -25807,7 +25906,7 @@
       <c r="U30" s="28"/>
       <c r="V30" s="29"/>
       <c r="W30" s="30" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="X30" s="28"/>
       <c r="Y30" s="28"/>
@@ -25839,7 +25938,7 @@
       <c r="AY30" s="28"/>
       <c r="AZ30" s="29"/>
       <c r="BA30" s="56" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="BB30" s="56"/>
     </row>
@@ -25856,7 +25955,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="29"/>
       <c r="K31" s="52" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L31" s="53"/>
       <c r="M31" s="28"/>
@@ -25870,7 +25969,7 @@
       <c r="U31" s="28"/>
       <c r="V31" s="29"/>
       <c r="W31" s="27" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="X31" s="28"/>
       <c r="Y31" s="28"/>
@@ -25917,7 +26016,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="29"/>
       <c r="K32" s="52" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L32" s="53"/>
       <c r="M32" s="28"/>
@@ -25931,7 +26030,7 @@
       <c r="U32" s="28"/>
       <c r="V32" s="29"/>
       <c r="W32" s="30" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="X32" s="28"/>
       <c r="Y32" s="28"/>
@@ -25963,7 +26062,7 @@
       <c r="AY32" s="28"/>
       <c r="AZ32" s="29"/>
       <c r="BA32" s="56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="BB32" s="56"/>
     </row>
@@ -25978,7 +26077,7 @@
       <c r="I33" s="28"/>
       <c r="J33" s="29"/>
       <c r="K33" s="52" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L33" s="53"/>
       <c r="M33" s="28"/>
@@ -25992,7 +26091,7 @@
       <c r="U33" s="28"/>
       <c r="V33" s="29"/>
       <c r="W33" s="27" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="X33" s="28"/>
       <c r="Y33" s="28"/>
@@ -26041,7 +26140,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="29"/>
       <c r="K34" s="52" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L34" s="53"/>
       <c r="M34" s="28"/>
@@ -26085,7 +26184,7 @@
       <c r="AY34" s="28"/>
       <c r="AZ34" s="29"/>
       <c r="BA34" s="56" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="BB34" s="56"/>
     </row>
@@ -26199,7 +26298,7 @@
       <c r="AY36" s="28"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="57" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -26255,7 +26354,7 @@
       <c r="AY37" s="28"/>
       <c r="AZ37" s="29"/>
       <c r="BA37" s="56" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -26313,7 +26412,7 @@
       <c r="AY38" s="28"/>
       <c r="AZ38" s="29"/>
       <c r="BA38" s="56" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -26369,7 +26468,7 @@
       <c r="AY39" s="28"/>
       <c r="AZ39" s="29"/>
       <c r="BA39" s="56" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -26427,7 +26526,7 @@
       <c r="AY40" s="28"/>
       <c r="AZ40" s="29"/>
       <c r="BA40" s="56" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -26483,7 +26582,7 @@
       <c r="AY41" s="28"/>
       <c r="AZ41" s="29"/>
       <c r="BA41" s="56" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">

--- a/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
+++ b/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="537">
   <si>
     <t>프로젝트 플래너</t>
   </si>
@@ -387,9 +387,6 @@
     <t>활동 40</t>
   </si>
   <si>
-    <t>활동 41</t>
-  </si>
-  <si>
     <t>실제 시작일 2018-12-26</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -952,10 +949,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>조사 추리 이슈 기능 구현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사건 출현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1068,9 +1061,6 @@
     <t>활동 79</t>
   </si>
   <si>
-    <t>활동 80</t>
-  </si>
-  <si>
     <t>활동 81</t>
   </si>
   <si>
@@ -1240,10 +1230,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이슈 : 추리 실패</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>사건 : 추리 실패 게임오버</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2037,6 +2023,49 @@
   <si>
     <t>정지수</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획서 등의 문서에서 제작에 필요한 정보를 얻기 어렵다.</t>
+  </si>
+  <si>
+    <t>시나리오 텍스트 적용에 대한 이슈 사항 전달.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">치안 게이지, 긴급 이슈 체크, 이동에 대한 행동력 값 체크 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">치안도표, 사건 이벤트 발동, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">월드맵 시스템 기획서 - 인물과의 대화 기획서 보강할 것. </t>
+  </si>
+  <si>
+    <t>튜토리얼은 사진등으로 찍어서 도움말 등으로 추가</t>
+  </si>
+  <si>
+    <t>AI는 행동력을 가지지 않는다.</t>
+  </si>
+  <si>
+    <t>주사위 값을 변경하는 것은 어렵지 않다.</t>
+  </si>
+  <si>
+    <t>UI 리소스 결정 단계</t>
+  </si>
+  <si>
+    <t>이벤트 DB 작성</t>
+  </si>
+  <si>
+    <t>상점 세부 기획서 작성 중</t>
+  </si>
+  <si>
+    <t>시나리오 스크립트 적용 및 1차 폴리싱 및 QA</t>
+  </si>
+  <si>
+    <t>씬이 넘어가도 BGM이 변하지 않는 이슈 발생.</t>
+  </si>
+  <si>
+    <t>이슈를 제외한 시나리오 스크립트 작업 약 80퍼 완료</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2708,8 +2737,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2780,6 +2809,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2787,9 +2819,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3658,11 +3687,11 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BY167"/>
+  <dimension ref="B1:BY165"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q156" sqref="Q156"/>
+      <pane ySplit="3" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3882,7 +3911,7 @@
         <v>47</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>40</v>
@@ -3906,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="Q3" s="69" t="s">
         <v>32</v>
@@ -3915,7 +3944,7 @@
         <v>33</v>
       </c>
       <c r="S3" s="81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T3" s="81"/>
       <c r="U3" s="81"/>
@@ -4095,7 +4124,7 @@
         <v>43</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
@@ -4174,17 +4203,17 @@
     </row>
     <row r="6" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="38"/>
       <c r="G6" s="39"/>
       <c r="H6" s="38" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I6" s="39"/>
       <c r="J6" s="38"/>
@@ -4274,13 +4303,13 @@
       </c>
       <c r="C7" s="39"/>
       <c r="D7" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="38"/>
       <c r="G7" s="39"/>
       <c r="H7" s="38" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="I7" s="38"/>
       <c r="J7" s="38"/>
@@ -4370,13 +4399,13 @@
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="39"/>
       <c r="G8" s="39"/>
       <c r="H8" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I8" s="38"/>
       <c r="J8" s="38"/>
@@ -4466,13 +4495,13 @@
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="39"/>
       <c r="F9" s="39"/>
       <c r="G9" s="39"/>
       <c r="H9" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -4561,16 +4590,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="38" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
@@ -4659,7 +4688,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -4742,13 +4771,13 @@
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E12" s="42"/>
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -4838,13 +4867,13 @@
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="42"/>
       <c r="F13" s="38"/>
       <c r="G13" s="39"/>
       <c r="H13" s="38" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
@@ -4934,13 +4963,13 @@
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
@@ -5030,13 +5059,13 @@
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
@@ -5126,13 +5155,13 @@
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E16" s="39"/>
       <c r="F16" s="38"/>
       <c r="G16" s="38"/>
       <c r="H16" s="38" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I16" s="39"/>
       <c r="J16" s="38"/>
@@ -5222,13 +5251,13 @@
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17" s="38"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="H17" s="38" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
@@ -5318,13 +5347,13 @@
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
@@ -5414,13 +5443,13 @@
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="39" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
@@ -5509,7 +5538,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -5592,13 +5621,13 @@
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="38"/>
       <c r="G21" s="38"/>
       <c r="H21" s="38" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -5688,13 +5717,13 @@
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" s="38"/>
       <c r="F22" s="38"/>
       <c r="G22" s="38"/>
       <c r="H22" s="38" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="I22" s="38"/>
       <c r="J22" s="38"/>
@@ -5784,13 +5813,13 @@
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="38" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -5880,13 +5909,13 @@
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="38"/>
@@ -5976,13 +6005,13 @@
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
       <c r="H25" s="38" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="38"/>
@@ -6072,13 +6101,13 @@
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26" s="44"/>
       <c r="F26" s="39"/>
       <c r="G26" s="39"/>
       <c r="H26" s="38" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="38"/>
@@ -6168,13 +6197,13 @@
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27" s="38"/>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
       <c r="H27" s="38" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -6264,13 +6293,13 @@
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
       <c r="H28" s="38" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
@@ -6440,13 +6469,13 @@
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
       <c r="H30" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
@@ -6615,7 +6644,7 @@
         <v>49</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
@@ -6696,15 +6725,15 @@
       <c r="B33" s="38"/>
       <c r="C33" s="38"/>
       <c r="D33" s="38" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="I33" s="38"/>
       <c r="J33" s="38"/>
@@ -6794,15 +6823,15 @@
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I34" s="38"/>
       <c r="J34" s="38"/>
@@ -6893,12 +6922,12 @@
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
       <c r="E35" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="38"/>
@@ -6916,7 +6945,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q35" s="41">
         <v>0.2</v>
@@ -6989,12 +7018,12 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F36" s="38"/>
       <c r="G36" s="38"/>
       <c r="H36" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I36" s="38"/>
       <c r="J36" s="38"/>
@@ -7012,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q36" s="41">
         <v>0.2</v>
@@ -7085,12 +7114,12 @@
       <c r="C37" s="38"/>
       <c r="D37" s="38"/>
       <c r="E37" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I37" s="38"/>
       <c r="J37" s="38"/>
@@ -7108,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="41">
         <v>0.2</v>
@@ -7181,12 +7210,12 @@
       <c r="C38" s="38"/>
       <c r="D38" s="38"/>
       <c r="E38" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I38" s="38"/>
       <c r="J38" s="38"/>
@@ -7204,7 +7233,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="41">
         <v>0.8</v>
@@ -7277,12 +7306,12 @@
       <c r="C39" s="38"/>
       <c r="D39" s="38"/>
       <c r="E39" s="38" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I39" s="38"/>
       <c r="J39" s="38"/>
@@ -7300,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="P39" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q39" s="41">
         <v>0.7</v>
@@ -7373,12 +7402,12 @@
       <c r="C40" s="38"/>
       <c r="D40" s="38"/>
       <c r="E40" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I40" s="38"/>
       <c r="J40" s="38"/>
@@ -7396,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="41">
         <v>0.8</v>
@@ -7469,12 +7498,12 @@
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
       <c r="E41" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F41" s="38"/>
       <c r="G41" s="38"/>
       <c r="H41" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I41" s="38"/>
       <c r="J41" s="38"/>
@@ -7492,10 +7521,10 @@
         <v>0</v>
       </c>
       <c r="P41" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="41">
         <v>0.5</v>
-      </c>
-      <c r="Q41" s="41">
-        <v>0.2</v>
       </c>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
@@ -7565,12 +7594,12 @@
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
       <c r="E42" s="38" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F42" s="38"/>
       <c r="G42" s="38"/>
       <c r="H42" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
@@ -7661,12 +7690,12 @@
       <c r="C43" s="38"/>
       <c r="D43" s="38"/>
       <c r="E43" s="38" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
@@ -7757,12 +7786,12 @@
       <c r="C44" s="38"/>
       <c r="D44" s="38"/>
       <c r="E44" s="38" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I44" s="38"/>
       <c r="J44" s="38"/>
@@ -7853,12 +7882,12 @@
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
       <c r="E45" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I45" s="38"/>
       <c r="J45" s="38"/>
@@ -7876,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="41">
         <v>0.8</v>
@@ -7949,12 +7978,12 @@
       <c r="C46" s="38"/>
       <c r="D46" s="38"/>
       <c r="E46" s="38" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I46" s="38"/>
       <c r="J46" s="38"/>
@@ -7972,7 +8001,7 @@
         <v>0</v>
       </c>
       <c r="P46" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="41">
         <v>0.8</v>
@@ -8040,17 +8069,17 @@
     </row>
     <row r="47" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="38" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
       <c r="E47" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
@@ -8068,10 +8097,10 @@
         <v>0</v>
       </c>
       <c r="P47" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
@@ -8141,12 +8170,12 @@
       <c r="C48" s="38"/>
       <c r="D48" s="38"/>
       <c r="E48" s="38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
@@ -8167,7 +8196,7 @@
         <v>1</v>
       </c>
       <c r="Q48" s="41">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
@@ -8237,12 +8266,12 @@
       <c r="C49" s="38"/>
       <c r="D49" s="38"/>
       <c r="E49" s="38" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I49" s="38"/>
       <c r="J49" s="38"/>
@@ -8260,10 +8289,10 @@
         <v>0</v>
       </c>
       <c r="P49" s="41">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="Q49" s="41">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
@@ -8333,12 +8362,12 @@
       <c r="C50" s="38"/>
       <c r="D50" s="38"/>
       <c r="E50" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I50" s="38"/>
       <c r="J50" s="38"/>
@@ -8356,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="P50" s="41">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q50" s="41">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
@@ -8429,18 +8458,18 @@
       <c r="C51" s="38"/>
       <c r="D51" s="38"/>
       <c r="E51" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I51" s="38"/>
       <c r="J51" s="38"/>
       <c r="K51" s="38"/>
       <c r="L51" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M51" s="40">
         <v>0</v>
@@ -8452,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="41">
         <v>0</v>
@@ -8520,17 +8549,17 @@
     </row>
     <row r="52" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="38" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="38"/>
       <c r="E52" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I52" s="38"/>
       <c r="J52" s="38"/>
@@ -8548,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="41">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Q52" s="41">
         <v>0</v>
@@ -8621,12 +8650,12 @@
       <c r="C53" s="38"/>
       <c r="D53" s="38"/>
       <c r="E53" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F53" s="38"/>
       <c r="G53" s="38"/>
       <c r="H53" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I53" s="38"/>
       <c r="J53" s="38"/>
@@ -8717,24 +8746,24 @@
       <c r="C54" s="38"/>
       <c r="D54" s="38"/>
       <c r="E54" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F54" s="38"/>
       <c r="G54" s="38"/>
       <c r="H54" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I54" s="38"/>
       <c r="J54" s="38"/>
       <c r="K54" s="38"/>
       <c r="L54" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M54" s="40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N54" s="40">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O54" s="40">
         <v>0</v>
@@ -8743,7 +8772,7 @@
         <v>0.8</v>
       </c>
       <c r="Q54" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
@@ -8813,24 +8842,24 @@
       <c r="C55" s="38"/>
       <c r="D55" s="38"/>
       <c r="E55" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F55" s="38"/>
       <c r="G55" s="38"/>
       <c r="H55" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I55" s="38"/>
       <c r="J55" s="38"/>
       <c r="K55" s="38"/>
       <c r="L55" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M55" s="40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N55" s="40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O55" s="40">
         <v>0</v>
@@ -8839,7 +8868,7 @@
         <v>0.8</v>
       </c>
       <c r="Q55" s="41">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
@@ -8909,12 +8938,12 @@
       <c r="C56" s="38"/>
       <c r="D56" s="38"/>
       <c r="E56" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I56" s="38"/>
       <c r="J56" s="38"/>
@@ -9002,36 +9031,40 @@
       <c r="B57" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
+      <c r="C57" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>392</v>
+      </c>
       <c r="E57" s="38" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="F57" s="38"/>
       <c r="G57" s="38"/>
       <c r="H57" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I57" s="38"/>
       <c r="J57" s="38"/>
       <c r="K57" s="38"/>
       <c r="L57" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M57" s="40">
         <v>0</v>
       </c>
       <c r="N57" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O57" s="40">
         <v>0</v>
       </c>
       <c r="P57" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q57" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -9098,19 +9131,15 @@
       <c r="B58" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="C58" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>396</v>
-      </c>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="38" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="F58" s="38"/>
       <c r="G58" s="38"/>
       <c r="H58" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I58" s="38"/>
       <c r="J58" s="38"/>
@@ -9131,7 +9160,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
@@ -9201,12 +9230,12 @@
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
       <c r="E59" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F59" s="38"/>
       <c r="G59" s="38"/>
       <c r="H59" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I59" s="38"/>
       <c r="J59" s="38"/>
@@ -9218,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O59" s="40">
         <v>0</v>
@@ -9297,12 +9326,12 @@
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
       <c r="E60" s="38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
       <c r="H60" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I60" s="38"/>
       <c r="J60" s="38"/>
@@ -9393,12 +9422,12 @@
       <c r="C61" s="38"/>
       <c r="D61" s="38"/>
       <c r="E61" s="38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F61" s="38"/>
       <c r="G61" s="38"/>
       <c r="H61" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I61" s="38"/>
       <c r="J61" s="38"/>
@@ -9419,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="41">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
@@ -9489,12 +9518,12 @@
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
       <c r="E62" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F62" s="38"/>
       <c r="G62" s="38"/>
       <c r="H62" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I62" s="38"/>
       <c r="J62" s="38"/>
@@ -9515,7 +9544,7 @@
         <v>0.5</v>
       </c>
       <c r="Q62" s="41">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
@@ -9585,12 +9614,12 @@
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="38" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
       <c r="H63" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I63" s="38"/>
       <c r="J63" s="38"/>
@@ -9681,18 +9710,18 @@
       <c r="C64" s="38"/>
       <c r="D64" s="38"/>
       <c r="E64" s="38" t="s">
-        <v>245</v>
+        <v>521</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
       <c r="H64" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I64" s="38"/>
       <c r="J64" s="38"/>
       <c r="K64" s="38"/>
       <c r="L64" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M64" s="40">
         <v>0</v>
@@ -9704,10 +9733,10 @@
         <v>0</v>
       </c>
       <c r="P64" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="41">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
@@ -9772,29 +9801,29 @@
     </row>
     <row r="65" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="38" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="38"/>
       <c r="E65" s="38" t="s">
-        <v>525</v>
+        <v>244</v>
       </c>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
       <c r="H65" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
       <c r="K65" s="38"/>
       <c r="L65" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M65" s="40">
         <v>0</v>
       </c>
       <c r="N65" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O65" s="40">
         <v>0</v>
@@ -9878,7 +9907,7 @@
       <c r="F66" s="38"/>
       <c r="G66" s="38"/>
       <c r="H66" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I66" s="38"/>
       <c r="J66" s="38"/>
@@ -9969,12 +9998,12 @@
       <c r="C67" s="38"/>
       <c r="D67" s="38"/>
       <c r="E67" s="38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F67" s="38"/>
       <c r="G67" s="38"/>
       <c r="H67" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I67" s="38"/>
       <c r="J67" s="38"/>
@@ -9992,10 +10021,10 @@
         <v>0</v>
       </c>
       <c r="P67" s="41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q67" s="41">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
@@ -10070,28 +10099,28 @@
       <c r="F68" s="38"/>
       <c r="G68" s="38"/>
       <c r="H68" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I68" s="38"/>
       <c r="J68" s="38"/>
       <c r="K68" s="38"/>
       <c r="L68" s="40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M68" s="40">
         <v>0</v>
       </c>
       <c r="N68" s="40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O68" s="40">
         <v>0</v>
       </c>
       <c r="P68" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
@@ -10159,20 +10188,22 @@
         <v>210</v>
       </c>
       <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
+      <c r="D69" s="38" t="s">
+        <v>134</v>
+      </c>
       <c r="E69" s="38" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="F69" s="38"/>
       <c r="G69" s="38"/>
       <c r="H69" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I69" s="38"/>
       <c r="J69" s="38"/>
       <c r="K69" s="38"/>
       <c r="L69" s="40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M69" s="40">
         <v>0</v>
@@ -10184,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="P69" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69" s="41">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
@@ -10255,16 +10286,14 @@
         <v>211</v>
       </c>
       <c r="C70" s="38"/>
-      <c r="D70" s="38" t="s">
-        <v>135</v>
-      </c>
+      <c r="D70" s="38"/>
       <c r="E70" s="38" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F70" s="38"/>
       <c r="G70" s="38"/>
       <c r="H70" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I70" s="38"/>
       <c r="J70" s="38"/>
@@ -10282,7 +10311,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70" s="41">
         <v>0.7</v>
@@ -10355,12 +10384,12 @@
       <c r="C71" s="38"/>
       <c r="D71" s="38"/>
       <c r="E71" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F71" s="38"/>
       <c r="G71" s="38"/>
       <c r="H71" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I71" s="38"/>
       <c r="J71" s="38"/>
@@ -10378,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71" s="41">
         <v>0.7</v>
@@ -10451,18 +10480,18 @@
       <c r="C72" s="38"/>
       <c r="D72" s="38"/>
       <c r="E72" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F72" s="38"/>
       <c r="G72" s="38"/>
       <c r="H72" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I72" s="38"/>
       <c r="J72" s="38"/>
       <c r="K72" s="38"/>
       <c r="L72" s="40">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M72" s="40">
         <v>0</v>
@@ -10474,10 +10503,10 @@
         <v>0</v>
       </c>
       <c r="P72" s="41">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q72" s="41">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
@@ -10547,18 +10576,18 @@
       <c r="C73" s="38"/>
       <c r="D73" s="38"/>
       <c r="E73" s="38" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F73" s="38"/>
       <c r="G73" s="38"/>
       <c r="H73" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I73" s="38"/>
       <c r="J73" s="38"/>
       <c r="K73" s="38"/>
       <c r="L73" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M73" s="40">
         <v>0</v>
@@ -10570,10 +10599,10 @@
         <v>0</v>
       </c>
       <c r="P73" s="41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Q73" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
@@ -10643,12 +10672,12 @@
       <c r="C74" s="38"/>
       <c r="D74" s="38"/>
       <c r="E74" s="38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F74" s="38"/>
       <c r="G74" s="38"/>
       <c r="H74" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I74" s="38"/>
       <c r="J74" s="38"/>
@@ -10669,7 +10698,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="41">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
@@ -10739,12 +10768,12 @@
       <c r="C75" s="38"/>
       <c r="D75" s="38"/>
       <c r="E75" s="38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F75" s="38"/>
       <c r="G75" s="38"/>
       <c r="H75" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I75" s="38"/>
       <c r="J75" s="38"/>
@@ -10835,12 +10864,12 @@
       <c r="C76" s="38"/>
       <c r="D76" s="38"/>
       <c r="E76" s="38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38"/>
@@ -10861,7 +10890,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="41">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
@@ -10926,29 +10955,29 @@
     </row>
     <row r="77" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="38" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="38"/>
       <c r="E77" s="38" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F77" s="38"/>
       <c r="G77" s="38"/>
       <c r="H77" s="38" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="I77" s="38"/>
       <c r="J77" s="38"/>
       <c r="K77" s="38"/>
       <c r="L77" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M77" s="40">
         <v>0</v>
       </c>
       <c r="N77" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O77" s="40">
         <v>0</v>
@@ -10957,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="Q77" s="41">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
@@ -11022,39 +11051,23 @@
     </row>
     <row r="78" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="38"/>
-      <c r="E78" s="38" t="s">
-        <v>305</v>
-      </c>
+      <c r="E78" s="38"/>
       <c r="F78" s="38"/>
       <c r="G78" s="38"/>
-      <c r="H78" s="38" t="s">
-        <v>526</v>
-      </c>
+      <c r="H78" s="38"/>
       <c r="I78" s="38"/>
       <c r="J78" s="38"/>
       <c r="K78" s="38"/>
-      <c r="L78" s="40">
-        <v>10</v>
-      </c>
-      <c r="M78" s="40">
-        <v>0</v>
-      </c>
-      <c r="N78" s="40">
-        <v>13</v>
-      </c>
-      <c r="O78" s="40">
-        <v>0</v>
-      </c>
-      <c r="P78" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q78" s="41">
-        <v>0.7</v>
-      </c>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
@@ -11118,23 +11131,39 @@
     </row>
     <row r="79" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
+      <c r="D79" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E79" s="38" t="s">
+        <v>304</v>
+      </c>
       <c r="F79" s="38"/>
       <c r="G79" s="38"/>
       <c r="H79" s="38"/>
       <c r="I79" s="38"/>
       <c r="J79" s="38"/>
       <c r="K79" s="38"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="40"/>
-      <c r="N79" s="40"/>
-      <c r="O79" s="40"/>
-      <c r="P79" s="41"/>
-      <c r="Q79" s="41"/>
+      <c r="L79" s="40">
+        <v>1</v>
+      </c>
+      <c r="M79" s="40">
+        <v>8</v>
+      </c>
+      <c r="N79" s="40">
+        <v>1</v>
+      </c>
+      <c r="O79" s="40">
+        <v>0</v>
+      </c>
+      <c r="P79" s="41">
+        <v>0.1</v>
+      </c>
+      <c r="Q79" s="41">
+        <v>0.3</v>
+      </c>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
@@ -11198,14 +11227,12 @@
     </row>
     <row r="80" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C80" s="38"/>
-      <c r="D80" s="38" t="s">
-        <v>138</v>
-      </c>
+      <c r="D80" s="39"/>
       <c r="E80" s="38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
@@ -11214,22 +11241,22 @@
       <c r="J80" s="38"/>
       <c r="K80" s="38"/>
       <c r="L80" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" s="40">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="N80" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O80" s="40">
         <v>0</v>
       </c>
       <c r="P80" s="41">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q80" s="41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
@@ -11294,13 +11321,13 @@
     </row>
     <row r="81" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="38" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C81" s="38"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="38" t="s">
-        <v>308</v>
-      </c>
+      <c r="D81" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" s="38"/>
       <c r="F81" s="38"/>
       <c r="G81" s="38"/>
       <c r="H81" s="38"/>
@@ -11323,7 +11350,7 @@
         <v>0</v>
       </c>
       <c r="Q81" s="41">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
@@ -11388,13 +11415,13 @@
     </row>
     <row r="82" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="38" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C82" s="38"/>
-      <c r="D82" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="E82" s="38"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="38" t="s">
+        <v>306</v>
+      </c>
       <c r="F82" s="38"/>
       <c r="G82" s="38"/>
       <c r="H82" s="38"/>
@@ -11414,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="P82" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q82" s="41">
         <v>0</v>
@@ -11478,16 +11505,15 @@
       <c r="BV82" s="8"/>
       <c r="BW82" s="8"/>
       <c r="BX82" s="8"/>
-      <c r="BY82" s="8"/>
     </row>
     <row r="83" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="39"/>
       <c r="E83" s="38" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F83" s="38"/>
       <c r="G83" s="38"/>
@@ -11508,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q83" s="41">
         <v>0</v>
@@ -11575,12 +11601,12 @@
     </row>
     <row r="84" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C84" s="38"/>
       <c r="D84" s="39"/>
       <c r="E84" s="38" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F84" s="38"/>
       <c r="G84" s="38"/>
@@ -11601,7 +11627,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q84" s="41">
         <v>0</v>
@@ -11668,12 +11694,12 @@
     </row>
     <row r="85" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="39"/>
       <c r="E85" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F85" s="38"/>
       <c r="G85" s="38"/>
@@ -11694,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="P85" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q85" s="41">
         <v>0</v>
@@ -11761,12 +11787,12 @@
     </row>
     <row r="86" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" s="39"/>
       <c r="E86" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F86" s="38"/>
       <c r="G86" s="38"/>
@@ -11787,7 +11813,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q86" s="41">
         <v>0</v>
@@ -11854,12 +11880,12 @@
     </row>
     <row r="87" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="39"/>
       <c r="E87" s="38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F87" s="38"/>
       <c r="G87" s="38"/>
@@ -11880,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q87" s="41">
         <v>0</v>
@@ -11947,12 +11973,12 @@
     </row>
     <row r="88" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="38" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="39"/>
       <c r="E88" s="38" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F88" s="38"/>
       <c r="G88" s="38"/>
@@ -11973,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="P88" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q88" s="41">
         <v>0</v>
@@ -12040,12 +12066,12 @@
     </row>
     <row r="89" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C89" s="38"/>
-      <c r="D89" s="39"/>
+      <c r="D89" s="38"/>
       <c r="E89" s="38" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F89" s="38"/>
       <c r="G89" s="38"/>
@@ -12066,7 +12092,7 @@
         <v>0</v>
       </c>
       <c r="P89" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q89" s="41">
         <v>0</v>
@@ -12133,12 +12159,14 @@
     </row>
     <row r="90" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="38" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90" s="38"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="38" t="s">
+        <v>178</v>
+      </c>
       <c r="E90" s="38" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F90" s="38"/>
       <c r="G90" s="38"/>
@@ -12147,7 +12175,7 @@
       <c r="J90" s="38"/>
       <c r="K90" s="38"/>
       <c r="L90" s="40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M90" s="40">
         <v>0</v>
@@ -12159,10 +12187,10 @@
         <v>0</v>
       </c>
       <c r="P90" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q90" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
@@ -12226,12 +12254,12 @@
     </row>
     <row r="91" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C91" s="38"/>
       <c r="D91" s="38"/>
       <c r="E91" s="38" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="F91" s="38"/>
       <c r="G91" s="38"/>
@@ -12240,22 +12268,22 @@
       <c r="J91" s="38"/>
       <c r="K91" s="38"/>
       <c r="L91" s="40">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M91" s="40">
         <v>0</v>
       </c>
       <c r="N91" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O91" s="40">
         <v>0</v>
       </c>
       <c r="P91" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q91" s="41">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
@@ -12319,14 +12347,12 @@
     </row>
     <row r="92" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C92" s="38"/>
-      <c r="D92" s="38" t="s">
-        <v>179</v>
-      </c>
+      <c r="D92" s="38"/>
       <c r="E92" s="38" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F92" s="38"/>
       <c r="G92" s="38"/>
@@ -12335,13 +12361,13 @@
       <c r="J92" s="38"/>
       <c r="K92" s="38"/>
       <c r="L92" s="40">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M92" s="40">
         <v>0</v>
       </c>
       <c r="N92" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O92" s="40">
         <v>0</v>
@@ -12414,12 +12440,12 @@
     </row>
     <row r="93" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="38" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
+      <c r="D93" s="39"/>
       <c r="E93" s="38" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F93" s="38"/>
       <c r="G93" s="38"/>
@@ -12507,12 +12533,12 @@
     </row>
     <row r="94" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
+      <c r="D94" s="39"/>
       <c r="E94" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F94" s="38"/>
       <c r="G94" s="38"/>
@@ -12600,12 +12626,12 @@
     </row>
     <row r="95" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C95" s="38"/>
       <c r="D95" s="39"/>
       <c r="E95" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F95" s="38"/>
       <c r="G95" s="38"/>
@@ -12693,12 +12719,12 @@
     </row>
     <row r="96" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C96" s="38"/>
       <c r="D96" s="39"/>
       <c r="E96" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F96" s="38"/>
       <c r="G96" s="38"/>
@@ -12786,12 +12812,12 @@
     </row>
     <row r="97" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C97" s="38"/>
       <c r="D97" s="39"/>
       <c r="E97" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F97" s="38"/>
       <c r="G97" s="38"/>
@@ -12879,12 +12905,12 @@
     </row>
     <row r="98" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="38" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C98" s="38"/>
       <c r="D98" s="39"/>
       <c r="E98" s="38" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F98" s="38"/>
       <c r="G98" s="38"/>
@@ -12972,12 +12998,12 @@
     </row>
     <row r="99" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C99" s="38"/>
       <c r="D99" s="39"/>
       <c r="E99" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F99" s="38"/>
       <c r="G99" s="38"/>
@@ -12998,7 +13024,7 @@
         <v>0</v>
       </c>
       <c r="P99" s="41">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q99" s="41">
         <v>0.2</v>
@@ -13065,12 +13091,14 @@
     </row>
     <row r="100" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C100" s="38"/>
-      <c r="D100" s="39"/>
+      <c r="D100" s="38" t="s">
+        <v>179</v>
+      </c>
       <c r="E100" s="38" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F100" s="38"/>
       <c r="G100" s="38"/>
@@ -13079,19 +13107,19 @@
       <c r="J100" s="38"/>
       <c r="K100" s="38"/>
       <c r="L100" s="40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M100" s="40">
         <v>0</v>
       </c>
       <c r="N100" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O100" s="40">
         <v>0</v>
       </c>
       <c r="P100" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="41">
         <v>0.2</v>
@@ -13158,12 +13186,12 @@
     </row>
     <row r="101" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="38" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C101" s="38"/>
-      <c r="D101" s="39"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="38" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F101" s="38"/>
       <c r="G101" s="38"/>
@@ -13172,19 +13200,19 @@
       <c r="J101" s="38"/>
       <c r="K101" s="38"/>
       <c r="L101" s="40">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M101" s="40">
         <v>0</v>
       </c>
       <c r="N101" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O101" s="40">
         <v>0</v>
       </c>
       <c r="P101" s="41">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="41">
         <v>0.2</v>
@@ -13251,14 +13279,12 @@
     </row>
     <row r="102" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C102" s="38"/>
-      <c r="D102" s="38" t="s">
-        <v>180</v>
-      </c>
+      <c r="D102" s="38"/>
       <c r="E102" s="38" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F102" s="38"/>
       <c r="G102" s="38"/>
@@ -13346,12 +13372,12 @@
     </row>
     <row r="103" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F103" s="38"/>
       <c r="G103" s="38"/>
@@ -13439,12 +13465,12 @@
     </row>
     <row r="104" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
       <c r="E104" s="38" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F104" s="38"/>
       <c r="G104" s="38"/>
@@ -13459,13 +13485,13 @@
         <v>0</v>
       </c>
       <c r="N104" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O104" s="40">
         <v>0</v>
       </c>
       <c r="P104" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q104" s="41">
         <v>0.2</v>
@@ -13532,12 +13558,12 @@
     </row>
     <row r="105" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="38" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F105" s="38"/>
       <c r="G105" s="38"/>
@@ -13546,7 +13572,7 @@
       <c r="J105" s="38"/>
       <c r="K105" s="38"/>
       <c r="L105" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M105" s="40">
         <v>0</v>
@@ -13561,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="Q105" s="41">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R105" s="7"/>
       <c r="S105" s="7"/>
@@ -13625,12 +13651,12 @@
     </row>
     <row r="106" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C106" s="38"/>
       <c r="D106" s="38"/>
       <c r="E106" s="38" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="F106" s="38"/>
       <c r="G106" s="38"/>
@@ -13639,22 +13665,22 @@
       <c r="J106" s="38"/>
       <c r="K106" s="38"/>
       <c r="L106" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M106" s="40">
         <v>0</v>
       </c>
       <c r="N106" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O106" s="40">
         <v>0</v>
       </c>
       <c r="P106" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="41">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
@@ -13718,12 +13744,12 @@
     </row>
     <row r="107" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C107" s="38"/>
       <c r="D107" s="38"/>
       <c r="E107" s="38" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="F107" s="38"/>
       <c r="G107" s="38"/>
@@ -13747,7 +13773,7 @@
         <v>0</v>
       </c>
       <c r="Q107" s="41">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
@@ -13811,37 +13837,23 @@
     </row>
     <row r="108" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="38" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C108" s="38"/>
       <c r="D108" s="38"/>
-      <c r="E108" s="38" t="s">
-        <v>338</v>
-      </c>
+      <c r="E108" s="38"/>
       <c r="F108" s="38"/>
       <c r="G108" s="38"/>
       <c r="H108" s="38"/>
       <c r="I108" s="38"/>
       <c r="J108" s="38"/>
       <c r="K108" s="38"/>
-      <c r="L108" s="40">
-        <v>0</v>
-      </c>
-      <c r="M108" s="40">
-        <v>0</v>
-      </c>
-      <c r="N108" s="40">
-        <v>0</v>
-      </c>
-      <c r="O108" s="40">
-        <v>0</v>
-      </c>
-      <c r="P108" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q108" s="41">
-        <v>0.3</v>
-      </c>
+      <c r="L108" s="40"/>
+      <c r="M108" s="40"/>
+      <c r="N108" s="40"/>
+      <c r="O108" s="40"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
@@ -13904,12 +13916,14 @@
     </row>
     <row r="109" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
+      <c r="D109" s="38" t="s">
+        <v>180</v>
+      </c>
       <c r="E109" s="38" t="s">
-        <v>418</v>
+        <v>329</v>
       </c>
       <c r="F109" s="38"/>
       <c r="G109" s="38"/>
@@ -13918,22 +13932,22 @@
       <c r="J109" s="38"/>
       <c r="K109" s="38"/>
       <c r="L109" s="40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M109" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109" s="40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O109" s="40">
         <v>0</v>
       </c>
       <c r="P109" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109" s="41">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
@@ -13997,23 +14011,37 @@
     </row>
     <row r="110" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="38" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C110" s="38"/>
       <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
+      <c r="E110" s="38" t="s">
+        <v>330</v>
+      </c>
       <c r="F110" s="38"/>
       <c r="G110" s="38"/>
       <c r="H110" s="38"/>
       <c r="I110" s="38"/>
       <c r="J110" s="38"/>
       <c r="K110" s="38"/>
-      <c r="L110" s="40"/>
-      <c r="M110" s="40"/>
-      <c r="N110" s="40"/>
-      <c r="O110" s="40"/>
-      <c r="P110" s="41"/>
-      <c r="Q110" s="41"/>
+      <c r="L110" s="40">
+        <v>6</v>
+      </c>
+      <c r="M110" s="40">
+        <v>1</v>
+      </c>
+      <c r="N110" s="40">
+        <v>6</v>
+      </c>
+      <c r="O110" s="40">
+        <v>0</v>
+      </c>
+      <c r="P110" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="41">
+        <v>0.5</v>
+      </c>
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
@@ -14076,14 +14104,12 @@
     </row>
     <row r="111" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C111" s="38"/>
-      <c r="D111" s="38" t="s">
-        <v>181</v>
-      </c>
+      <c r="D111" s="38"/>
       <c r="E111" s="38" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F111" s="38"/>
       <c r="G111" s="38"/>
@@ -14107,7 +14133,7 @@
         <v>1</v>
       </c>
       <c r="Q111" s="41">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
@@ -14171,12 +14197,12 @@
     </row>
     <row r="112" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C112" s="38"/>
       <c r="D112" s="38"/>
       <c r="E112" s="38" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F112" s="38"/>
       <c r="G112" s="38"/>
@@ -14264,12 +14290,12 @@
     </row>
     <row r="113" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C113" s="38"/>
       <c r="D113" s="38"/>
       <c r="E113" s="38" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F113" s="38"/>
       <c r="G113" s="38"/>
@@ -14357,12 +14383,12 @@
     </row>
     <row r="114" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C114" s="38"/>
       <c r="D114" s="38"/>
       <c r="E114" s="38" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="38"/>
@@ -14450,12 +14476,12 @@
     </row>
     <row r="115" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C115" s="38"/>
       <c r="D115" s="38"/>
       <c r="E115" s="38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="38"/>
@@ -14543,12 +14569,12 @@
     </row>
     <row r="116" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C116" s="38"/>
       <c r="D116" s="38"/>
       <c r="E116" s="38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F116" s="38"/>
       <c r="G116" s="38"/>
@@ -14636,12 +14662,14 @@
     </row>
     <row r="117" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C117" s="38"/>
-      <c r="D117" s="38"/>
+      <c r="D117" s="38" t="s">
+        <v>135</v>
+      </c>
       <c r="E117" s="38" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -14729,12 +14757,12 @@
     </row>
     <row r="118" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C118" s="38"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F118" s="38"/>
       <c r="G118" s="38"/>
@@ -14822,14 +14850,12 @@
     </row>
     <row r="119" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C119" s="38"/>
-      <c r="D119" s="38" t="s">
-        <v>136</v>
-      </c>
+      <c r="D119" s="38"/>
       <c r="E119" s="38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F119" s="38"/>
       <c r="G119" s="38"/>
@@ -14850,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="41">
         <v>0.5</v>
@@ -14917,12 +14943,12 @@
     </row>
     <row r="120" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="38" t="s">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="C120" s="38"/>
       <c r="D120" s="38"/>
       <c r="E120" s="38" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F120" s="38"/>
       <c r="G120" s="38"/>
@@ -14943,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="P120" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="41">
         <v>0.5</v>
@@ -15010,37 +15036,25 @@
     </row>
     <row r="121" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="38" t="s">
-        <v>295</v>
+        <v>354</v>
       </c>
       <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38" t="s">
-        <v>342</v>
-      </c>
+      <c r="D121" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="E121" s="38"/>
       <c r="F121" s="38"/>
       <c r="G121" s="38"/>
       <c r="H121" s="38"/>
       <c r="I121" s="38"/>
       <c r="J121" s="38"/>
       <c r="K121" s="38"/>
-      <c r="L121" s="40">
-        <v>6</v>
-      </c>
-      <c r="M121" s="40">
-        <v>1</v>
-      </c>
-      <c r="N121" s="40">
-        <v>6</v>
-      </c>
-      <c r="O121" s="40">
-        <v>0</v>
-      </c>
-      <c r="P121" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q121" s="41">
-        <v>0.5</v>
-      </c>
+      <c r="L121" s="40"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="40"/>
+      <c r="O121" s="40"/>
+      <c r="P121" s="41"/>
+      <c r="Q121" s="41"/>
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
@@ -15103,12 +15117,11 @@
     </row>
     <row r="122" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
       <c r="E122" s="38" t="s">
-        <v>343</v>
+        <v>505</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="38"/>
@@ -15117,22 +15130,22 @@
       <c r="J122" s="38"/>
       <c r="K122" s="38"/>
       <c r="L122" s="40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M122" s="40">
         <v>1</v>
       </c>
       <c r="N122" s="40">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="O122" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q122" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
@@ -15196,25 +15209,39 @@
     </row>
     <row r="123" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="38" t="s">
-        <v>508</v>
-      </c>
-      <c r="E123" s="38"/>
+        <v>182</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="F123" s="38"/>
       <c r="G123" s="38"/>
       <c r="H123" s="38"/>
       <c r="I123" s="38"/>
       <c r="J123" s="38"/>
       <c r="K123" s="38"/>
-      <c r="L123" s="40"/>
-      <c r="M123" s="40"/>
-      <c r="N123" s="40"/>
-      <c r="O123" s="40"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="41"/>
+      <c r="L123" s="40">
+        <v>0</v>
+      </c>
+      <c r="M123" s="40">
+        <v>0</v>
+      </c>
+      <c r="N123" s="40">
+        <v>0</v>
+      </c>
+      <c r="O123" s="40">
+        <v>0</v>
+      </c>
+      <c r="P123" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="41">
+        <v>0.5</v>
+      </c>
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
@@ -15277,11 +15304,12 @@
     </row>
     <row r="124" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C124" s="38"/>
+      <c r="D124" s="38"/>
       <c r="E124" s="38" t="s">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="F124" s="38"/>
       <c r="G124" s="38"/>
@@ -15290,22 +15318,22 @@
       <c r="J124" s="38"/>
       <c r="K124" s="38"/>
       <c r="L124" s="40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M124" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N124" s="40">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O124" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P124" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="41">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
@@ -15369,14 +15397,12 @@
     </row>
     <row r="125" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C125" s="38"/>
-      <c r="D125" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>344</v>
+      <c r="D125" s="38"/>
+      <c r="E125" s="38" t="s">
+        <v>342</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="38"/>
@@ -15400,7 +15426,7 @@
         <v>0</v>
       </c>
       <c r="Q125" s="41">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
@@ -15464,36 +15490,40 @@
     </row>
     <row r="126" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="38" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C126" s="38"/>
-      <c r="D126" s="38"/>
+      <c r="D126" s="38" t="s">
+        <v>293</v>
+      </c>
       <c r="E126" s="38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
+      <c r="H126" s="38" t="s">
+        <v>419</v>
+      </c>
       <c r="I126" s="38"/>
       <c r="J126" s="38"/>
       <c r="K126" s="38"/>
       <c r="L126" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M126" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126" s="40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O126" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
@@ -15557,36 +15587,38 @@
     </row>
     <row r="127" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C127" s="38"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F127" s="38"/>
       <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
+      <c r="H127" s="38" t="s">
+        <v>420</v>
+      </c>
       <c r="I127" s="38"/>
       <c r="J127" s="38"/>
       <c r="K127" s="38"/>
       <c r="L127" s="40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M127" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" s="40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O127" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P127" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127" s="7"/>
       <c r="S127" s="7"/>
@@ -15650,37 +15682,35 @@
     </row>
     <row r="128" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="38" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C128" s="38"/>
-      <c r="D128" s="38" t="s">
-        <v>296</v>
-      </c>
+      <c r="D128" s="38"/>
       <c r="E128" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="38"/>
       <c r="H128" s="38" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="I128" s="38"/>
       <c r="J128" s="38"/>
       <c r="K128" s="38"/>
       <c r="L128" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M128" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N128" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O128" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P128" s="41">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q128" s="41">
         <v>1</v>
@@ -15747,29 +15777,29 @@
     </row>
     <row r="129" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C129" s="38"/>
       <c r="D129" s="38"/>
       <c r="E129" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="38"/>
       <c r="H129" s="38" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="I129" s="38"/>
       <c r="J129" s="38"/>
       <c r="K129" s="38"/>
       <c r="L129" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M129" s="40">
         <v>1</v>
       </c>
       <c r="N129" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O129" s="40">
         <v>1</v>
@@ -15842,35 +15872,35 @@
     </row>
     <row r="130" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C130" s="38"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F130" s="38"/>
       <c r="G130" s="38"/>
       <c r="H130" s="38" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="I130" s="38"/>
       <c r="J130" s="38"/>
       <c r="K130" s="38"/>
       <c r="L130" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M130" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N130" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O130" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P130" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q130" s="41">
         <v>1</v>
@@ -15937,17 +15967,17 @@
     </row>
     <row r="131" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C131" s="38"/>
       <c r="D131" s="38"/>
       <c r="E131" s="38" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F131" s="38"/>
       <c r="G131" s="38"/>
       <c r="H131" s="38" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I131" s="38"/>
       <c r="J131" s="38"/>
@@ -16032,38 +16062,38 @@
     </row>
     <row r="132" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C132" s="38"/>
       <c r="D132" s="38"/>
       <c r="E132" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F132" s="38"/>
       <c r="G132" s="38"/>
       <c r="H132" s="38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I132" s="38"/>
       <c r="J132" s="38"/>
       <c r="K132" s="38"/>
       <c r="L132" s="40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M132" s="40">
         <v>1</v>
       </c>
       <c r="N132" s="40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O132" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P132" s="41">
         <v>1</v>
       </c>
       <c r="Q132" s="41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R132" s="7"/>
       <c r="S132" s="7"/>
@@ -16127,32 +16157,34 @@
     </row>
     <row r="133" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
+      <c r="D133" s="38" t="s">
+        <v>350</v>
+      </c>
       <c r="E133" s="38" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F133" s="38"/>
       <c r="G133" s="38"/>
       <c r="H133" s="38" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="I133" s="38"/>
       <c r="J133" s="38"/>
       <c r="K133" s="38"/>
       <c r="L133" s="40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M133" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133" s="40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O133" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P133" s="41">
         <v>1</v>
@@ -16222,17 +16254,17 @@
     </row>
     <row r="134" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C134" s="38"/>
       <c r="D134" s="38"/>
       <c r="E134" s="38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F134" s="38"/>
       <c r="G134" s="38"/>
       <c r="H134" s="38" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I134" s="38"/>
       <c r="J134" s="38"/>
@@ -16247,13 +16279,13 @@
         <v>6</v>
       </c>
       <c r="O134" s="40">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P134" s="41">
         <v>1</v>
       </c>
       <c r="Q134" s="41">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R134" s="7"/>
       <c r="S134" s="7"/>
@@ -16317,41 +16349,23 @@
     </row>
     <row r="135" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="38" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C135" s="38"/>
-      <c r="D135" s="38" t="s">
-        <v>354</v>
-      </c>
-      <c r="E135" s="38" t="s">
-        <v>355</v>
-      </c>
+      <c r="D135" s="38"/>
+      <c r="E135" s="38"/>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
-      <c r="H135" s="38" t="s">
-        <v>426</v>
-      </c>
+      <c r="H135" s="38"/>
       <c r="I135" s="38"/>
       <c r="J135" s="38"/>
       <c r="K135" s="38"/>
-      <c r="L135" s="40">
-        <v>9</v>
-      </c>
-      <c r="M135" s="40">
-        <v>0</v>
-      </c>
-      <c r="N135" s="40">
-        <v>9</v>
-      </c>
-      <c r="O135" s="40">
-        <v>0</v>
-      </c>
-      <c r="P135" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q135" s="41">
-        <v>1</v>
-      </c>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="40"/>
+      <c r="O135" s="40"/>
+      <c r="P135" s="41"/>
+      <c r="Q135" s="41"/>
       <c r="R135" s="7"/>
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
@@ -16414,39 +16428,25 @@
     </row>
     <row r="136" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="38" t="s">
-        <v>371</v>
-      </c>
-      <c r="C136" s="38"/>
+        <v>369</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>188</v>
+      </c>
       <c r="D136" s="38"/>
-      <c r="E136" s="38" t="s">
-        <v>356</v>
-      </c>
+      <c r="E136" s="38"/>
       <c r="F136" s="38"/>
       <c r="G136" s="38"/>
-      <c r="H136" s="38" t="s">
-        <v>424</v>
-      </c>
+      <c r="H136" s="38"/>
       <c r="I136" s="38"/>
       <c r="J136" s="38"/>
       <c r="K136" s="38"/>
-      <c r="L136" s="40">
-        <v>6</v>
-      </c>
-      <c r="M136" s="40">
-        <v>1</v>
-      </c>
-      <c r="N136" s="40">
-        <v>6</v>
-      </c>
-      <c r="O136" s="40">
-        <v>9</v>
-      </c>
-      <c r="P136" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="41">
-        <v>1</v>
-      </c>
+      <c r="L136" s="40"/>
+      <c r="M136" s="40"/>
+      <c r="N136" s="40"/>
+      <c r="O136" s="40"/>
+      <c r="P136" s="41"/>
+      <c r="Q136" s="41"/>
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
       <c r="T136" s="7"/>
@@ -16509,23 +16509,41 @@
     </row>
     <row r="137" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
+      <c r="D137" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E137" s="38" t="s">
+        <v>194</v>
+      </c>
       <c r="F137" s="38"/>
       <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
+      <c r="H137" s="38" t="s">
+        <v>407</v>
+      </c>
       <c r="I137" s="38"/>
       <c r="J137" s="38"/>
       <c r="K137" s="38"/>
-      <c r="L137" s="40"/>
-      <c r="M137" s="40"/>
-      <c r="N137" s="40"/>
-      <c r="O137" s="40"/>
-      <c r="P137" s="41"/>
-      <c r="Q137" s="41"/>
+      <c r="L137" s="40">
+        <v>3</v>
+      </c>
+      <c r="M137" s="40">
+        <v>0</v>
+      </c>
+      <c r="N137" s="40">
+        <v>10</v>
+      </c>
+      <c r="O137" s="40">
+        <v>12</v>
+      </c>
+      <c r="P137" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Q137" s="41">
+        <v>1</v>
+      </c>
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
@@ -16588,25 +16606,41 @@
     </row>
     <row r="138" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="38" t="s">
-        <v>373</v>
-      </c>
-      <c r="C138" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="D138" s="38"/>
-      <c r="E138" s="38"/>
+        <v>371</v>
+      </c>
+      <c r="C138" s="38"/>
+      <c r="D138" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="E138" s="38" t="s">
+        <v>195</v>
+      </c>
       <c r="F138" s="38"/>
       <c r="G138" s="38"/>
-      <c r="H138" s="38"/>
+      <c r="H138" s="38" t="s">
+        <v>418</v>
+      </c>
       <c r="I138" s="38"/>
       <c r="J138" s="38"/>
       <c r="K138" s="38"/>
-      <c r="L138" s="40"/>
-      <c r="M138" s="40"/>
-      <c r="N138" s="40"/>
-      <c r="O138" s="40"/>
-      <c r="P138" s="41"/>
-      <c r="Q138" s="41"/>
+      <c r="L138" s="40">
+        <v>5</v>
+      </c>
+      <c r="M138" s="40">
+        <v>1</v>
+      </c>
+      <c r="N138" s="40">
+        <v>5</v>
+      </c>
+      <c r="O138" s="40">
+        <v>0</v>
+      </c>
+      <c r="P138" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="Q138" s="41">
+        <v>0.7</v>
+      </c>
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
@@ -16669,40 +16703,40 @@
     </row>
     <row r="139" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="38" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C139" s="38"/>
       <c r="D139" s="38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E139" s="38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F139" s="38"/>
       <c r="G139" s="38"/>
       <c r="H139" s="38" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="I139" s="38"/>
       <c r="J139" s="38"/>
       <c r="K139" s="38"/>
       <c r="L139" s="40">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="M139" s="40">
         <v>0</v>
       </c>
       <c r="N139" s="40">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O139" s="40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P139" s="41">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="Q139" s="41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
@@ -16766,37 +16800,37 @@
     </row>
     <row r="140" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C140" s="38"/>
       <c r="D140" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E140" s="38" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F140" s="38"/>
       <c r="G140" s="38"/>
       <c r="H140" s="38" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="I140" s="38"/>
       <c r="J140" s="38"/>
       <c r="K140" s="38"/>
       <c r="L140" s="40">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M140" s="40">
+        <v>3</v>
+      </c>
+      <c r="N140" s="40">
+        <v>12</v>
+      </c>
+      <c r="O140" s="40">
+        <v>0</v>
+      </c>
+      <c r="P140" s="41">
         <v>1</v>
-      </c>
-      <c r="N140" s="40">
-        <v>5</v>
-      </c>
-      <c r="O140" s="40">
-        <v>0</v>
-      </c>
-      <c r="P140" s="41">
-        <v>0.5</v>
       </c>
       <c r="Q140" s="41">
         <v>0.7</v>
@@ -16863,11 +16897,11 @@
     </row>
     <row r="141" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="38" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C141" s="38"/>
       <c r="D141" s="38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E141" s="38" t="s">
         <v>197</v>
@@ -16875,13 +16909,13 @@
       <c r="F141" s="38"/>
       <c r="G141" s="38"/>
       <c r="H141" s="38" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="I141" s="38"/>
       <c r="J141" s="38"/>
       <c r="K141" s="38"/>
       <c r="L141" s="40">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M141" s="40">
         <v>0</v>
@@ -16893,10 +16927,10 @@
         <v>0</v>
       </c>
       <c r="P141" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q141" s="41">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R141" s="7"/>
       <c r="S141" s="7"/>
@@ -16960,41 +16994,25 @@
     </row>
     <row r="142" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C142" s="38"/>
-      <c r="D142" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="E142" s="38" t="s">
-        <v>200</v>
+      <c r="D142" s="1"/>
+      <c r="E142" s="47" t="s">
+        <v>198</v>
       </c>
       <c r="F142" s="38"/>
       <c r="G142" s="38"/>
-      <c r="H142" s="38" t="s">
-        <v>411</v>
-      </c>
+      <c r="H142" s="38"/>
       <c r="I142" s="38"/>
       <c r="J142" s="38"/>
       <c r="K142" s="38"/>
-      <c r="L142" s="40">
-        <v>12</v>
-      </c>
-      <c r="M142" s="40">
-        <v>3</v>
-      </c>
-      <c r="N142" s="40">
-        <v>12</v>
-      </c>
-      <c r="O142" s="40">
-        <v>0</v>
-      </c>
-      <c r="P142" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q142" s="41">
-        <v>0.7</v>
-      </c>
+      <c r="L142" s="40"/>
+      <c r="M142" s="40"/>
+      <c r="N142" s="40"/>
+      <c r="O142" s="40"/>
+      <c r="P142" s="41"/>
+      <c r="Q142" s="41"/>
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
       <c r="T142" s="7"/>
@@ -17057,40 +17075,40 @@
     </row>
     <row r="143" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="38" t="s">
-        <v>378</v>
-      </c>
-      <c r="C143" s="38"/>
+        <v>376</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>200</v>
+      </c>
       <c r="D143" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="E143" s="38" t="s">
-        <v>198</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="E143" s="38"/>
       <c r="F143" s="38"/>
       <c r="G143" s="38"/>
       <c r="H143" s="38" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="I143" s="38"/>
       <c r="J143" s="38"/>
       <c r="K143" s="38"/>
       <c r="L143" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M143" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" s="40">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P143" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q143" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
@@ -17154,25 +17172,35 @@
     </row>
     <row r="144" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C144" s="38"/>
-      <c r="D144" s="1"/>
-      <c r="E144" s="47" t="s">
-        <v>199</v>
-      </c>
+      <c r="D144" s="38" t="s">
+        <v>202</v>
+      </c>
+      <c r="E144" s="38"/>
       <c r="F144" s="38"/>
       <c r="G144" s="38"/>
-      <c r="H144" s="38"/>
+      <c r="H144" s="38" t="s">
+        <v>394</v>
+      </c>
       <c r="I144" s="38"/>
       <c r="J144" s="38"/>
       <c r="K144" s="38"/>
-      <c r="L144" s="40"/>
+      <c r="L144" s="40">
+        <v>3</v>
+      </c>
       <c r="M144" s="40"/>
-      <c r="N144" s="40"/>
+      <c r="N144" s="40">
+        <v>3</v>
+      </c>
       <c r="O144" s="40"/>
-      <c r="P144" s="41"/>
-      <c r="Q144" s="41"/>
+      <c r="P144" s="41">
+        <v>0.9</v>
+      </c>
+      <c r="Q144" s="41">
+        <v>0.8</v>
+      </c>
       <c r="R144" s="7"/>
       <c r="S144" s="7"/>
       <c r="T144" s="7"/>
@@ -17235,41 +17263,23 @@
     </row>
     <row r="145" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="38" t="s">
-        <v>380</v>
-      </c>
-      <c r="C145" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="D145" s="38" t="s">
-        <v>202</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C145" s="38"/>
+      <c r="D145" s="38"/>
       <c r="E145" s="38"/>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
-      <c r="H145" s="38" t="s">
-        <v>413</v>
-      </c>
+      <c r="H145" s="38"/>
       <c r="I145" s="38"/>
       <c r="J145" s="38"/>
       <c r="K145" s="38"/>
-      <c r="L145" s="40">
-        <v>1</v>
-      </c>
-      <c r="M145" s="40">
-        <v>1</v>
-      </c>
-      <c r="N145" s="40">
-        <v>1</v>
-      </c>
-      <c r="O145" s="40">
-        <v>10</v>
-      </c>
-      <c r="P145" s="41">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="41">
-        <v>1</v>
-      </c>
+      <c r="L145" s="40"/>
+      <c r="M145" s="40"/>
+      <c r="N145" s="40"/>
+      <c r="O145" s="40"/>
+      <c r="P145" s="41"/>
+      <c r="Q145" s="41"/>
       <c r="R145" s="7"/>
       <c r="S145" s="7"/>
       <c r="T145" s="7"/>
@@ -17332,32 +17342,28 @@
     </row>
     <row r="146" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="38" t="s">
-        <v>381</v>
-      </c>
-      <c r="C146" s="38"/>
+        <v>379</v>
+      </c>
+      <c r="C146" s="38" t="s">
+        <v>205</v>
+      </c>
       <c r="D146" s="38" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
       <c r="E146" s="38"/>
       <c r="F146" s="38"/>
       <c r="G146" s="38"/>
       <c r="H146" s="38" t="s">
-        <v>398</v>
+        <v>450</v>
       </c>
       <c r="I146" s="38"/>
       <c r="J146" s="38"/>
       <c r="K146" s="38"/>
-      <c r="L146" s="40">
-        <v>3</v>
-      </c>
+      <c r="L146" s="40"/>
       <c r="M146" s="40"/>
-      <c r="N146" s="40">
-        <v>3</v>
-      </c>
+      <c r="N146" s="40"/>
       <c r="O146" s="40"/>
-      <c r="P146" s="41">
-        <v>0.9</v>
-      </c>
+      <c r="P146" s="41"/>
       <c r="Q146" s="41">
         <v>0.8</v>
       </c>
@@ -17423,7 +17429,7 @@
     </row>
     <row r="147" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="38" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C147" s="38"/>
       <c r="D147" s="38"/>
@@ -17502,20 +17508,14 @@
     </row>
     <row r="148" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="C148" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="D148" s="38" t="s">
-        <v>442</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C148" s="38"/>
+      <c r="D148" s="38"/>
       <c r="E148" s="38"/>
       <c r="F148" s="38"/>
       <c r="G148" s="38"/>
-      <c r="H148" s="38" t="s">
-        <v>454</v>
-      </c>
+      <c r="H148" s="38"/>
       <c r="I148" s="38"/>
       <c r="J148" s="38"/>
       <c r="K148" s="38"/>
@@ -17524,9 +17524,7 @@
       <c r="N148" s="40"/>
       <c r="O148" s="40"/>
       <c r="P148" s="41"/>
-      <c r="Q148" s="41">
-        <v>0.8</v>
-      </c>
+      <c r="Q148" s="41"/>
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
       <c r="T148" s="7"/>
@@ -17589,7 +17587,7 @@
     </row>
     <row r="149" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="38" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C149" s="38"/>
       <c r="D149" s="38"/>
@@ -17668,7 +17666,7 @@
     </row>
     <row r="150" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C150" s="38"/>
       <c r="D150" s="38"/>
@@ -17747,7 +17745,7 @@
     </row>
     <row r="151" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="38" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C151" s="38"/>
       <c r="D151" s="38"/>
@@ -17762,8 +17760,8 @@
       <c r="M151" s="40"/>
       <c r="N151" s="40"/>
       <c r="O151" s="40"/>
-      <c r="P151" s="41"/>
-      <c r="Q151" s="41"/>
+      <c r="P151" s="48"/>
+      <c r="Q151" s="48"/>
       <c r="R151" s="7"/>
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
@@ -17826,7 +17824,7 @@
     </row>
     <row r="152" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B152" s="38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C152" s="38"/>
       <c r="D152" s="38"/>
@@ -17905,7 +17903,7 @@
     </row>
     <row r="153" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B153" s="38" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C153" s="38"/>
       <c r="D153" s="38"/>
@@ -17920,8 +17918,8 @@
       <c r="M153" s="40"/>
       <c r="N153" s="40"/>
       <c r="O153" s="40"/>
-      <c r="P153" s="48"/>
-      <c r="Q153" s="48"/>
+      <c r="P153" s="41"/>
+      <c r="Q153" s="41"/>
       <c r="R153" s="7"/>
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
@@ -17982,339 +17980,183 @@
       <c r="BW153" s="8"/>
       <c r="BX153" s="8"/>
     </row>
-    <row r="154" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B154" s="38" t="s">
-        <v>389</v>
-      </c>
-      <c r="C154" s="38"/>
-      <c r="D154" s="38"/>
-      <c r="E154" s="38"/>
-      <c r="F154" s="38"/>
-      <c r="G154" s="38"/>
-      <c r="H154" s="38"/>
-      <c r="I154" s="38"/>
-      <c r="J154" s="38"/>
-      <c r="K154" s="38"/>
-      <c r="L154" s="40"/>
-      <c r="M154" s="40"/>
-      <c r="N154" s="40"/>
-      <c r="O154" s="40"/>
-      <c r="P154" s="41"/>
-      <c r="Q154" s="41"/>
-      <c r="R154" s="7"/>
-      <c r="S154" s="7"/>
-      <c r="T154" s="7"/>
-      <c r="U154" s="7"/>
-      <c r="V154" s="7"/>
-      <c r="W154" s="7"/>
-      <c r="X154" s="7"/>
-      <c r="Y154" s="7"/>
-      <c r="Z154" s="7"/>
-      <c r="AA154" s="7"/>
-      <c r="AB154" s="7"/>
-      <c r="AC154" s="7"/>
-      <c r="AD154" s="7"/>
-      <c r="AE154" s="7"/>
-      <c r="AF154" s="7"/>
-      <c r="AG154" s="7"/>
-      <c r="AH154" s="7"/>
-      <c r="AI154" s="7"/>
-      <c r="AJ154" s="7"/>
-      <c r="AK154" s="7"/>
-      <c r="AL154" s="8"/>
-      <c r="AM154" s="8"/>
-      <c r="AN154" s="8"/>
-      <c r="AO154" s="8"/>
-      <c r="AP154" s="8"/>
-      <c r="AQ154" s="8"/>
-      <c r="AR154" s="8"/>
-      <c r="AS154" s="8"/>
-      <c r="AT154" s="8"/>
-      <c r="AU154" s="8"/>
-      <c r="AV154" s="8"/>
-      <c r="AW154" s="8"/>
-      <c r="AX154" s="8"/>
-      <c r="AY154" s="8"/>
-      <c r="AZ154" s="8"/>
-      <c r="BA154" s="8"/>
-      <c r="BB154" s="8"/>
-      <c r="BC154" s="8"/>
-      <c r="BD154" s="8"/>
-      <c r="BE154" s="8"/>
-      <c r="BF154" s="8"/>
-      <c r="BG154" s="8"/>
-      <c r="BH154" s="8"/>
-      <c r="BI154" s="8"/>
-      <c r="BJ154" s="8"/>
-      <c r="BK154" s="8"/>
-      <c r="BL154" s="8"/>
-      <c r="BM154" s="8"/>
-      <c r="BN154" s="8"/>
-      <c r="BO154" s="8"/>
-      <c r="BP154" s="8"/>
-      <c r="BQ154" s="8"/>
-      <c r="BR154" s="8"/>
-      <c r="BS154" s="8"/>
-      <c r="BT154" s="8"/>
-      <c r="BU154" s="8"/>
-      <c r="BV154" s="8"/>
-      <c r="BW154" s="8"/>
-      <c r="BX154" s="8"/>
-    </row>
-    <row r="155" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B155" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="C155" s="38"/>
-      <c r="D155" s="38"/>
-      <c r="E155" s="38"/>
-      <c r="F155" s="38"/>
-      <c r="G155" s="38"/>
-      <c r="H155" s="38"/>
-      <c r="I155" s="38"/>
-      <c r="J155" s="38"/>
-      <c r="K155" s="38"/>
-      <c r="L155" s="40"/>
-      <c r="M155" s="40"/>
-      <c r="N155" s="40"/>
-      <c r="O155" s="40"/>
-      <c r="P155" s="41"/>
-      <c r="Q155" s="41"/>
-      <c r="R155" s="7"/>
-      <c r="S155" s="7"/>
-      <c r="T155" s="7"/>
-      <c r="U155" s="7"/>
-      <c r="V155" s="7"/>
-      <c r="W155" s="7"/>
-      <c r="X155" s="7"/>
-      <c r="Y155" s="7"/>
-      <c r="Z155" s="7"/>
-      <c r="AA155" s="7"/>
-      <c r="AB155" s="7"/>
-      <c r="AC155" s="7"/>
-      <c r="AD155" s="7"/>
-      <c r="AE155" s="7"/>
-      <c r="AF155" s="7"/>
-      <c r="AG155" s="7"/>
-      <c r="AH155" s="7"/>
-      <c r="AI155" s="7"/>
-      <c r="AJ155" s="7"/>
-      <c r="AK155" s="7"/>
-      <c r="AL155" s="8"/>
-      <c r="AM155" s="8"/>
-      <c r="AN155" s="8"/>
-      <c r="AO155" s="8"/>
-      <c r="AP155" s="8"/>
-      <c r="AQ155" s="8"/>
-      <c r="AR155" s="8"/>
-      <c r="AS155" s="8"/>
-      <c r="AT155" s="8"/>
-      <c r="AU155" s="8"/>
-      <c r="AV155" s="8"/>
-      <c r="AW155" s="8"/>
-      <c r="AX155" s="8"/>
-      <c r="AY155" s="8"/>
-      <c r="AZ155" s="8"/>
-      <c r="BA155" s="8"/>
-      <c r="BB155" s="8"/>
-      <c r="BC155" s="8"/>
-      <c r="BD155" s="8"/>
-      <c r="BE155" s="8"/>
-      <c r="BF155" s="8"/>
-      <c r="BG155" s="8"/>
-      <c r="BH155" s="8"/>
-      <c r="BI155" s="8"/>
-      <c r="BJ155" s="8"/>
-      <c r="BK155" s="8"/>
-      <c r="BL155" s="8"/>
-      <c r="BM155" s="8"/>
-      <c r="BN155" s="8"/>
-      <c r="BO155" s="8"/>
-      <c r="BP155" s="8"/>
-      <c r="BQ155" s="8"/>
-      <c r="BR155" s="8"/>
-      <c r="BS155" s="8"/>
-      <c r="BT155" s="8"/>
-      <c r="BU155" s="8"/>
-      <c r="BV155" s="8"/>
-      <c r="BW155" s="8"/>
-      <c r="BX155" s="8"/>
-    </row>
-    <row r="156" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="P156" s="45">
-        <f>AVERAGE(P6:P155)</f>
-        <v>0.62615384615384617</v>
-      </c>
-      <c r="Q156" s="45">
-        <f>AVERAGE(Q5:Q155)</f>
-        <v>0.52748091603053437</v>
-      </c>
-    </row>
-    <row r="157" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B157" s="59" t="s">
-        <v>466</v>
-      </c>
-      <c r="C157" s="60"/>
-      <c r="D157" s="61"/>
-      <c r="H157" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q157" s="49"/>
+    <row r="154" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="P154" s="45">
+        <f>AVERAGE(P6:P153)</f>
+        <v>0.71796875000000004</v>
+      </c>
+      <c r="Q154" s="45">
+        <f>AVERAGE(Q5:Q153)</f>
+        <v>0.54108527131782969</v>
+      </c>
+    </row>
+    <row r="155" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B155" s="59" t="s">
+        <v>462</v>
+      </c>
+      <c r="C155" s="60"/>
+      <c r="D155" s="61"/>
+      <c r="H155" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q155" s="49"/>
+    </row>
+    <row r="156" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B156" s="51" t="s">
+        <v>423</v>
+      </c>
+      <c r="C156" s="51">
+        <v>0</v>
+      </c>
+      <c r="D156" s="51"/>
+      <c r="G156" s="39">
+        <v>11</v>
+      </c>
+      <c r="H156" s="39">
+        <v>37.590000000000003</v>
+      </c>
+      <c r="I156" s="39">
+        <v>38.979999999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B157" s="39">
+        <v>2</v>
+      </c>
+      <c r="C157" s="39">
+        <v>15.63</v>
+      </c>
+      <c r="D157" s="39"/>
+      <c r="G157" s="39">
+        <v>12</v>
+      </c>
+      <c r="H157" s="39">
+        <v>38.979999999999997</v>
+      </c>
+      <c r="I157" s="39">
+        <v>39.85</v>
+      </c>
+      <c r="P157" s="50"/>
     </row>
     <row r="158" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="51" t="s">
-        <v>427</v>
-      </c>
-      <c r="C158" s="51">
-        <v>0</v>
-      </c>
-      <c r="D158" s="51"/>
+      <c r="B158" s="39">
+        <v>3</v>
+      </c>
+      <c r="C158" s="39">
+        <v>16.5</v>
+      </c>
+      <c r="D158" s="39"/>
       <c r="G158" s="39">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H158" s="39">
-        <v>37.590000000000003</v>
+        <v>39.85</v>
       </c>
       <c r="I158" s="39">
-        <v>38.979999999999997</v>
+        <v>43.59</v>
       </c>
     </row>
     <row r="159" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B159" s="39">
-        <v>2</v>
-      </c>
-      <c r="C159" s="39">
-        <v>15.63</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C159" s="39"/>
       <c r="D159" s="39"/>
       <c r="G159" s="39">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H159" s="39">
-        <v>38.979999999999997</v>
+        <v>49.73</v>
       </c>
       <c r="I159" s="39">
-        <v>39.85</v>
-      </c>
-      <c r="P159" s="50"/>
+        <v>52.75</v>
+      </c>
     </row>
     <row r="160" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C160" s="39">
-        <v>16.5</v>
+        <v>24.46</v>
       </c>
       <c r="D160" s="39"/>
       <c r="G160" s="39">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H160" s="39">
-        <v>39.85</v>
-      </c>
-      <c r="I160" s="39">
-        <v>43.59</v>
-      </c>
+        <v>54.11</v>
+      </c>
+      <c r="I160" s="39"/>
     </row>
     <row r="161" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B161" s="39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C161" s="39"/>
       <c r="D161" s="39"/>
       <c r="G161" s="39">
-        <v>14</v>
-      </c>
-      <c r="H161" s="39">
-        <v>49.73</v>
-      </c>
-      <c r="I161" s="39">
-        <v>52.75</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="39"/>
     </row>
     <row r="162" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B162" s="39">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" s="39">
-        <v>24.46</v>
+        <v>25.26</v>
       </c>
       <c r="D162" s="39"/>
       <c r="G162" s="39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H162" s="39"/>
       <c r="I162" s="39"/>
     </row>
     <row r="163" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B163" s="39">
-        <v>6</v>
-      </c>
-      <c r="C163" s="39"/>
+        <v>8</v>
+      </c>
+      <c r="C163" s="39">
+        <v>31.68</v>
+      </c>
       <c r="D163" s="39"/>
-      <c r="G163" s="39">
-        <v>16</v>
-      </c>
+      <c r="G163" s="39"/>
       <c r="H163" s="39"/>
       <c r="I163" s="39"/>
     </row>
     <row r="164" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B164" s="39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C164" s="39">
-        <v>25.26</v>
+        <v>33.81</v>
       </c>
       <c r="D164" s="39"/>
-      <c r="G164" s="39">
-        <v>17</v>
-      </c>
+      <c r="G164" s="39"/>
       <c r="H164" s="39"/>
       <c r="I164" s="39"/>
     </row>
     <row r="165" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B165" s="39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C165" s="39">
-        <v>31.68</v>
+        <v>36.04</v>
       </c>
       <c r="D165" s="39"/>
       <c r="G165" s="39"/>
       <c r="H165" s="39"/>
       <c r="I165" s="39"/>
     </row>
-    <row r="166" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B166" s="39">
-        <v>9</v>
-      </c>
-      <c r="C166" s="39">
-        <v>33.81</v>
-      </c>
-      <c r="D166" s="39"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="39"/>
-      <c r="I166" s="39"/>
-    </row>
-    <row r="167" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B167" s="39">
-        <v>10</v>
-      </c>
-      <c r="C167" s="39">
-        <v>36.04</v>
-      </c>
-      <c r="D167" s="39"/>
-      <c r="G167" s="39"/>
-      <c r="H167" s="39"/>
-      <c r="I167" s="39"/>
-    </row>
   </sheetData>
   <autoFilter ref="B3:Q4"/>
   <mergeCells count="15">
-    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B155:D155"/>
     <mergeCell ref="AS2:AZ2"/>
     <mergeCell ref="B2:O2"/>
     <mergeCell ref="B3:B4"/>
@@ -18331,7 +18173,7 @@
     <mergeCell ref="S3:W3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="R5:BY5 S6:BY82 R6:R152 S83:BX152">
+  <conditionalFormatting sqref="R5:BY5 S6:BY81 S82:BX150 R6:R150">
     <cfRule type="expression" dxfId="35" priority="9">
       <formula>완료율</formula>
     </cfRule>
@@ -18357,7 +18199,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BY83">
+  <conditionalFormatting sqref="BY82">
     <cfRule type="expression" dxfId="27" priority="10">
       <formula>TRUE</formula>
     </cfRule>
@@ -18367,7 +18209,7 @@
       <formula>R$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R153:BX155">
+  <conditionalFormatting sqref="R151:BX153">
     <cfRule type="expression" dxfId="25" priority="1">
       <formula>완료율</formula>
     </cfRule>
@@ -18625,7 +18467,7 @@
         <v>47</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>40</v>
@@ -18655,7 +18497,7 @@
         <v>33</v>
       </c>
       <c r="Q3" s="81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R3" s="81"/>
       <c r="S3" s="81"/>
@@ -18816,7 +18658,7 @@
     <row r="5" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="38"/>
       <c r="B5" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
@@ -18895,7 +18737,7 @@
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="38"/>
@@ -18983,7 +18825,7 @@
       <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="38"/>
@@ -19071,7 +18913,7 @@
       <c r="A8" s="38"/>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39"/>
@@ -19159,7 +19001,7 @@
       <c r="A9" s="38"/>
       <c r="B9" s="39"/>
       <c r="C9" s="39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39"/>
@@ -19322,7 +19164,7 @@
     <row r="11" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38"/>
       <c r="B11" s="39" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
@@ -19401,7 +19243,7 @@
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="38"/>
@@ -19489,7 +19331,7 @@
       <c r="A13" s="38"/>
       <c r="B13" s="38"/>
       <c r="C13" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D13" s="42"/>
       <c r="E13" s="38"/>
@@ -19577,7 +19419,7 @@
       <c r="A14" s="38"/>
       <c r="B14" s="38"/>
       <c r="C14" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14" s="43"/>
       <c r="E14" s="38"/>
@@ -19665,7 +19507,7 @@
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
@@ -19753,7 +19595,7 @@
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
       <c r="C16" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="39"/>
       <c r="E16" s="38"/>
@@ -19841,7 +19683,7 @@
       <c r="A17" s="38"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -19929,7 +19771,7 @@
       <c r="A18" s="38"/>
       <c r="B18" s="38"/>
       <c r="C18" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
@@ -20092,7 +19934,7 @@
     <row r="20" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="38"/>
       <c r="B20" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
@@ -20171,7 +20013,7 @@
       <c r="A21" s="38"/>
       <c r="B21" s="38"/>
       <c r="C21" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -20249,7 +20091,7 @@
       <c r="A22" s="38"/>
       <c r="B22" s="38"/>
       <c r="C22" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -20327,7 +20169,7 @@
       <c r="A23" s="38"/>
       <c r="B23" s="38"/>
       <c r="C23" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -20405,7 +20247,7 @@
       <c r="A24" s="38"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -20483,7 +20325,7 @@
       <c r="A25" s="38"/>
       <c r="B25" s="38"/>
       <c r="C25" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D25" s="38"/>
       <c r="E25" s="38"/>
@@ -20571,7 +20413,7 @@
       <c r="A26" s="38"/>
       <c r="B26" s="38"/>
       <c r="C26" s="39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D26" s="44"/>
       <c r="E26" s="39"/>
@@ -20659,7 +20501,7 @@
       <c r="A27" s="38"/>
       <c r="B27" s="38"/>
       <c r="C27" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D27" s="38"/>
       <c r="E27" s="38"/>
@@ -20737,7 +20579,7 @@
       <c r="A28" s="38"/>
       <c r="B28" s="38"/>
       <c r="C28" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D28" s="38"/>
       <c r="E28" s="38"/>
@@ -20825,7 +20667,7 @@
       <c r="A29" s="38"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
@@ -20903,7 +20745,7 @@
       <c r="A30" s="38"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
@@ -21076,7 +20918,7 @@
     <row r="32" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="38"/>
       <c r="B32" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
@@ -21155,7 +20997,7 @@
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D33" s="38"/>
       <c r="E33" s="38"/>
@@ -21243,7 +21085,7 @@
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
       <c r="C34" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="38"/>
       <c r="E34" s="38"/>
@@ -21331,7 +21173,7 @@
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="38"/>
@@ -21419,7 +21261,7 @@
       <c r="A36" s="38"/>
       <c r="B36" s="38"/>
       <c r="C36" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="38"/>
@@ -21497,7 +21339,7 @@
       <c r="A37" s="38"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D37" s="38"/>
       <c r="E37" s="38"/>
@@ -21585,7 +21427,7 @@
       <c r="A38" s="38"/>
       <c r="B38" s="38"/>
       <c r="C38" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" s="38"/>
       <c r="E38" s="38"/>
@@ -21663,7 +21505,7 @@
       <c r="A39" s="38"/>
       <c r="B39" s="38"/>
       <c r="C39" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D39" s="38"/>
       <c r="E39" s="38"/>
@@ -21751,7 +21593,7 @@
       <c r="A40" s="38"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D40" s="38"/>
       <c r="E40" s="38"/>
@@ -21829,7 +21671,7 @@
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="38"/>
       <c r="E41" s="38"/>
@@ -21917,7 +21759,7 @@
       <c r="A42" s="38"/>
       <c r="B42" s="38"/>
       <c r="C42" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D42" s="38"/>
       <c r="E42" s="38"/>
@@ -22005,7 +21847,7 @@
       <c r="A43" s="38"/>
       <c r="B43" s="38"/>
       <c r="C43" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D43" s="38"/>
       <c r="E43" s="38"/>
@@ -22093,7 +21935,7 @@
       <c r="A44" s="38"/>
       <c r="B44" s="38"/>
       <c r="C44" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D44" s="38"/>
       <c r="E44" s="38"/>
@@ -22342,7 +22184,7 @@
     <row r="47" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="38"/>
       <c r="B47" s="38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
@@ -22431,10 +22273,10 @@
       <c r="A48" s="38"/>
       <c r="B48" s="38"/>
       <c r="C48" s="38" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D48" s="38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E48" s="38"/>
       <c r="F48" s="38"/>
@@ -22511,10 +22353,10 @@
       <c r="A49" s="38"/>
       <c r="B49" s="38"/>
       <c r="C49" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D49" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E49" s="38"/>
       <c r="F49" s="38"/>
@@ -22591,10 +22433,10 @@
       <c r="A50" s="38"/>
       <c r="B50" s="38"/>
       <c r="C50" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D50" s="38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="38"/>
@@ -22671,10 +22513,10 @@
       <c r="A51" s="38"/>
       <c r="B51" s="38"/>
       <c r="C51" s="38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D51" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E51" s="38"/>
       <c r="F51" s="38"/>
@@ -22751,10 +22593,10 @@
       <c r="A52" s="38"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D52" s="38" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="38"/>
@@ -22831,7 +22673,7 @@
       <c r="A53" s="38"/>
       <c r="B53" s="38"/>
       <c r="D53" s="47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
@@ -22907,10 +22749,10 @@
     <row r="54" spans="1:74" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="38"/>
       <c r="B54" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="38" t="s">
         <v>201</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>202</v>
       </c>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
@@ -22988,7 +22830,7 @@
       <c r="A55" s="38"/>
       <c r="B55" s="38"/>
       <c r="C55" s="38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D55" s="38"/>
       <c r="E55" s="38"/>
@@ -23890,45 +23732,45 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
         <v>170</v>
-      </c>
-      <c r="D1" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -23939,10 +23781,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BZ79"/>
+  <dimension ref="B1:CH79"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BZ7" sqref="BZ7"/>
+    <sheetView topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="CI1" sqref="CI1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23950,9 +23792,10 @@
     <col min="12" max="12" width="9" customWidth="1"/>
     <col min="67" max="67" width="11.125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:78" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:86" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="94">
         <v>43460</v>
       </c>
@@ -24014,40 +23857,50 @@
       <c r="AX1" s="89"/>
       <c r="AY1" s="89"/>
       <c r="AZ1" s="90"/>
-      <c r="BA1" s="82">
+      <c r="BA1" s="83">
         <v>43469</v>
       </c>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="83"/>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="83"/>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="83"/>
-      <c r="BO1" s="85">
+      <c r="BB1" s="84"/>
+      <c r="BC1" s="84"/>
+      <c r="BD1" s="84"/>
+      <c r="BE1" s="84"/>
+      <c r="BF1" s="84"/>
+      <c r="BG1" s="84"/>
+      <c r="BH1" s="84"/>
+      <c r="BI1" s="84"/>
+      <c r="BJ1" s="84"/>
+      <c r="BK1" s="84"/>
+      <c r="BL1" s="84"/>
+      <c r="BM1" s="84"/>
+      <c r="BN1" s="84"/>
+      <c r="BO1" s="82">
         <v>43470</v>
       </c>
-      <c r="BP1" s="85"/>
-      <c r="BQ1" s="85"/>
-      <c r="BR1" s="85"/>
-      <c r="BS1" s="85"/>
-      <c r="BT1" s="85"/>
-      <c r="BU1" s="85"/>
-      <c r="BV1" s="85"/>
-      <c r="BW1" s="85"/>
-      <c r="BX1" s="85"/>
-      <c r="BY1" s="85"/>
-      <c r="BZ1" s="58">
+      <c r="BP1" s="82"/>
+      <c r="BQ1" s="82"/>
+      <c r="BR1" s="82"/>
+      <c r="BS1" s="82"/>
+      <c r="BT1" s="82"/>
+      <c r="BU1" s="82"/>
+      <c r="BV1" s="82"/>
+      <c r="BW1" s="82"/>
+      <c r="BX1" s="82"/>
+      <c r="BY1" s="82"/>
+      <c r="BZ1" s="82">
         <v>43471</v>
       </c>
-    </row>
-    <row r="2" spans="2:78" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="CA1" s="82"/>
+      <c r="CB1" s="82"/>
+      <c r="CC1" s="82">
+        <v>43471</v>
+      </c>
+      <c r="CD1" s="82"/>
+      <c r="CE1" s="82"/>
+      <c r="CF1" s="82"/>
+      <c r="CG1" s="82"/>
+      <c r="CH1" s="82"/>
+    </row>
+    <row r="2" spans="2:86" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="97"/>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -24099,33 +23952,42 @@
       <c r="AX2" s="92"/>
       <c r="AY2" s="92"/>
       <c r="AZ2" s="93"/>
-      <c r="BA2" s="84"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="83"/>
-      <c r="BF2" s="83"/>
-      <c r="BG2" s="83"/>
-      <c r="BH2" s="83"/>
-      <c r="BI2" s="83"/>
-      <c r="BJ2" s="83"/>
-      <c r="BK2" s="83"/>
-      <c r="BL2" s="83"/>
-      <c r="BM2" s="83"/>
-      <c r="BN2" s="83"/>
-      <c r="BO2" s="85"/>
-      <c r="BP2" s="85"/>
-      <c r="BQ2" s="85"/>
-      <c r="BR2" s="85"/>
-      <c r="BS2" s="85"/>
-      <c r="BT2" s="85"/>
-      <c r="BU2" s="85"/>
-      <c r="BV2" s="85"/>
-      <c r="BW2" s="85"/>
-      <c r="BX2" s="85"/>
-      <c r="BY2" s="85"/>
-    </row>
-    <row r="3" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="84"/>
+      <c r="BC2" s="84"/>
+      <c r="BD2" s="84"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="84"/>
+      <c r="BG2" s="84"/>
+      <c r="BH2" s="84"/>
+      <c r="BI2" s="84"/>
+      <c r="BJ2" s="84"/>
+      <c r="BK2" s="84"/>
+      <c r="BL2" s="84"/>
+      <c r="BM2" s="84"/>
+      <c r="BN2" s="84"/>
+      <c r="BO2" s="82"/>
+      <c r="BP2" s="82"/>
+      <c r="BQ2" s="82"/>
+      <c r="BR2" s="82"/>
+      <c r="BS2" s="82"/>
+      <c r="BT2" s="82"/>
+      <c r="BU2" s="82"/>
+      <c r="BV2" s="82"/>
+      <c r="BW2" s="82"/>
+      <c r="BX2" s="82"/>
+      <c r="BY2" s="82"/>
+      <c r="BZ2" s="82"/>
+      <c r="CA2" s="82"/>
+      <c r="CB2" s="82"/>
+      <c r="CC2" s="82"/>
+      <c r="CD2" s="82"/>
+      <c r="CE2" s="82"/>
+      <c r="CF2" s="82"/>
+      <c r="CG2" s="82"/>
+      <c r="CH2" s="82"/>
+    </row>
+    <row r="3" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B3" s="27"/>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
@@ -24177,35 +24039,44 @@
       <c r="AX3" s="92"/>
       <c r="AY3" s="92"/>
       <c r="AZ3" s="93"/>
-      <c r="BA3" s="84"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="83"/>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="83"/>
-      <c r="BH3" s="83"/>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="85"/>
-      <c r="BP3" s="85"/>
-      <c r="BQ3" s="85"/>
-      <c r="BR3" s="85"/>
-      <c r="BS3" s="85"/>
-      <c r="BT3" s="85"/>
-      <c r="BU3" s="85"/>
-      <c r="BV3" s="85"/>
-      <c r="BW3" s="85"/>
-      <c r="BX3" s="85"/>
-      <c r="BY3" s="85"/>
-    </row>
-    <row r="4" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="BA3" s="85"/>
+      <c r="BB3" s="84"/>
+      <c r="BC3" s="84"/>
+      <c r="BD3" s="84"/>
+      <c r="BE3" s="84"/>
+      <c r="BF3" s="84"/>
+      <c r="BG3" s="84"/>
+      <c r="BH3" s="84"/>
+      <c r="BI3" s="84"/>
+      <c r="BJ3" s="84"/>
+      <c r="BK3" s="84"/>
+      <c r="BL3" s="84"/>
+      <c r="BM3" s="84"/>
+      <c r="BN3" s="84"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="82"/>
+      <c r="BS3" s="82"/>
+      <c r="BT3" s="82"/>
+      <c r="BU3" s="82"/>
+      <c r="BV3" s="82"/>
+      <c r="BW3" s="82"/>
+      <c r="BX3" s="82"/>
+      <c r="BY3" s="82"/>
+      <c r="BZ3" s="82"/>
+      <c r="CA3" s="82"/>
+      <c r="CB3" s="82"/>
+      <c r="CC3" s="82"/>
+      <c r="CD3" s="82"/>
+      <c r="CE3" s="82"/>
+      <c r="CF3" s="82"/>
+      <c r="CG3" s="82"/>
+      <c r="CH3" s="82"/>
+    </row>
+    <row r="4" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B4" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -24217,7 +24088,7 @@
       <c r="J4" s="29"/>
       <c r="K4" s="27"/>
       <c r="L4" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
@@ -24231,7 +24102,7 @@
       <c r="V4" s="29"/>
       <c r="W4" s="27"/>
       <c r="X4" s="31" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="Y4" s="28"/>
       <c r="Z4" s="28"/>
@@ -24242,7 +24113,7 @@
       <c r="AE4" s="28"/>
       <c r="AF4" s="29"/>
       <c r="AG4" s="30" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="AH4" s="28"/>
       <c r="AI4" s="28"/>
@@ -24264,17 +24135,20 @@
       <c r="AY4" s="28"/>
       <c r="AZ4" s="29"/>
       <c r="BA4" s="56" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="BB4" s="56"/>
       <c r="BO4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="BP4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5" spans="2:78" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+      <c r="CC4" s="56" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="5" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
@@ -24286,7 +24160,7 @@
       <c r="J5" s="29"/>
       <c r="K5" s="27"/>
       <c r="L5" s="35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M5" s="28"/>
       <c r="N5" s="28"/>
@@ -24300,7 +24174,7 @@
       <c r="V5" s="29"/>
       <c r="W5" s="27"/>
       <c r="X5" s="31" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Y5" s="28"/>
       <c r="Z5" s="28"/>
@@ -24311,7 +24185,7 @@
       <c r="AE5" s="28"/>
       <c r="AF5" s="29"/>
       <c r="AG5" s="30" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="AH5" s="28"/>
       <c r="AI5" s="28"/>
@@ -24324,7 +24198,7 @@
       <c r="AP5" s="29"/>
       <c r="AQ5" s="27"/>
       <c r="AR5" s="31" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AS5" s="28"/>
       <c r="AT5" s="28"/>
@@ -24336,12 +24210,13 @@
       <c r="AZ5" s="29"/>
       <c r="BA5" s="56"/>
       <c r="BB5" s="56" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="2:78" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="CC5" s="56"/>
+    </row>
+    <row r="6" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B6" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -24353,7 +24228,7 @@
       <c r="J6" s="29"/>
       <c r="K6" s="27"/>
       <c r="L6" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -24367,7 +24242,7 @@
       <c r="V6" s="29"/>
       <c r="W6" s="27"/>
       <c r="X6" s="31" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="Y6" s="28"/>
       <c r="Z6" s="28"/>
@@ -24378,7 +24253,7 @@
       <c r="AE6" s="28"/>
       <c r="AF6" s="29"/>
       <c r="AG6" s="30" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="AH6" s="28"/>
       <c r="AI6" s="28"/>
@@ -24391,7 +24266,7 @@
       <c r="AP6" s="29"/>
       <c r="AQ6" s="27"/>
       <c r="AR6" s="86" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AS6" s="86"/>
       <c r="AT6" s="86"/>
@@ -24403,13 +24278,16 @@
       <c r="AZ6" s="87"/>
       <c r="BA6" s="56"/>
       <c r="BB6" s="56" t="s">
-        <v>484</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="2:78" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+      <c r="BZ6" s="56" t="s">
+        <v>519</v>
+      </c>
+      <c r="CC6" s="56" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B7" s="27"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -24421,7 +24299,7 @@
       <c r="J7" s="29"/>
       <c r="K7" s="27"/>
       <c r="L7" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M7" s="28"/>
       <c r="N7" s="28"/>
@@ -24435,7 +24313,7 @@
       <c r="V7" s="29"/>
       <c r="W7" s="27"/>
       <c r="X7" s="31" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Y7" s="28"/>
       <c r="Z7" s="28"/>
@@ -24446,7 +24324,7 @@
       <c r="AE7" s="28"/>
       <c r="AF7" s="29"/>
       <c r="AG7" s="30" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="AH7" s="28"/>
       <c r="AI7" s="28"/>
@@ -24470,12 +24348,13 @@
       <c r="BA7" s="56"/>
       <c r="BB7" s="56"/>
       <c r="BO7" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="8" spans="2:78" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+      <c r="CC7" s="56"/>
+    </row>
+    <row r="8" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B8" s="30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -24487,7 +24366,7 @@
       <c r="J8" s="29"/>
       <c r="K8" s="27"/>
       <c r="L8" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -24510,7 +24389,7 @@
       <c r="AE8" s="28"/>
       <c r="AF8" s="29"/>
       <c r="AG8" s="30" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="AH8" s="28"/>
       <c r="AI8" s="28"/>
@@ -24523,7 +24402,7 @@
       <c r="AP8" s="29"/>
       <c r="AQ8" s="27"/>
       <c r="AR8" s="31" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AS8" s="28"/>
       <c r="AT8" s="28"/>
@@ -24534,11 +24413,14 @@
       <c r="AY8" s="28"/>
       <c r="AZ8" s="29"/>
       <c r="BA8" s="56" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="BB8" s="56"/>
-    </row>
-    <row r="9" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="CC8" s="56" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="9" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B9" s="30"/>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -24550,7 +24432,7 @@
       <c r="J9" s="29"/>
       <c r="K9" s="27"/>
       <c r="L9" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -24573,7 +24455,7 @@
       <c r="AE9" s="28"/>
       <c r="AF9" s="29"/>
       <c r="AG9" s="30" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="AH9" s="28"/>
       <c r="AI9" s="28"/>
@@ -24596,10 +24478,11 @@
       <c r="AZ9" s="29"/>
       <c r="BA9" s="56"/>
       <c r="BB9" s="56"/>
-    </row>
-    <row r="10" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="CC9" s="56"/>
+    </row>
+    <row r="10" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B10" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
@@ -24611,7 +24494,7 @@
       <c r="J10" s="29"/>
       <c r="K10" s="27"/>
       <c r="L10" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
@@ -24634,7 +24517,7 @@
       <c r="AE10" s="28"/>
       <c r="AF10" s="29"/>
       <c r="AG10" s="30" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="AH10" s="28"/>
       <c r="AI10" s="28"/>
@@ -24647,7 +24530,7 @@
       <c r="AP10" s="29"/>
       <c r="AQ10" s="27"/>
       <c r="AR10" s="31" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AS10" s="28"/>
       <c r="AT10" s="28"/>
@@ -24658,11 +24541,14 @@
       <c r="AY10" s="28"/>
       <c r="AZ10" s="29"/>
       <c r="BA10" s="56" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="BB10" s="56"/>
-    </row>
-    <row r="11" spans="2:78" x14ac:dyDescent="0.3">
+      <c r="CC10" s="56" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B11" s="30"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -24674,7 +24560,7 @@
       <c r="J11" s="29"/>
       <c r="K11" s="27"/>
       <c r="L11" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
@@ -24719,12 +24605,13 @@
       <c r="BA11" s="56"/>
       <c r="BB11" s="56"/>
       <c r="BO11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="12" spans="2:78" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+      <c r="CC11" s="56"/>
+    </row>
+    <row r="12" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B12" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
@@ -24757,7 +24644,7 @@
       <c r="AE12" s="28"/>
       <c r="AF12" s="29"/>
       <c r="AG12" s="30" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="AH12" s="28"/>
       <c r="AI12" s="28"/>
@@ -24770,7 +24657,7 @@
       <c r="AP12" s="29"/>
       <c r="AQ12" s="27"/>
       <c r="AR12" s="31" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AS12" s="28"/>
       <c r="AT12" s="28"/>
@@ -24781,14 +24668,17 @@
       <c r="AY12" s="28"/>
       <c r="AZ12" s="29"/>
       <c r="BA12" s="56" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="BB12" s="56"/>
       <c r="BO12" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="13" spans="2:78" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="CC12" s="56" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B13" s="30"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
@@ -24802,7 +24692,7 @@
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
       <c r="N13" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O13" s="28"/>
       <c r="P13" s="28"/>
@@ -24814,7 +24704,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="27"/>
       <c r="X13" s="54" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="Y13" s="28"/>
       <c r="Z13" s="28"/>
@@ -24825,7 +24715,7 @@
       <c r="AE13" s="28"/>
       <c r="AF13" s="29"/>
       <c r="AG13" s="30" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AH13" s="28"/>
       <c r="AI13" s="28"/>
@@ -24849,12 +24739,13 @@
       <c r="BA13" s="56"/>
       <c r="BB13" s="56"/>
       <c r="BO13" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="14" spans="2:78" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+      <c r="CC13" s="56"/>
+    </row>
+    <row r="14" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B14" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
@@ -24865,7 +24756,7 @@
       <c r="I14" s="28"/>
       <c r="J14" s="29"/>
       <c r="K14" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
@@ -24879,7 +24770,7 @@
       <c r="U14" s="28"/>
       <c r="V14" s="29"/>
       <c r="W14" s="30" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="X14" s="28"/>
       <c r="Y14" s="28"/>
@@ -24902,7 +24793,7 @@
       <c r="AP14" s="29"/>
       <c r="AQ14" s="27"/>
       <c r="AR14" s="31" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="AS14" s="28"/>
       <c r="AT14" s="28"/>
@@ -24913,14 +24804,15 @@
       <c r="AY14" s="28"/>
       <c r="AZ14" s="29"/>
       <c r="BA14" s="56" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="BB14" s="56"/>
       <c r="BO14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="15" spans="2:78" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+      <c r="CC14" s="56"/>
+    </row>
+    <row r="15" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B15" s="30"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
@@ -24931,7 +24823,7 @@
       <c r="I15" s="28"/>
       <c r="J15" s="29"/>
       <c r="K15" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
@@ -24945,7 +24837,7 @@
       <c r="U15" s="28"/>
       <c r="V15" s="29"/>
       <c r="W15" s="30" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="X15" s="28"/>
       <c r="Y15" s="28"/>
@@ -24978,16 +24870,17 @@
       <c r="AZ15" s="29"/>
       <c r="BA15" s="56"/>
       <c r="BB15" s="56" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="16" spans="2:78" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+      <c r="CC15" s="56"/>
+    </row>
+    <row r="16" spans="2:86" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="28"/>
@@ -24996,7 +24889,7 @@
       <c r="I16" s="28"/>
       <c r="J16" s="29"/>
       <c r="K16" s="30" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
@@ -25010,7 +24903,7 @@
       <c r="U16" s="28"/>
       <c r="V16" s="29"/>
       <c r="W16" s="30" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="X16" s="28"/>
       <c r="Y16" s="28"/>
@@ -25033,7 +24926,7 @@
       <c r="AP16" s="29"/>
       <c r="AQ16" s="27"/>
       <c r="AR16" s="31" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="AS16" s="28"/>
       <c r="AT16" s="28"/>
@@ -25044,15 +24937,18 @@
       <c r="AY16" s="28"/>
       <c r="AZ16" s="29"/>
       <c r="BA16" s="56" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="BB16" s="56"/>
-    </row>
-    <row r="17" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="CC16" s="56" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="17" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
       <c r="D17" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -25061,7 +24957,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="29"/>
       <c r="K17" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
@@ -25075,7 +24971,7 @@
       <c r="U17" s="28"/>
       <c r="V17" s="29"/>
       <c r="W17" s="30" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="X17" s="28"/>
       <c r="Y17" s="28"/>
@@ -25108,12 +25004,13 @@
       <c r="AZ17" s="29"/>
       <c r="BA17" s="56"/>
       <c r="BB17" s="56"/>
-    </row>
-    <row r="18" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="CC17" s="56"/>
+    </row>
+    <row r="18" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B18" s="27"/>
       <c r="C18" s="28"/>
       <c r="D18" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
@@ -25122,7 +25019,7 @@
       <c r="I18" s="28"/>
       <c r="J18" s="29"/>
       <c r="K18" s="30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
@@ -25136,7 +25033,7 @@
       <c r="U18" s="28"/>
       <c r="V18" s="29"/>
       <c r="W18" s="30" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="X18" s="28"/>
       <c r="Y18" s="28"/>
@@ -25159,7 +25056,7 @@
       <c r="AP18" s="29"/>
       <c r="AQ18" s="27"/>
       <c r="AR18" s="31" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="AS18" s="28"/>
       <c r="AT18" s="28"/>
@@ -25170,15 +25067,18 @@
       <c r="AY18" s="28"/>
       <c r="AZ18" s="29"/>
       <c r="BA18" s="56" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="BB18" s="56"/>
-    </row>
-    <row r="19" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="CC18" s="56" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="19" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
       <c r="C19" s="28"/>
       <c r="D19" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
@@ -25187,7 +25087,7 @@
       <c r="I19" s="28"/>
       <c r="J19" s="29"/>
       <c r="K19" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
@@ -25232,8 +25132,9 @@
       <c r="AZ19" s="29"/>
       <c r="BA19" s="56"/>
       <c r="BB19" s="56"/>
-    </row>
-    <row r="20" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="CC19" s="56"/>
+    </row>
+    <row r="20" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B20" s="27"/>
       <c r="C20" s="28"/>
       <c r="D20" s="28"/>
@@ -25244,7 +25145,7 @@
       <c r="I20" s="28"/>
       <c r="J20" s="29"/>
       <c r="K20" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
@@ -25258,7 +25159,7 @@
       <c r="U20" s="28"/>
       <c r="V20" s="29"/>
       <c r="W20" s="30" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="X20" s="28"/>
       <c r="Y20" s="28"/>
@@ -25281,7 +25182,7 @@
       <c r="AP20" s="29"/>
       <c r="AQ20" s="27"/>
       <c r="AR20" s="31" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="AS20" s="28"/>
       <c r="AT20" s="28"/>
@@ -25292,16 +25193,19 @@
       <c r="AY20" s="28"/>
       <c r="AZ20" s="29"/>
       <c r="BA20" s="56" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="BB20" s="56"/>
       <c r="BO20" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="21" spans="2:67" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+      <c r="CC20" s="56" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="21" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B21" s="30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
@@ -25312,7 +25216,7 @@
       <c r="I21" s="28"/>
       <c r="J21" s="29"/>
       <c r="K21" s="30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
@@ -25326,7 +25230,7 @@
       <c r="U21" s="28"/>
       <c r="V21" s="29"/>
       <c r="W21" s="30" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="X21" s="28"/>
       <c r="Y21" s="28"/>
@@ -25360,10 +25264,11 @@
       <c r="BA21" s="56"/>
       <c r="BB21" s="56"/>
       <c r="BO21" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="22" spans="2:67" x14ac:dyDescent="0.3">
+        <v>514</v>
+      </c>
+      <c r="CC21" s="56"/>
+    </row>
+    <row r="22" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B22" s="30"/>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
@@ -25374,7 +25279,7 @@
       <c r="I22" s="28"/>
       <c r="J22" s="29"/>
       <c r="K22" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
@@ -25388,7 +25293,7 @@
       <c r="U22" s="28"/>
       <c r="V22" s="29"/>
       <c r="W22" s="30" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="X22" s="28"/>
       <c r="Y22" s="28"/>
@@ -25411,7 +25316,7 @@
       <c r="AP22" s="29"/>
       <c r="AQ22" s="27"/>
       <c r="AR22" s="31" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="AS22" s="28"/>
       <c r="AT22" s="28"/>
@@ -25422,16 +25327,19 @@
       <c r="AY22" s="28"/>
       <c r="AZ22" s="29"/>
       <c r="BA22" s="56" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="BB22" s="56"/>
       <c r="BO22" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="23" spans="2:67" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+      <c r="CC22" s="56" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="23" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="28"/>
@@ -25442,7 +25350,7 @@
       <c r="I23" s="28"/>
       <c r="J23" s="29"/>
       <c r="K23" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
@@ -25456,16 +25364,16 @@
       <c r="U23" s="28"/>
       <c r="V23" s="29"/>
       <c r="W23" s="30" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="X23" s="28" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Y23" s="28" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Z23" s="28" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="AA23" s="28"/>
       <c r="AB23" s="28"/>
@@ -25485,7 +25393,7 @@
       <c r="AP23" s="29"/>
       <c r="AQ23" s="27"/>
       <c r="AR23" s="55" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AS23" s="28"/>
       <c r="AT23" s="28"/>
@@ -25498,10 +25406,11 @@
       <c r="BA23" s="56"/>
       <c r="BB23" s="56"/>
       <c r="BO23" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="24" spans="2:67" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+      <c r="CC23" s="56"/>
+    </row>
+    <row r="24" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B24" s="30"/>
       <c r="C24" s="28"/>
       <c r="D24" s="28"/>
@@ -25512,7 +25421,7 @@
       <c r="I24" s="28"/>
       <c r="J24" s="29"/>
       <c r="K24" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
@@ -25547,7 +25456,7 @@
       <c r="AP24" s="29"/>
       <c r="AQ24" s="27"/>
       <c r="AR24" s="31" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="AS24" s="28"/>
       <c r="AT24" s="28"/>
@@ -25558,16 +25467,19 @@
       <c r="AY24" s="28"/>
       <c r="AZ24" s="29"/>
       <c r="BA24" s="56" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BB24" s="56"/>
       <c r="BO24" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="25" spans="2:67" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+      <c r="CC24" s="56" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B25" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="28"/>
@@ -25578,10 +25490,10 @@
       <c r="I25" s="28"/>
       <c r="J25" s="29"/>
       <c r="K25" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
@@ -25594,7 +25506,7 @@
       <c r="U25" s="28"/>
       <c r="V25" s="29"/>
       <c r="W25" s="30" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="X25" s="28"/>
       <c r="Y25" s="28"/>
@@ -25617,7 +25529,7 @@
       <c r="AP25" s="29"/>
       <c r="AQ25" s="27"/>
       <c r="AR25" s="55" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="AS25" s="28"/>
       <c r="AT25" s="28"/>
@@ -25630,10 +25542,11 @@
       <c r="BA25" s="56"/>
       <c r="BB25" s="56"/>
       <c r="BO25" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="26" spans="2:67" x14ac:dyDescent="0.3">
+        <v>518</v>
+      </c>
+      <c r="CC25" s="56"/>
+    </row>
+    <row r="26" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B26" s="30"/>
       <c r="C26" s="28"/>
       <c r="D26" s="28"/>
@@ -25645,7 +25558,7 @@
       <c r="J26" s="29"/>
       <c r="K26" s="27"/>
       <c r="L26" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
@@ -25658,7 +25571,7 @@
       <c r="U26" s="28"/>
       <c r="V26" s="29"/>
       <c r="W26" s="30" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="X26" s="28"/>
       <c r="Y26" s="28"/>
@@ -25681,7 +25594,7 @@
       <c r="AP26" s="29"/>
       <c r="AQ26" s="27"/>
       <c r="AR26" s="55" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AS26" s="28"/>
       <c r="AT26" s="28"/>
@@ -25692,13 +25605,16 @@
       <c r="AY26" s="28"/>
       <c r="AZ26" s="29"/>
       <c r="BA26" s="56" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="BB26" s="56"/>
-    </row>
-    <row r="27" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="CC26" s="56" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="27" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B27" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="28"/>
@@ -25710,7 +25626,7 @@
       <c r="J27" s="29"/>
       <c r="K27" s="27"/>
       <c r="L27" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
@@ -25744,7 +25660,7 @@
       <c r="AP27" s="29"/>
       <c r="AQ27" s="27"/>
       <c r="AR27" s="55" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AS27" s="28"/>
       <c r="AT27" s="28"/>
@@ -25756,8 +25672,9 @@
       <c r="AZ27" s="29"/>
       <c r="BA27" s="56"/>
       <c r="BB27" s="56"/>
-    </row>
-    <row r="28" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="CC27" s="56"/>
+    </row>
+    <row r="28" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B28" s="30"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28"/>
@@ -25768,10 +25685,10 @@
       <c r="I28" s="28"/>
       <c r="J28" s="29"/>
       <c r="K28" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
@@ -25784,7 +25701,7 @@
       <c r="U28" s="28"/>
       <c r="V28" s="29"/>
       <c r="W28" s="30" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="X28" s="28"/>
       <c r="Y28" s="28"/>
@@ -25816,18 +25733,21 @@
       <c r="AY28" s="28"/>
       <c r="AZ28" s="29"/>
       <c r="BA28" s="56" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="BB28" s="56"/>
-    </row>
-    <row r="29" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="CC28" s="56" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="29" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B29" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
@@ -25878,13 +25798,14 @@
       <c r="AZ29" s="29"/>
       <c r="BA29" s="56"/>
       <c r="BB29" s="56"/>
-    </row>
-    <row r="30" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="CC29" s="56"/>
+    </row>
+    <row r="30" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B30" s="27"/>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
       <c r="E30" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F30" s="28"/>
       <c r="G30" s="28"/>
@@ -25892,7 +25813,7 @@
       <c r="I30" s="28"/>
       <c r="J30" s="29"/>
       <c r="K30" s="52" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L30" s="53"/>
       <c r="M30" s="28"/>
@@ -25906,7 +25827,7 @@
       <c r="U30" s="28"/>
       <c r="V30" s="29"/>
       <c r="W30" s="30" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="X30" s="28"/>
       <c r="Y30" s="28"/>
@@ -25938,16 +25859,19 @@
       <c r="AY30" s="28"/>
       <c r="AZ30" s="29"/>
       <c r="BA30" s="56" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="BB30" s="56"/>
-    </row>
-    <row r="31" spans="2:67" x14ac:dyDescent="0.3">
+      <c r="CC30" s="56" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="31" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B31" s="27"/>
       <c r="C31" s="28"/>
       <c r="D31" s="28"/>
       <c r="E31" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
@@ -25955,7 +25879,7 @@
       <c r="I31" s="28"/>
       <c r="J31" s="29"/>
       <c r="K31" s="52" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L31" s="53"/>
       <c r="M31" s="28"/>
@@ -25969,7 +25893,7 @@
       <c r="U31" s="28"/>
       <c r="V31" s="29"/>
       <c r="W31" s="27" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="X31" s="28"/>
       <c r="Y31" s="28"/>
@@ -26003,12 +25927,12 @@
       <c r="BA31" s="56"/>
       <c r="BB31" s="56"/>
     </row>
-    <row r="32" spans="2:67" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:81" x14ac:dyDescent="0.3">
       <c r="B32" s="27"/>
       <c r="C32" s="28"/>
       <c r="D32" s="28"/>
       <c r="E32" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F32" s="28"/>
       <c r="G32" s="28"/>
@@ -26016,7 +25940,7 @@
       <c r="I32" s="28"/>
       <c r="J32" s="29"/>
       <c r="K32" s="52" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="L32" s="53"/>
       <c r="M32" s="28"/>
@@ -26030,7 +25954,7 @@
       <c r="U32" s="28"/>
       <c r="V32" s="29"/>
       <c r="W32" s="30" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="X32" s="28"/>
       <c r="Y32" s="28"/>
@@ -26062,9 +25986,12 @@
       <c r="AY32" s="28"/>
       <c r="AZ32" s="29"/>
       <c r="BA32" s="56" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="BB32" s="56"/>
+      <c r="CC32" s="58" t="s">
+        <v>536</v>
+      </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="27"/>
@@ -26077,7 +26004,7 @@
       <c r="I33" s="28"/>
       <c r="J33" s="29"/>
       <c r="K33" s="52" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L33" s="53"/>
       <c r="M33" s="28"/>
@@ -26091,7 +26018,7 @@
       <c r="U33" s="28"/>
       <c r="V33" s="29"/>
       <c r="W33" s="27" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="X33" s="28"/>
       <c r="Y33" s="28"/>
@@ -26127,12 +26054,12 @@
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="28"/>
       <c r="E34" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
@@ -26140,7 +26067,7 @@
       <c r="I34" s="28"/>
       <c r="J34" s="29"/>
       <c r="K34" s="52" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L34" s="53"/>
       <c r="M34" s="28"/>
@@ -26184,7 +26111,7 @@
       <c r="AY34" s="28"/>
       <c r="AZ34" s="29"/>
       <c r="BA34" s="56" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="BB34" s="56"/>
     </row>
@@ -26245,7 +26172,7 @@
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -26298,7 +26225,7 @@
       <c r="AY36" s="28"/>
       <c r="AZ36" s="29"/>
       <c r="BA36" s="57" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -26354,7 +26281,7 @@
       <c r="AY37" s="28"/>
       <c r="AZ37" s="29"/>
       <c r="BA37" s="56" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -26362,7 +26289,7 @@
       <c r="C38" s="28"/>
       <c r="D38" s="28"/>
       <c r="E38" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F38" s="28"/>
       <c r="G38" s="28"/>
@@ -26412,7 +26339,7 @@
       <c r="AY38" s="28"/>
       <c r="AZ38" s="29"/>
       <c r="BA38" s="56" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -26468,7 +26395,7 @@
       <c r="AY39" s="28"/>
       <c r="AZ39" s="29"/>
       <c r="BA39" s="56" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -26476,7 +26403,7 @@
       <c r="C40" s="28"/>
       <c r="D40" s="28"/>
       <c r="E40" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40" s="28"/>
       <c r="G40" s="28"/>
@@ -26526,7 +26453,7 @@
       <c r="AY40" s="28"/>
       <c r="AZ40" s="29"/>
       <c r="BA40" s="56" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -26582,7 +26509,7 @@
       <c r="AY41" s="28"/>
       <c r="AZ41" s="29"/>
       <c r="BA41" s="56" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -26590,7 +26517,7 @@
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
       <c r="E42" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" s="28"/>
       <c r="G42" s="28"/>
@@ -26698,7 +26625,7 @@
       <c r="C44" s="28"/>
       <c r="D44" s="28"/>
       <c r="E44" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F44" s="28"/>
       <c r="G44" s="28"/>
@@ -26806,7 +26733,7 @@
       <c r="C46" s="28"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
@@ -26861,7 +26788,7 @@
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F47" s="28"/>
       <c r="G47" s="28"/>
@@ -26969,7 +26896,7 @@
       <c r="C49" s="28"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F49" s="28"/>
       <c r="G49" s="28"/>
@@ -27077,7 +27004,7 @@
       <c r="C51" s="28"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
@@ -27185,7 +27112,7 @@
       <c r="C53" s="28"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F53" s="28"/>
       <c r="G53" s="28"/>
@@ -27293,7 +27220,7 @@
       <c r="C55" s="28"/>
       <c r="D55" s="28"/>
       <c r="E55" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F55" s="28"/>
       <c r="G55" s="28"/>
@@ -27401,7 +27328,7 @@
       <c r="C57" s="28"/>
       <c r="D57" s="28"/>
       <c r="E57" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="28"/>
       <c r="G57" s="28"/>
@@ -27509,7 +27436,7 @@
       <c r="C59" s="28"/>
       <c r="D59" s="28"/>
       <c r="E59" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F59" s="28"/>
       <c r="G59" s="28"/>
@@ -27617,7 +27544,7 @@
       <c r="C61" s="28"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F61" s="28"/>
       <c r="G61" s="28"/>
@@ -27725,7 +27652,7 @@
       <c r="C63" s="28"/>
       <c r="D63" s="28"/>
       <c r="E63" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F63" s="28"/>
       <c r="G63" s="28"/>
@@ -27833,7 +27760,7 @@
       <c r="C65" s="28"/>
       <c r="D65" s="28"/>
       <c r="E65" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F65" s="28"/>
       <c r="G65" s="28"/>
@@ -27888,7 +27815,7 @@
       <c r="C66" s="28"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F66" s="28"/>
       <c r="G66" s="28"/>
@@ -27943,7 +27870,7 @@
       <c r="C67" s="28"/>
       <c r="D67" s="28"/>
       <c r="E67" s="28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F67" s="28"/>
       <c r="G67" s="28"/>
@@ -27998,7 +27925,7 @@
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -28050,19 +27977,21 @@
     </row>
     <row r="79" spans="2:52" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="B1:J2"/>
+    <mergeCell ref="K1:V2"/>
+    <mergeCell ref="W1:AF2"/>
+    <mergeCell ref="AG1:AP2"/>
+    <mergeCell ref="BZ1:CB3"/>
+    <mergeCell ref="CC1:CH3"/>
     <mergeCell ref="BA1:BN3"/>
     <mergeCell ref="BO1:BY3"/>
     <mergeCell ref="AR6:AZ7"/>
     <mergeCell ref="AQ1:AZ3"/>
-    <mergeCell ref="B1:J2"/>
-    <mergeCell ref="K1:V2"/>
-    <mergeCell ref="W1:AF2"/>
-    <mergeCell ref="AG1:AP2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
+++ b/기획서/일정 관련/리볼트데이 Gantt 프로젝트 플래너1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="프로젝트 플래너" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="544">
   <si>
     <t>프로젝트 플래너</t>
   </si>
@@ -297,10 +297,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>목표</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유의사항</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1552,10 +1548,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이정현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>박용일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2067,6 +2059,28 @@
   <si>
     <t>내일 오후까지 추리 기능이 완성되어야 함</t>
     <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이재빈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>///////////새벽</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리 구조 제작 완료</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리 레벨 디자인 실적용 - 레벨 디자이너에게 전달</t>
+  </si>
+  <si>
+    <t>아이템 티어는 초-보-주</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2577,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2741,6 +2755,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2810,44 +2836,32 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2903,23 +2917,32 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -3445,9 +3468,9 @@
   </sheetPr>
   <dimension ref="B1:BY163"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O154" sqref="O154"/>
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H159" sqref="H159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3461,8 +3484,8 @@
     <col min="7" max="7" width="12.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="15.625" style="1" customWidth="1"/>
     <col min="17" max="17" width="15.25" style="3" customWidth="1"/>
     <col min="18" max="18" width="3.875" style="1" customWidth="1"/>
@@ -3554,22 +3577,22 @@
       <c r="BY1" s="8"/>
     </row>
     <row r="2" spans="2:77" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="9" t="s">
         <v>31</v>
@@ -3579,48 +3602,48 @@
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="11"/>
-      <c r="U2" s="70" t="s">
+      <c r="U2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="72"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="76"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="70" t="s">
+      <c r="AA2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="72"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="76"/>
       <c r="AE2" s="13"/>
-      <c r="AF2" s="62" t="s">
+      <c r="AF2" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="74"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="78"/>
       <c r="AJ2" s="14"/>
-      <c r="AK2" s="75" t="s">
+      <c r="AK2" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76"/>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="77"/>
+      <c r="AL2" s="80"/>
+      <c r="AM2" s="80"/>
+      <c r="AN2" s="80"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="81"/>
       <c r="AR2" s="15"/>
-      <c r="AS2" s="62" t="s">
+      <c r="AS2" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AT2" s="63"/>
-      <c r="AU2" s="63"/>
-      <c r="AV2" s="63"/>
-      <c r="AW2" s="63"/>
-      <c r="AX2" s="63"/>
-      <c r="AY2" s="63"/>
-      <c r="AZ2" s="63"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="67"/>
+      <c r="AW2" s="67"/>
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="67"/>
+      <c r="AZ2" s="67"/>
       <c r="BA2" s="8"/>
       <c r="BB2" s="8"/>
       <c r="BC2" s="8"/>
@@ -3648,8 +3671,8 @@
       <c r="BY2" s="8"/>
     </row>
     <row r="3" spans="2:77" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="65" t="s">
-        <v>42</v>
+      <c r="B3" s="69" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>38</v>
@@ -3658,54 +3681,54 @@
         <v>39</v>
       </c>
       <c r="E3" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>47</v>
-      </c>
       <c r="H3" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="J3" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="20" t="s">
-        <v>41</v>
-      </c>
       <c r="K3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="67" t="s">
+      <c r="M3" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="67" t="s">
+      <c r="N3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="71" t="s">
         <v>30</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q3" s="69" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q3" s="73" t="s">
         <v>32</v>
       </c>
       <c r="R3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="81"/>
-      <c r="W3" s="81"/>
+      <c r="S3" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" s="85"/>
+      <c r="U3" s="85"/>
+      <c r="V3" s="85"/>
+      <c r="W3" s="85"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
@@ -3762,24 +3785,24 @@
       <c r="BY3" s="18"/>
     </row>
     <row r="4" spans="2:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
-      <c r="E4" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80"/>
+      <c r="E4" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="83"/>
+      <c r="G4" s="84"/>
       <c r="H4" s="35"/>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
       <c r="P4" s="36"/>
-      <c r="Q4" s="68"/>
+      <c r="Q4" s="72"/>
       <c r="R4" s="19">
         <v>1</v>
       </c>
@@ -3877,10 +3900,10 @@
     </row>
     <row r="5" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -3959,17 +3982,17 @@
     </row>
     <row r="6" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E6" s="38"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38"/>
       <c r="H6" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I6" s="38"/>
       <c r="J6" s="37"/>
@@ -4059,13 +4082,13 @@
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E7" s="38"/>
       <c r="F7" s="37"/>
       <c r="G7" s="38"/>
       <c r="H7" s="37" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
@@ -4155,13 +4178,13 @@
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
@@ -4251,13 +4274,13 @@
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
@@ -4346,16 +4369,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
@@ -4444,7 +4467,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -4527,13 +4550,13 @@
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="37"/>
       <c r="G12" s="38"/>
       <c r="H12" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
@@ -4623,13 +4646,13 @@
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="41"/>
       <c r="F13" s="37"/>
       <c r="G13" s="38"/>
       <c r="H13" s="37" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
@@ -4719,13 +4742,13 @@
       </c>
       <c r="C14" s="37"/>
       <c r="D14" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
@@ -4815,13 +4838,13 @@
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
@@ -4911,13 +4934,13 @@
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E16" s="38"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I16" s="38"/>
       <c r="J16" s="37"/>
@@ -5007,13 +5030,13 @@
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
@@ -5103,13 +5126,13 @@
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
@@ -5199,13 +5222,13 @@
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="38" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
       <c r="H19" s="37" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
@@ -5294,7 +5317,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
@@ -5377,13 +5400,13 @@
       </c>
       <c r="C21" s="37"/>
       <c r="D21" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
@@ -5473,13 +5496,13 @@
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
       <c r="H22" s="37" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
@@ -5569,13 +5592,13 @@
       </c>
       <c r="C23" s="37"/>
       <c r="D23" s="37" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
@@ -5665,13 +5688,13 @@
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
@@ -5761,13 +5784,13 @@
       </c>
       <c r="C25" s="37"/>
       <c r="D25" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
@@ -5857,13 +5880,13 @@
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="43"/>
       <c r="F26" s="38"/>
       <c r="G26" s="38"/>
       <c r="H26" s="37" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
@@ -5953,13 +5976,13 @@
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I27" s="37"/>
       <c r="J27" s="37"/>
@@ -6049,13 +6072,13 @@
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
@@ -6225,13 +6248,13 @@
       </c>
       <c r="C30" s="37"/>
       <c r="D30" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I30" s="37"/>
       <c r="J30" s="37"/>
@@ -6397,10 +6420,10 @@
     </row>
     <row r="32" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
@@ -6481,15 +6504,15 @@
       <c r="B33" s="37"/>
       <c r="C33" s="37"/>
       <c r="D33" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>395</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>396</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
@@ -6507,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="P33" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="40">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
@@ -6575,19 +6598,19 @@
     </row>
     <row r="34" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
@@ -6605,10 +6628,10 @@
         <v>0</v>
       </c>
       <c r="P34" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="40">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
@@ -6673,17 +6696,17 @@
     </row>
     <row r="35" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
@@ -6704,7 +6727,7 @@
         <v>1</v>
       </c>
       <c r="Q35" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -6769,17 +6792,17 @@
     </row>
     <row r="36" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
       <c r="E36" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
       <c r="H36" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
@@ -6800,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="Q36" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -6865,17 +6888,17 @@
     </row>
     <row r="37" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
       <c r="E37" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
       <c r="H37" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
@@ -6896,7 +6919,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
@@ -6961,17 +6984,17 @@
     </row>
     <row r="38" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
@@ -6992,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -7057,17 +7080,17 @@
     </row>
     <row r="39" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
       <c r="H39" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
@@ -7076,7 +7099,7 @@
         <v>10</v>
       </c>
       <c r="M39" s="39">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N39" s="39">
         <v>12</v>
@@ -7088,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="Q39" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
@@ -7153,17 +7176,17 @@
     </row>
     <row r="40" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
       <c r="E40" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
       <c r="H40" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
@@ -7172,13 +7195,13 @@
         <v>10</v>
       </c>
       <c r="M40" s="39">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N40" s="39">
         <v>12</v>
       </c>
       <c r="O40" s="39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P40" s="40">
         <v>1</v>
@@ -7249,17 +7272,17 @@
     </row>
     <row r="41" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
       <c r="E41" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
       <c r="H41" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
@@ -7345,17 +7368,17 @@
     </row>
     <row r="42" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
       <c r="E42" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
       <c r="H42" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
@@ -7441,17 +7464,17 @@
     </row>
     <row r="43" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
       <c r="H43" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
@@ -7537,17 +7560,17 @@
     </row>
     <row r="44" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
       <c r="H44" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
@@ -7633,17 +7656,17 @@
     </row>
     <row r="45" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
       <c r="H45" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
@@ -7729,17 +7752,17 @@
     </row>
     <row r="46" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
       <c r="H46" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I46" s="37"/>
       <c r="J46" s="37"/>
@@ -7825,17 +7848,17 @@
     </row>
     <row r="47" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37"/>
       <c r="E47" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
       <c r="H47" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I47" s="37"/>
       <c r="J47" s="37"/>
@@ -7856,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="Q47" s="40">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
@@ -7921,17 +7944,17 @@
     </row>
     <row r="48" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
       <c r="E48" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
       <c r="H48" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I48" s="37"/>
       <c r="J48" s="37"/>
@@ -8017,17 +8040,17 @@
     </row>
     <row r="49" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
       <c r="H49" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
@@ -8113,17 +8136,17 @@
     </row>
     <row r="50" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
       <c r="H50" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I50" s="37"/>
       <c r="J50" s="37"/>
@@ -8209,23 +8232,23 @@
     </row>
     <row r="51" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
       <c r="H51" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
       <c r="L51" s="39">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M51" s="39">
         <v>0</v>
@@ -8305,23 +8328,23 @@
     </row>
     <row r="52" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
       <c r="H52" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I52" s="37"/>
       <c r="J52" s="37"/>
       <c r="K52" s="37"/>
       <c r="L52" s="39">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M52" s="39">
         <v>0</v>
@@ -8333,10 +8356,10 @@
         <v>0</v>
       </c>
       <c r="P52" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="40">
         <v>0.8</v>
-      </c>
-      <c r="Q52" s="40">
-        <v>0</v>
       </c>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
@@ -8401,17 +8424,17 @@
     </row>
     <row r="53" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
       <c r="H53" s="37" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="I53" s="37"/>
       <c r="J53" s="37"/>
@@ -8429,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="P53" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q53" s="40">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
@@ -8497,17 +8520,17 @@
     </row>
     <row r="54" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
       <c r="H54" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
@@ -8528,7 +8551,7 @@
         <v>0.8</v>
       </c>
       <c r="Q54" s="40">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
@@ -8593,17 +8616,17 @@
     </row>
     <row r="55" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
       <c r="E55" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
       <c r="H55" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I55" s="37"/>
       <c r="J55" s="37"/>
@@ -8624,7 +8647,7 @@
         <v>0.8</v>
       </c>
       <c r="Q55" s="40">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
@@ -8689,21 +8712,21 @@
     </row>
     <row r="56" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" s="37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
       <c r="H56" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I56" s="37"/>
       <c r="J56" s="37"/>
@@ -8789,17 +8812,17 @@
     </row>
     <row r="57" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
       <c r="H57" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
@@ -8820,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -8885,17 +8908,17 @@
     </row>
     <row r="58" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
       <c r="H58" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I58" s="37"/>
       <c r="J58" s="37"/>
@@ -8981,17 +9004,17 @@
     </row>
     <row r="59" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
       <c r="H59" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I59" s="37"/>
       <c r="J59" s="37"/>
@@ -9077,17 +9100,17 @@
     </row>
     <row r="60" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
       <c r="H60" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I60" s="37"/>
       <c r="J60" s="37"/>
@@ -9173,17 +9196,17 @@
     </row>
     <row r="61" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
       <c r="E61" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
       <c r="H61" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I61" s="37"/>
       <c r="J61" s="37"/>
@@ -9269,17 +9292,17 @@
     </row>
     <row r="62" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
       <c r="H62" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I62" s="37"/>
       <c r="J62" s="37"/>
@@ -9365,17 +9388,17 @@
     </row>
     <row r="63" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="37"/>
       <c r="E63" s="37" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
       <c r="H63" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
@@ -9461,17 +9484,17 @@
     </row>
     <row r="64" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="37" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
       <c r="E64" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
       <c r="H64" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I64" s="37"/>
       <c r="J64" s="37"/>
@@ -9557,17 +9580,17 @@
     </row>
     <row r="65" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
       <c r="H65" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I65" s="37"/>
       <c r="J65" s="37"/>
@@ -9653,17 +9676,17 @@
     </row>
     <row r="66" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
       <c r="H66" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I66" s="37"/>
       <c r="J66" s="37"/>
@@ -9749,17 +9772,17 @@
     </row>
     <row r="67" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
       <c r="E67" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
       <c r="H67" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I67" s="37"/>
       <c r="J67" s="37"/>
@@ -9845,19 +9868,19 @@
     </row>
     <row r="68" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
       <c r="H68" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I68" s="37"/>
       <c r="J68" s="37"/>
@@ -9878,7 +9901,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="40">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
@@ -9943,17 +9966,17 @@
     </row>
     <row r="69" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
       <c r="H69" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I69" s="37"/>
       <c r="J69" s="37"/>
@@ -9974,7 +9997,7 @@
         <v>1</v>
       </c>
       <c r="Q69" s="40">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
@@ -10039,17 +10062,17 @@
     </row>
     <row r="70" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
       <c r="E70" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
       <c r="H70" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I70" s="37"/>
       <c r="J70" s="37"/>
@@ -10070,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="Q70" s="40">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
@@ -10135,17 +10158,17 @@
     </row>
     <row r="71" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
       <c r="E71" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
       <c r="H71" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I71" s="37"/>
       <c r="J71" s="37"/>
@@ -10163,10 +10186,10 @@
         <v>0</v>
       </c>
       <c r="P71" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="40">
         <v>0.7</v>
-      </c>
-      <c r="Q71" s="40">
-        <v>0.5</v>
       </c>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
@@ -10231,17 +10254,17 @@
     </row>
     <row r="72" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
       <c r="E72" s="37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
       <c r="H72" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I72" s="37"/>
       <c r="J72" s="37"/>
@@ -10327,17 +10350,17 @@
     </row>
     <row r="73" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
       <c r="E73" s="37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
       <c r="H73" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I73" s="37"/>
       <c r="J73" s="37"/>
@@ -10423,17 +10446,17 @@
     </row>
     <row r="74" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
       <c r="H74" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I74" s="37"/>
       <c r="J74" s="37"/>
@@ -10519,17 +10542,17 @@
     </row>
     <row r="75" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
       <c r="E75" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
       <c r="H75" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I75" s="37"/>
       <c r="J75" s="37"/>
@@ -10615,17 +10638,17 @@
     </row>
     <row r="76" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
       <c r="E76" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
       <c r="H76" s="37" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I76" s="37"/>
       <c r="J76" s="37"/>
@@ -10646,7 +10669,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="40">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
@@ -10711,7 +10734,7 @@
     </row>
     <row r="77" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
@@ -10791,14 +10814,14 @@
     </row>
     <row r="78" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -10887,12 +10910,12 @@
     </row>
     <row r="79" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C79" s="37"/>
       <c r="D79" s="38"/>
       <c r="E79" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -10981,11 +11004,11 @@
     </row>
     <row r="80" spans="2:77" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E80" s="37"/>
       <c r="F80" s="37"/>
@@ -10994,24 +11017,12 @@
       <c r="I80" s="37"/>
       <c r="J80" s="37"/>
       <c r="K80" s="37"/>
-      <c r="L80" s="39">
-        <v>0</v>
-      </c>
-      <c r="M80" s="39">
-        <v>0</v>
-      </c>
-      <c r="N80" s="39">
-        <v>0</v>
-      </c>
-      <c r="O80" s="39">
-        <v>0</v>
-      </c>
-      <c r="P80" s="40">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="40">
-        <v>0</v>
-      </c>
+      <c r="L80" s="39"/>
+      <c r="M80" s="39"/>
+      <c r="N80" s="39"/>
+      <c r="O80" s="39"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="40"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
@@ -11075,12 +11086,12 @@
     </row>
     <row r="81" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="38"/>
       <c r="E81" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -11089,7 +11100,7 @@
       <c r="J81" s="37"/>
       <c r="K81" s="37"/>
       <c r="L81" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M81" s="39">
         <v>0</v>
@@ -11101,10 +11112,10 @@
         <v>0</v>
       </c>
       <c r="P81" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q81" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
@@ -11168,12 +11179,12 @@
     </row>
     <row r="82" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="38"/>
       <c r="E82" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -11182,7 +11193,7 @@
       <c r="J82" s="37"/>
       <c r="K82" s="37"/>
       <c r="L82" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M82" s="39">
         <v>0</v>
@@ -11194,10 +11205,10 @@
         <v>0</v>
       </c>
       <c r="P82" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q82" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
@@ -11261,12 +11272,12 @@
     </row>
     <row r="83" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B83" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="38"/>
       <c r="E83" s="37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -11275,7 +11286,7 @@
       <c r="J83" s="37"/>
       <c r="K83" s="37"/>
       <c r="L83" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M83" s="39">
         <v>0</v>
@@ -11287,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="P83" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="40">
         <v>0</v>
@@ -11354,12 +11365,12 @@
     </row>
     <row r="84" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="38"/>
       <c r="E84" s="37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -11368,7 +11379,7 @@
       <c r="J84" s="37"/>
       <c r="K84" s="37"/>
       <c r="L84" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M84" s="39">
         <v>0</v>
@@ -11380,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P84" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q84" s="40">
         <v>0</v>
@@ -11447,12 +11458,12 @@
     </row>
     <row r="85" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="38"/>
       <c r="E85" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -11461,7 +11472,7 @@
       <c r="J85" s="37"/>
       <c r="K85" s="37"/>
       <c r="L85" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M85" s="39">
         <v>0</v>
@@ -11473,10 +11484,10 @@
         <v>0</v>
       </c>
       <c r="P85" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="40">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
@@ -11540,12 +11551,12 @@
     </row>
     <row r="86" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C86" s="37"/>
       <c r="D86" s="38"/>
       <c r="E86" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -11554,7 +11565,7 @@
       <c r="J86" s="37"/>
       <c r="K86" s="37"/>
       <c r="L86" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M86" s="39">
         <v>0</v>
@@ -11566,10 +11577,10 @@
         <v>0</v>
       </c>
       <c r="P86" s="40">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="40">
         <v>0.5</v>
-      </c>
-      <c r="Q86" s="40">
-        <v>0</v>
       </c>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
@@ -11633,12 +11644,12 @@
     </row>
     <row r="87" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="38"/>
       <c r="E87" s="37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -11647,7 +11658,7 @@
       <c r="J87" s="37"/>
       <c r="K87" s="37"/>
       <c r="L87" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M87" s="39">
         <v>0</v>
@@ -11659,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="P87" s="40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q87" s="40">
         <v>0</v>
@@ -11726,12 +11737,12 @@
     </row>
     <row r="88" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B88" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -11740,7 +11751,7 @@
       <c r="J88" s="37"/>
       <c r="K88" s="37"/>
       <c r="L88" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M88" s="39">
         <v>0</v>
@@ -11819,14 +11830,14 @@
     </row>
     <row r="89" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B89" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -11914,12 +11925,12 @@
     </row>
     <row r="90" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B90" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -12007,12 +12018,12 @@
     </row>
     <row r="91" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B91" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
       <c r="E91" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -12100,12 +12111,12 @@
     </row>
     <row r="92" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B92" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="38"/>
       <c r="E92" s="37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -12193,12 +12204,12 @@
     </row>
     <row r="93" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B93" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C93" s="37"/>
       <c r="D93" s="38"/>
       <c r="E93" s="37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -12286,12 +12297,12 @@
     </row>
     <row r="94" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B94" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="38"/>
       <c r="E94" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -12379,12 +12390,12 @@
     </row>
     <row r="95" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B95" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="38"/>
       <c r="E95" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -12472,12 +12483,12 @@
     </row>
     <row r="96" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B96" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="38"/>
       <c r="E96" s="37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -12565,12 +12576,12 @@
     </row>
     <row r="97" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B97" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="38"/>
       <c r="E97" s="37" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -12658,12 +12669,12 @@
     </row>
     <row r="98" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B98" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="38"/>
       <c r="E98" s="37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -12751,14 +12762,14 @@
     </row>
     <row r="99" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B99" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -12846,12 +12857,12 @@
     </row>
     <row r="100" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B100" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
       <c r="E100" s="37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -12939,12 +12950,12 @@
     </row>
     <row r="101" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B101" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
       <c r="E101" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -13032,12 +13043,12 @@
     </row>
     <row r="102" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B102" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
       <c r="E102" s="37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -13125,12 +13136,12 @@
     </row>
     <row r="103" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B103" s="37" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
       <c r="E103" s="37" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -13218,12 +13229,12 @@
     </row>
     <row r="104" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B104" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
       <c r="E104" s="37" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -13232,7 +13243,7 @@
       <c r="J104" s="37"/>
       <c r="K104" s="37"/>
       <c r="L104" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M104" s="39">
         <v>0</v>
@@ -13244,10 +13255,10 @@
         <v>0</v>
       </c>
       <c r="P104" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104" s="40">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
@@ -13311,12 +13322,12 @@
     </row>
     <row r="105" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B105" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
       <c r="E105" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -13404,12 +13415,12 @@
     </row>
     <row r="106" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B106" s="37" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
       <c r="E106" s="37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -13497,7 +13508,7 @@
     </row>
     <row r="107" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B107" s="37" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
@@ -13576,14 +13587,14 @@
     </row>
     <row r="108" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B108" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C108" s="37"/>
       <c r="D108" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -13607,7 +13618,7 @@
         <v>1</v>
       </c>
       <c r="Q108" s="40">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
@@ -13671,12 +13682,12 @@
     </row>
     <row r="109" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B109" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
       <c r="E109" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -13764,12 +13775,12 @@
     </row>
     <row r="110" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B110" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
       <c r="E110" s="37" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -13857,12 +13868,12 @@
     </row>
     <row r="111" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B111" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
       <c r="E111" s="37" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -13950,12 +13961,12 @@
     </row>
     <row r="112" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B112" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -14043,12 +14054,12 @@
     </row>
     <row r="113" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B113" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
       <c r="E113" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -14136,12 +14147,12 @@
     </row>
     <row r="114" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B114" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
       <c r="E114" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -14229,12 +14240,12 @@
     </row>
     <row r="115" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B115" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
       <c r="E115" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -14322,14 +14333,14 @@
     </row>
     <row r="116" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B116" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C116" s="37"/>
       <c r="D116" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E116" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -14417,12 +14428,12 @@
     </row>
     <row r="117" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B117" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C117" s="37"/>
       <c r="D117" s="37"/>
       <c r="E117" s="37" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -14510,12 +14521,12 @@
     </row>
     <row r="118" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
       <c r="E118" s="37" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -14536,7 +14547,7 @@
         <v>0</v>
       </c>
       <c r="P118" s="40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q118" s="40">
         <v>0.5</v>
@@ -14603,12 +14614,12 @@
     </row>
     <row r="119" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
       <c r="E119" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -14629,7 +14640,7 @@
         <v>0</v>
       </c>
       <c r="P119" s="40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q119" s="40">
         <v>0.5</v>
@@ -14696,11 +14707,11 @@
     </row>
     <row r="120" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C120" s="37"/>
       <c r="D120" s="37" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E120" s="37"/>
       <c r="F120" s="37"/>
@@ -14777,11 +14788,11 @@
     </row>
     <row r="121" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C121" s="37"/>
       <c r="E121" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -14805,7 +14816,7 @@
         <v>0.5</v>
       </c>
       <c r="Q121" s="40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
@@ -14869,14 +14880,14 @@
     </row>
     <row r="122" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="37" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C122" s="37"/>
       <c r="D122" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -14964,12 +14975,12 @@
     </row>
     <row r="123" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="37" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
       <c r="E123" s="37" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -15057,12 +15068,12 @@
     </row>
     <row r="124" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B124" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
       <c r="E124" s="37" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -15150,19 +15161,19 @@
     </row>
     <row r="125" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B125" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C125" s="37"/>
       <c r="D125" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E125" s="37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
       <c r="H125" s="37" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I125" s="37"/>
       <c r="J125" s="37"/>
@@ -15247,17 +15258,17 @@
     </row>
     <row r="126" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
       <c r="E126" s="37" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
       <c r="H126" s="37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I126" s="37"/>
       <c r="J126" s="37"/>
@@ -15342,17 +15353,17 @@
     </row>
     <row r="127" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="37" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
       <c r="E127" s="37" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
       <c r="H127" s="37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I127" s="37"/>
       <c r="J127" s="37"/>
@@ -15370,7 +15381,7 @@
         <v>2</v>
       </c>
       <c r="P127" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q127" s="40">
         <v>1</v>
@@ -15437,17 +15448,17 @@
     </row>
     <row r="128" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
       <c r="E128" s="37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
       <c r="H128" s="37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="I128" s="37"/>
       <c r="J128" s="37"/>
@@ -15532,17 +15543,17 @@
     </row>
     <row r="129" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
       <c r="E129" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
       <c r="H129" s="37" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="I129" s="37"/>
       <c r="J129" s="37"/>
@@ -15627,17 +15638,17 @@
     </row>
     <row r="130" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
       <c r="E130" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
       <c r="H130" s="37" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="I130" s="37"/>
       <c r="J130" s="37"/>
@@ -15722,17 +15733,17 @@
     </row>
     <row r="131" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="37" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
       <c r="E131" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
       <c r="H131" s="37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I131" s="37"/>
       <c r="J131" s="37"/>
@@ -15753,7 +15764,7 @@
         <v>1</v>
       </c>
       <c r="Q131" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R131" s="7"/>
       <c r="S131" s="7"/>
@@ -15817,19 +15828,19 @@
     </row>
     <row r="132" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="37" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C132" s="37"/>
       <c r="D132" s="37" t="s">
+        <v>336</v>
+      </c>
+      <c r="E132" s="37" t="s">
         <v>337</v>
-      </c>
-      <c r="E132" s="37" t="s">
-        <v>338</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
       <c r="H132" s="37" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I132" s="37"/>
       <c r="J132" s="37"/>
@@ -15914,7 +15925,7 @@
     </row>
     <row r="133" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
@@ -15993,10 +16004,10 @@
     </row>
     <row r="134" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D134" s="37"/>
       <c r="E134" s="37"/>
@@ -16074,19 +16085,19 @@
     </row>
     <row r="135" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C135" s="37"/>
       <c r="D135" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E135" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
       <c r="H135" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I135" s="37"/>
       <c r="J135" s="37"/>
@@ -16104,7 +16115,7 @@
         <v>12</v>
       </c>
       <c r="P135" s="40">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Q135" s="40">
         <v>1</v>
@@ -16171,19 +16182,19 @@
     </row>
     <row r="136" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C136" s="37"/>
       <c r="D136" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E136" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
       <c r="H136" s="37" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="I136" s="37"/>
       <c r="J136" s="37"/>
@@ -16201,10 +16212,10 @@
         <v>0</v>
       </c>
       <c r="P136" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q136" s="40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
@@ -16268,19 +16279,19 @@
     </row>
     <row r="137" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="37" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C137" s="37"/>
       <c r="D137" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E137" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
       <c r="H137" s="37" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I137" s="37"/>
       <c r="J137" s="37"/>
@@ -16298,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="P137" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q137" s="40">
         <v>0.8</v>
@@ -16365,19 +16376,19 @@
     </row>
     <row r="138" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C138" s="37"/>
       <c r="D138" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E138" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
       <c r="H138" s="37" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I138" s="37"/>
       <c r="J138" s="37"/>
@@ -16398,7 +16409,7 @@
         <v>1</v>
       </c>
       <c r="Q138" s="40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
@@ -16462,25 +16473,25 @@
     </row>
     <row r="139" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C139" s="37"/>
       <c r="D139" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E139" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
       <c r="H139" s="37" t="s">
-        <v>400</v>
+        <v>539</v>
       </c>
       <c r="I139" s="37"/>
       <c r="J139" s="37"/>
       <c r="K139" s="37"/>
       <c r="L139" s="39">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="M139" s="39">
         <v>0</v>
@@ -16495,7 +16506,7 @@
         <v>0.5</v>
       </c>
       <c r="Q139" s="40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
@@ -16559,12 +16570,12 @@
     </row>
     <row r="140" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C140" s="37"/>
       <c r="D140" s="1"/>
       <c r="E140" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -16640,19 +16651,19 @@
     </row>
     <row r="141" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B141" s="37" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C141" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D141" s="37" t="s">
         <v>188</v>
-      </c>
-      <c r="D141" s="37" t="s">
-        <v>189</v>
       </c>
       <c r="E141" s="37"/>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
       <c r="H141" s="37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I141" s="37"/>
       <c r="J141" s="37"/>
@@ -16737,17 +16748,17 @@
     </row>
     <row r="142" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B142" s="37" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C142" s="37"/>
       <c r="D142" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E142" s="37"/>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
       <c r="H142" s="37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I142" s="37"/>
       <c r="J142" s="37"/>
@@ -16761,10 +16772,10 @@
       </c>
       <c r="O142" s="39"/>
       <c r="P142" s="40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Q142" s="40">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
@@ -16828,7 +16839,7 @@
     </row>
     <row r="143" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B143" s="37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
@@ -16907,19 +16918,19 @@
     </row>
     <row r="144" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B144" s="37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D144" s="37" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E144" s="37"/>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
       <c r="H144" s="37" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="I144" s="37"/>
       <c r="J144" s="37"/>
@@ -16994,7 +17005,7 @@
     </row>
     <row r="145" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B145" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
@@ -17073,7 +17084,7 @@
     </row>
     <row r="146" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B146" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
@@ -17152,7 +17163,7 @@
     </row>
     <row r="147" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B147" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
@@ -17231,7 +17242,7 @@
     </row>
     <row r="148" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B148" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
@@ -17310,7 +17321,7 @@
     </row>
     <row r="149" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B149" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
@@ -17389,7 +17400,7 @@
     </row>
     <row r="150" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B150" s="37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
@@ -17468,7 +17479,7 @@
     </row>
     <row r="151" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B151" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
@@ -17548,30 +17559,30 @@
     <row r="152" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P152" s="44">
         <f>AVERAGE(P6:P151)</f>
-        <v>0.71349206349206351</v>
+        <v>0.7831999999999999</v>
       </c>
       <c r="Q152" s="44">
         <f>AVERAGE(Q5:Q151)</f>
-        <v>0.56850393700787427</v>
+        <v>0.64920634920634923</v>
       </c>
     </row>
     <row r="153" spans="2:76" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B153" s="59" t="s">
-        <v>447</v>
-      </c>
-      <c r="C153" s="60"/>
-      <c r="D153" s="61"/>
+      <c r="B153" s="63" t="s">
+        <v>445</v>
+      </c>
+      <c r="C153" s="64"/>
+      <c r="D153" s="65"/>
       <c r="H153" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Q153" s="47"/>
     </row>
     <row r="154" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B154" s="49" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C154" s="49">
         <v>0</v>
@@ -17604,7 +17615,7 @@
       <c r="I155" s="38">
         <v>39.85</v>
       </c>
-      <c r="O155" s="118"/>
+      <c r="O155" s="60"/>
       <c r="P155" s="48"/>
     </row>
     <row r="156" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -17668,8 +17679,12 @@
       <c r="G159" s="38">
         <v>16</v>
       </c>
-      <c r="H159" s="38"/>
-      <c r="I159" s="38"/>
+      <c r="H159" s="38">
+        <v>62.3</v>
+      </c>
+      <c r="I159" s="38">
+        <v>64.92</v>
+      </c>
     </row>
     <row r="160" spans="2:76" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B160" s="38">
@@ -17803,7 +17818,7 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" xWindow="1203" yWindow="399" count="16">
+  <dataValidations xWindow="1203" yWindow="399" count="16">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="프로젝트 플래너는 간격에 대한 기간을 사용합니다. 시작=1은 기간 1이고 기간=5는 프로젝트가 시작 기간부터 시작해서 5개의 기간 동안 진행됨을 의미합니다. B5에서 시작하는 날짜를 입력하여 차트를 업데이트합니다." sqref="A1"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="1에서 60까지 범위의 값을 입력하고 목록에서 기간을 선택한 후 취소를 누르고 ALT+아래쪽 화살표를 누른 후 Enter 키를 눌러 값을 선택합니다." prompt="1에서 60까지 범위의 기간을 입력하거나 목록에서 기간을 선택합니다. Alt+아래쪽 화살표를 눌러 목록을 찾은 다음 Enter 키를 눌러 값을 선택합니다." sqref="R2">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
@@ -17835,10 +17850,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CM79"/>
+  <dimension ref="B1:CR79"/>
   <sheetViews>
-    <sheetView topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="CJ8" sqref="CJ8"/>
+    <sheetView tabSelected="1" topLeftCell="CC1" workbookViewId="0">
+      <selection activeCell="CQ19" sqref="CQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17849,7 +17864,7 @@
     <col min="81" max="81" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:91" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:96" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="95">
         <v>43460</v>
       </c>
@@ -17899,69 +17914,76 @@
       <c r="AN1" s="108"/>
       <c r="AO1" s="108"/>
       <c r="AP1" s="109"/>
-      <c r="AQ1" s="82">
+      <c r="AQ1" s="113">
         <v>43468</v>
       </c>
-      <c r="AR1" s="83"/>
-      <c r="AS1" s="83"/>
-      <c r="AT1" s="83"/>
-      <c r="AU1" s="83"/>
-      <c r="AV1" s="83"/>
-      <c r="AW1" s="83"/>
-      <c r="AX1" s="83"/>
-      <c r="AY1" s="83"/>
-      <c r="AZ1" s="84"/>
-      <c r="BA1" s="82">
+      <c r="AR1" s="118"/>
+      <c r="AS1" s="118"/>
+      <c r="AT1" s="118"/>
+      <c r="AU1" s="118"/>
+      <c r="AV1" s="118"/>
+      <c r="AW1" s="118"/>
+      <c r="AX1" s="118"/>
+      <c r="AY1" s="118"/>
+      <c r="AZ1" s="119"/>
+      <c r="BA1" s="113">
         <v>43469</v>
       </c>
-      <c r="BB1" s="83"/>
-      <c r="BC1" s="83"/>
-      <c r="BD1" s="83"/>
-      <c r="BE1" s="83"/>
-      <c r="BF1" s="83"/>
-      <c r="BG1" s="83"/>
-      <c r="BH1" s="83"/>
-      <c r="BI1" s="83"/>
-      <c r="BJ1" s="83"/>
-      <c r="BK1" s="83"/>
-      <c r="BL1" s="83"/>
-      <c r="BM1" s="83"/>
-      <c r="BN1" s="84"/>
-      <c r="BO1" s="82">
+      <c r="BB1" s="118"/>
+      <c r="BC1" s="118"/>
+      <c r="BD1" s="118"/>
+      <c r="BE1" s="118"/>
+      <c r="BF1" s="118"/>
+      <c r="BG1" s="118"/>
+      <c r="BH1" s="118"/>
+      <c r="BI1" s="118"/>
+      <c r="BJ1" s="118"/>
+      <c r="BK1" s="118"/>
+      <c r="BL1" s="118"/>
+      <c r="BM1" s="118"/>
+      <c r="BN1" s="119"/>
+      <c r="BO1" s="113">
         <v>43470</v>
       </c>
-      <c r="BP1" s="88"/>
-      <c r="BQ1" s="88"/>
-      <c r="BR1" s="88"/>
-      <c r="BS1" s="88"/>
-      <c r="BT1" s="88"/>
-      <c r="BU1" s="88"/>
-      <c r="BV1" s="88"/>
-      <c r="BW1" s="88"/>
-      <c r="BX1" s="88"/>
-      <c r="BY1" s="89"/>
-      <c r="BZ1" s="82">
+      <c r="BP1" s="114"/>
+      <c r="BQ1" s="114"/>
+      <c r="BR1" s="114"/>
+      <c r="BS1" s="114"/>
+      <c r="BT1" s="114"/>
+      <c r="BU1" s="114"/>
+      <c r="BV1" s="114"/>
+      <c r="BW1" s="114"/>
+      <c r="BX1" s="114"/>
+      <c r="BY1" s="115"/>
+      <c r="BZ1" s="113">
         <v>43471</v>
       </c>
-      <c r="CA1" s="88"/>
-      <c r="CB1" s="89"/>
-      <c r="CC1" s="82">
+      <c r="CA1" s="114"/>
+      <c r="CB1" s="115"/>
+      <c r="CC1" s="113">
         <v>43472</v>
       </c>
-      <c r="CD1" s="88"/>
-      <c r="CE1" s="88"/>
-      <c r="CF1" s="88"/>
-      <c r="CG1" s="88"/>
-      <c r="CH1" s="88"/>
-      <c r="CI1" s="82">
+      <c r="CD1" s="114"/>
+      <c r="CE1" s="114"/>
+      <c r="CF1" s="114"/>
+      <c r="CG1" s="114"/>
+      <c r="CH1" s="114"/>
+      <c r="CI1" s="113">
         <v>43473</v>
       </c>
-      <c r="CJ1" s="83"/>
-      <c r="CK1" s="83"/>
-      <c r="CL1" s="83"/>
-      <c r="CM1" s="84"/>
+      <c r="CJ1" s="118"/>
+      <c r="CK1" s="118"/>
+      <c r="CL1" s="118"/>
+      <c r="CM1" s="119"/>
+      <c r="CN1" s="86">
+        <v>43474</v>
+      </c>
+      <c r="CO1" s="87"/>
+      <c r="CP1" s="87"/>
+      <c r="CQ1" s="87"/>
+      <c r="CR1" s="87"/>
     </row>
-    <row r="2" spans="2:91" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:96" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="98"/>
       <c r="C2" s="99"/>
       <c r="D2" s="99"/>
@@ -18003,57 +18025,62 @@
       <c r="AN2" s="111"/>
       <c r="AO2" s="111"/>
       <c r="AP2" s="112"/>
-      <c r="AQ2" s="85"/>
-      <c r="AR2" s="86"/>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="86"/>
-      <c r="AY2" s="86"/>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="85"/>
-      <c r="BB2" s="86"/>
-      <c r="BC2" s="86"/>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="86"/>
-      <c r="BF2" s="86"/>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="86"/>
-      <c r="BK2" s="86"/>
-      <c r="BL2" s="86"/>
-      <c r="BM2" s="86"/>
-      <c r="BN2" s="87"/>
-      <c r="BO2" s="90"/>
-      <c r="BP2" s="91"/>
-      <c r="BQ2" s="91"/>
-      <c r="BR2" s="91"/>
-      <c r="BS2" s="91"/>
-      <c r="BT2" s="91"/>
-      <c r="BU2" s="91"/>
-      <c r="BV2" s="91"/>
-      <c r="BW2" s="91"/>
-      <c r="BX2" s="91"/>
-      <c r="BY2" s="92"/>
-      <c r="BZ2" s="90"/>
-      <c r="CA2" s="91"/>
-      <c r="CB2" s="92"/>
-      <c r="CC2" s="90"/>
-      <c r="CD2" s="91"/>
-      <c r="CE2" s="91"/>
-      <c r="CF2" s="91"/>
-      <c r="CG2" s="91"/>
-      <c r="CH2" s="91"/>
-      <c r="CI2" s="85"/>
-      <c r="CJ2" s="86"/>
-      <c r="CK2" s="86"/>
-      <c r="CL2" s="86"/>
-      <c r="CM2" s="87"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="120"/>
+      <c r="AS2" s="120"/>
+      <c r="AT2" s="120"/>
+      <c r="AU2" s="120"/>
+      <c r="AV2" s="120"/>
+      <c r="AW2" s="120"/>
+      <c r="AX2" s="120"/>
+      <c r="AY2" s="120"/>
+      <c r="AZ2" s="121"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="120"/>
+      <c r="BC2" s="120"/>
+      <c r="BD2" s="120"/>
+      <c r="BE2" s="120"/>
+      <c r="BF2" s="120"/>
+      <c r="BG2" s="120"/>
+      <c r="BH2" s="120"/>
+      <c r="BI2" s="120"/>
+      <c r="BJ2" s="120"/>
+      <c r="BK2" s="120"/>
+      <c r="BL2" s="120"/>
+      <c r="BM2" s="120"/>
+      <c r="BN2" s="121"/>
+      <c r="BO2" s="86"/>
+      <c r="BP2" s="116"/>
+      <c r="BQ2" s="116"/>
+      <c r="BR2" s="116"/>
+      <c r="BS2" s="116"/>
+      <c r="BT2" s="116"/>
+      <c r="BU2" s="116"/>
+      <c r="BV2" s="116"/>
+      <c r="BW2" s="116"/>
+      <c r="BX2" s="116"/>
+      <c r="BY2" s="117"/>
+      <c r="BZ2" s="86"/>
+      <c r="CA2" s="116"/>
+      <c r="CB2" s="117"/>
+      <c r="CC2" s="86"/>
+      <c r="CD2" s="116"/>
+      <c r="CE2" s="116"/>
+      <c r="CF2" s="116"/>
+      <c r="CG2" s="116"/>
+      <c r="CH2" s="116"/>
+      <c r="CI2" s="88"/>
+      <c r="CJ2" s="120"/>
+      <c r="CK2" s="120"/>
+      <c r="CL2" s="120"/>
+      <c r="CM2" s="121"/>
+      <c r="CN2" s="88"/>
+      <c r="CO2" s="87"/>
+      <c r="CP2" s="87"/>
+      <c r="CQ2" s="87"/>
+      <c r="CR2" s="87"/>
     </row>
-    <row r="3" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B3" s="26"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -18095,59 +18122,64 @@
       <c r="AN3" s="27"/>
       <c r="AO3" s="27"/>
       <c r="AP3" s="28"/>
-      <c r="AQ3" s="85"/>
-      <c r="AR3" s="86"/>
-      <c r="AS3" s="86"/>
-      <c r="AT3" s="86"/>
-      <c r="AU3" s="86"/>
-      <c r="AV3" s="86"/>
-      <c r="AW3" s="86"/>
-      <c r="AX3" s="86"/>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="85"/>
-      <c r="BB3" s="86"/>
-      <c r="BC3" s="86"/>
-      <c r="BD3" s="86"/>
-      <c r="BE3" s="86"/>
-      <c r="BF3" s="86"/>
-      <c r="BG3" s="86"/>
-      <c r="BH3" s="86"/>
-      <c r="BI3" s="86"/>
-      <c r="BJ3" s="86"/>
-      <c r="BK3" s="86"/>
-      <c r="BL3" s="86"/>
-      <c r="BM3" s="86"/>
-      <c r="BN3" s="87"/>
-      <c r="BO3" s="90"/>
-      <c r="BP3" s="91"/>
-      <c r="BQ3" s="91"/>
-      <c r="BR3" s="91"/>
-      <c r="BS3" s="91"/>
-      <c r="BT3" s="91"/>
-      <c r="BU3" s="91"/>
-      <c r="BV3" s="91"/>
-      <c r="BW3" s="91"/>
-      <c r="BX3" s="91"/>
-      <c r="BY3" s="92"/>
-      <c r="BZ3" s="90"/>
-      <c r="CA3" s="91"/>
-      <c r="CB3" s="92"/>
-      <c r="CC3" s="90"/>
-      <c r="CD3" s="91"/>
-      <c r="CE3" s="91"/>
-      <c r="CF3" s="91"/>
-      <c r="CG3" s="91"/>
-      <c r="CH3" s="91"/>
-      <c r="CI3" s="85"/>
-      <c r="CJ3" s="86"/>
-      <c r="CK3" s="86"/>
-      <c r="CL3" s="86"/>
-      <c r="CM3" s="87"/>
+      <c r="AQ3" s="88"/>
+      <c r="AR3" s="120"/>
+      <c r="AS3" s="120"/>
+      <c r="AT3" s="120"/>
+      <c r="AU3" s="120"/>
+      <c r="AV3" s="120"/>
+      <c r="AW3" s="120"/>
+      <c r="AX3" s="120"/>
+      <c r="AY3" s="120"/>
+      <c r="AZ3" s="121"/>
+      <c r="BA3" s="88"/>
+      <c r="BB3" s="120"/>
+      <c r="BC3" s="120"/>
+      <c r="BD3" s="120"/>
+      <c r="BE3" s="120"/>
+      <c r="BF3" s="120"/>
+      <c r="BG3" s="120"/>
+      <c r="BH3" s="120"/>
+      <c r="BI3" s="120"/>
+      <c r="BJ3" s="120"/>
+      <c r="BK3" s="120"/>
+      <c r="BL3" s="120"/>
+      <c r="BM3" s="120"/>
+      <c r="BN3" s="121"/>
+      <c r="BO3" s="86"/>
+      <c r="BP3" s="116"/>
+      <c r="BQ3" s="116"/>
+      <c r="BR3" s="116"/>
+      <c r="BS3" s="116"/>
+      <c r="BT3" s="116"/>
+      <c r="BU3" s="116"/>
+      <c r="BV3" s="116"/>
+      <c r="BW3" s="116"/>
+      <c r="BX3" s="116"/>
+      <c r="BY3" s="117"/>
+      <c r="BZ3" s="86"/>
+      <c r="CA3" s="116"/>
+      <c r="CB3" s="117"/>
+      <c r="CC3" s="86"/>
+      <c r="CD3" s="116"/>
+      <c r="CE3" s="116"/>
+      <c r="CF3" s="116"/>
+      <c r="CG3" s="116"/>
+      <c r="CH3" s="116"/>
+      <c r="CI3" s="88"/>
+      <c r="CJ3" s="120"/>
+      <c r="CK3" s="120"/>
+      <c r="CL3" s="120"/>
+      <c r="CM3" s="121"/>
+      <c r="CN3" s="88"/>
+      <c r="CO3" s="87"/>
+      <c r="CP3" s="87"/>
+      <c r="CQ3" s="87"/>
+      <c r="CR3" s="87"/>
     </row>
-    <row r="4" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B4" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -18159,7 +18191,7 @@
       <c r="J4" s="28"/>
       <c r="K4" s="26"/>
       <c r="L4" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -18173,7 +18205,7 @@
       <c r="V4" s="28"/>
       <c r="W4" s="26"/>
       <c r="X4" s="30" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Y4" s="27"/>
       <c r="Z4" s="27"/>
@@ -18184,7 +18216,7 @@
       <c r="AE4" s="27"/>
       <c r="AF4" s="28"/>
       <c r="AG4" s="29" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AH4" s="27"/>
       <c r="AI4" s="27"/>
@@ -18206,7 +18238,7 @@
       <c r="AY4" s="27"/>
       <c r="AZ4" s="28"/>
       <c r="BA4" s="29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="BB4" s="30"/>
       <c r="BC4" s="30"/>
@@ -18222,10 +18254,10 @@
       <c r="BM4" s="30"/>
       <c r="BN4" s="54"/>
       <c r="BO4" s="29" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="BP4" s="30" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="BQ4" s="30"/>
       <c r="BR4" s="27"/>
@@ -18240,7 +18272,7 @@
       <c r="CA4" s="27"/>
       <c r="CB4" s="28"/>
       <c r="CC4" s="29" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="CD4" s="27"/>
       <c r="CE4" s="27"/>
@@ -18248,14 +18280,15 @@
       <c r="CG4" s="27"/>
       <c r="CH4" s="27"/>
       <c r="CI4" s="55" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="CJ4" s="27"/>
       <c r="CK4" s="27"/>
       <c r="CL4" s="27"/>
       <c r="CM4" s="28"/>
+      <c r="CN4" s="61"/>
     </row>
-    <row r="5" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B5" s="26"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
@@ -18267,7 +18300,7 @@
       <c r="J5" s="28"/>
       <c r="K5" s="26"/>
       <c r="L5" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M5" s="27"/>
       <c r="N5" s="27"/>
@@ -18281,7 +18314,7 @@
       <c r="V5" s="28"/>
       <c r="W5" s="26"/>
       <c r="X5" s="30" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Y5" s="27"/>
       <c r="Z5" s="27"/>
@@ -18292,7 +18325,7 @@
       <c r="AE5" s="27"/>
       <c r="AF5" s="28"/>
       <c r="AG5" s="29" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AH5" s="27"/>
       <c r="AI5" s="27"/>
@@ -18305,7 +18338,7 @@
       <c r="AP5" s="28"/>
       <c r="AQ5" s="26"/>
       <c r="AR5" s="30" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="AS5" s="27"/>
       <c r="AT5" s="27"/>
@@ -18317,7 +18350,7 @@
       <c r="AZ5" s="28"/>
       <c r="BA5" s="29"/>
       <c r="BB5" s="30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="BC5" s="30"/>
       <c r="BD5" s="30"/>
@@ -18356,10 +18389,13 @@
       <c r="CK5" s="27"/>
       <c r="CL5" s="27"/>
       <c r="CM5" s="28"/>
+      <c r="CN5" s="62" t="s">
+        <v>540</v>
+      </c>
     </row>
-    <row r="6" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B6" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -18371,7 +18407,7 @@
       <c r="J6" s="28"/>
       <c r="K6" s="26"/>
       <c r="L6" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M6" s="27"/>
       <c r="N6" s="27"/>
@@ -18385,7 +18421,7 @@
       <c r="V6" s="28"/>
       <c r="W6" s="26"/>
       <c r="X6" s="30" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="Y6" s="27"/>
       <c r="Z6" s="27"/>
@@ -18396,7 +18432,7 @@
       <c r="AE6" s="27"/>
       <c r="AF6" s="28"/>
       <c r="AG6" s="29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="AH6" s="27"/>
       <c r="AI6" s="27"/>
@@ -18408,20 +18444,20 @@
       <c r="AO6" s="27"/>
       <c r="AP6" s="28"/>
       <c r="AQ6" s="26"/>
-      <c r="AR6" s="93" t="s">
-        <v>448</v>
-      </c>
-      <c r="AS6" s="93"/>
-      <c r="AT6" s="93"/>
-      <c r="AU6" s="93"/>
-      <c r="AV6" s="93"/>
-      <c r="AW6" s="93"/>
-      <c r="AX6" s="93"/>
-      <c r="AY6" s="93"/>
-      <c r="AZ6" s="94"/>
+      <c r="AR6" s="90" t="s">
+        <v>446</v>
+      </c>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="91"/>
       <c r="BA6" s="29"/>
       <c r="BB6" s="30" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="BC6" s="30"/>
       <c r="BD6" s="30"/>
@@ -18447,12 +18483,12 @@
       <c r="BX6" s="27"/>
       <c r="BY6" s="28"/>
       <c r="BZ6" s="29" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="CA6" s="27"/>
       <c r="CB6" s="28"/>
       <c r="CC6" s="29" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="CD6" s="27"/>
       <c r="CE6" s="27"/>
@@ -18460,14 +18496,17 @@
       <c r="CG6" s="27"/>
       <c r="CH6" s="27"/>
       <c r="CI6" s="29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="CJ6" s="27"/>
       <c r="CK6" s="27"/>
       <c r="CL6" s="27"/>
       <c r="CM6" s="28"/>
+      <c r="CN6" s="61" t="s">
+        <v>541</v>
+      </c>
     </row>
-    <row r="7" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -18479,7 +18518,7 @@
       <c r="J7" s="28"/>
       <c r="K7" s="26"/>
       <c r="L7" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
@@ -18493,7 +18532,7 @@
       <c r="V7" s="28"/>
       <c r="W7" s="26"/>
       <c r="X7" s="30" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Y7" s="27"/>
       <c r="Z7" s="27"/>
@@ -18504,7 +18543,7 @@
       <c r="AE7" s="27"/>
       <c r="AF7" s="28"/>
       <c r="AG7" s="29" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="AH7" s="27"/>
       <c r="AI7" s="27"/>
@@ -18516,15 +18555,15 @@
       <c r="AO7" s="27"/>
       <c r="AP7" s="28"/>
       <c r="AQ7" s="26"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="94"/>
+      <c r="AR7" s="90"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="91"/>
       <c r="BA7" s="29"/>
       <c r="BB7" s="30"/>
       <c r="BC7" s="30"/>
@@ -18540,7 +18579,7 @@
       <c r="BM7" s="30"/>
       <c r="BN7" s="54"/>
       <c r="BO7" s="29" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="BP7" s="30"/>
       <c r="BQ7" s="30"/>
@@ -18566,10 +18605,11 @@
       <c r="CK7" s="27"/>
       <c r="CL7" s="27"/>
       <c r="CM7" s="28"/>
+      <c r="CN7" s="61"/>
     </row>
-    <row r="8" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B8" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -18581,7 +18621,7 @@
       <c r="J8" s="28"/>
       <c r="K8" s="26"/>
       <c r="L8" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" s="27"/>
       <c r="N8" s="27"/>
@@ -18604,7 +18644,7 @@
       <c r="AE8" s="27"/>
       <c r="AF8" s="28"/>
       <c r="AG8" s="29" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
@@ -18617,7 +18657,7 @@
       <c r="AP8" s="28"/>
       <c r="AQ8" s="26"/>
       <c r="AR8" s="30" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="AS8" s="27"/>
       <c r="AT8" s="27"/>
@@ -18628,7 +18668,7 @@
       <c r="AY8" s="27"/>
       <c r="AZ8" s="28"/>
       <c r="BA8" s="29" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BB8" s="30"/>
       <c r="BC8" s="30"/>
@@ -18658,7 +18698,7 @@
       <c r="CA8" s="27"/>
       <c r="CB8" s="28"/>
       <c r="CC8" s="29" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="CD8" s="27"/>
       <c r="CE8" s="27"/>
@@ -18666,14 +18706,17 @@
       <c r="CG8" s="27"/>
       <c r="CH8" s="27"/>
       <c r="CI8" s="29" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="CJ8" s="27"/>
       <c r="CK8" s="27"/>
       <c r="CL8" s="27"/>
       <c r="CM8" s="28"/>
+      <c r="CN8" s="61">
+        <v>190109</v>
+      </c>
     </row>
-    <row r="9" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B9" s="29"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -18685,7 +18728,7 @@
       <c r="J9" s="28"/>
       <c r="K9" s="26"/>
       <c r="L9" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M9" s="27"/>
       <c r="N9" s="27"/>
@@ -18708,7 +18751,7 @@
       <c r="AE9" s="27"/>
       <c r="AF9" s="28"/>
       <c r="AG9" s="29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="AH9" s="27"/>
       <c r="AI9" s="27"/>
@@ -18764,16 +18807,17 @@
       <c r="CG9" s="27"/>
       <c r="CH9" s="27"/>
       <c r="CI9" s="55" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="CJ9" s="27"/>
       <c r="CK9" s="27"/>
       <c r="CL9" s="27"/>
       <c r="CM9" s="28"/>
+      <c r="CN9" s="61"/>
     </row>
-    <row r="10" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B10" s="29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -18785,7 +18829,7 @@
       <c r="J10" s="28"/>
       <c r="K10" s="26"/>
       <c r="L10" s="34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
@@ -18808,7 +18852,7 @@
       <c r="AE10" s="27"/>
       <c r="AF10" s="28"/>
       <c r="AG10" s="29" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="AH10" s="27"/>
       <c r="AI10" s="27"/>
@@ -18821,7 +18865,7 @@
       <c r="AP10" s="28"/>
       <c r="AQ10" s="26"/>
       <c r="AR10" s="30" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="AS10" s="27"/>
       <c r="AT10" s="27"/>
@@ -18832,7 +18876,7 @@
       <c r="AY10" s="27"/>
       <c r="AZ10" s="28"/>
       <c r="BA10" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="BB10" s="30"/>
       <c r="BC10" s="30"/>
@@ -18862,7 +18906,7 @@
       <c r="CA10" s="27"/>
       <c r="CB10" s="28"/>
       <c r="CC10" s="29" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="CD10" s="27"/>
       <c r="CE10" s="27"/>
@@ -18870,14 +18914,17 @@
       <c r="CG10" s="27"/>
       <c r="CH10" s="27"/>
       <c r="CI10" s="29" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="CJ10" s="27"/>
       <c r="CK10" s="27"/>
       <c r="CL10" s="27"/>
       <c r="CM10" s="28"/>
+      <c r="CN10" s="61" t="s">
+        <v>542</v>
+      </c>
     </row>
-    <row r="11" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B11" s="29"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -18889,7 +18936,7 @@
       <c r="J11" s="28"/>
       <c r="K11" s="26"/>
       <c r="L11" s="30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M11" s="27"/>
       <c r="N11" s="27"/>
@@ -18946,7 +18993,7 @@
       <c r="BM11" s="30"/>
       <c r="BN11" s="54"/>
       <c r="BO11" s="29" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="BP11" s="30"/>
       <c r="BQ11" s="30"/>
@@ -18972,10 +19019,11 @@
       <c r="CK11" s="27"/>
       <c r="CL11" s="27"/>
       <c r="CM11" s="28"/>
+      <c r="CN11" s="61"/>
     </row>
-    <row r="12" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B12" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -19008,7 +19056,7 @@
       <c r="AE12" s="27"/>
       <c r="AF12" s="28"/>
       <c r="AG12" s="29" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AH12" s="27"/>
       <c r="AI12" s="27"/>
@@ -19021,7 +19069,7 @@
       <c r="AP12" s="28"/>
       <c r="AQ12" s="26"/>
       <c r="AR12" s="30" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AS12" s="27"/>
       <c r="AT12" s="27"/>
@@ -19032,7 +19080,7 @@
       <c r="AY12" s="27"/>
       <c r="AZ12" s="28"/>
       <c r="BA12" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="BB12" s="30"/>
       <c r="BC12" s="30"/>
@@ -19048,7 +19096,7 @@
       <c r="BM12" s="30"/>
       <c r="BN12" s="54"/>
       <c r="BO12" s="29" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="BP12" s="30"/>
       <c r="BQ12" s="30"/>
@@ -19064,22 +19112,25 @@
       <c r="CA12" s="27"/>
       <c r="CB12" s="28"/>
       <c r="CC12" s="29" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="CD12" s="27"/>
       <c r="CE12" s="27"/>
       <c r="CF12" s="27"/>
       <c r="CG12" s="27"/>
       <c r="CH12" s="27"/>
-      <c r="CI12" s="113" t="s">
-        <v>527</v>
+      <c r="CI12" s="59" t="s">
+        <v>525</v>
       </c>
       <c r="CJ12" s="27"/>
       <c r="CK12" s="27"/>
       <c r="CL12" s="27"/>
       <c r="CM12" s="28"/>
+      <c r="CN12" s="61" t="s">
+        <v>543</v>
+      </c>
     </row>
-    <row r="13" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B13" s="29"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -19093,7 +19144,7 @@
       <c r="L13" s="27"/>
       <c r="M13" s="27"/>
       <c r="N13" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
@@ -19105,7 +19156,7 @@
       <c r="V13" s="28"/>
       <c r="W13" s="26"/>
       <c r="X13" s="52" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Y13" s="27"/>
       <c r="Z13" s="27"/>
@@ -19116,7 +19167,7 @@
       <c r="AE13" s="27"/>
       <c r="AF13" s="28"/>
       <c r="AG13" s="29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AH13" s="27"/>
       <c r="AI13" s="27"/>
@@ -19152,7 +19203,7 @@
       <c r="BM13" s="30"/>
       <c r="BN13" s="54"/>
       <c r="BO13" s="29" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BP13" s="30"/>
       <c r="BQ13" s="30"/>
@@ -19174,16 +19225,17 @@
       <c r="CG13" s="27"/>
       <c r="CH13" s="27"/>
       <c r="CI13" s="29" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="CJ13" s="27"/>
       <c r="CK13" s="27"/>
       <c r="CL13" s="27"/>
       <c r="CM13" s="28"/>
+      <c r="CN13" s="61"/>
     </row>
-    <row r="14" spans="2:91" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:96" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -19194,7 +19246,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
       <c r="K14" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L14" s="27"/>
       <c r="M14" s="27"/>
@@ -19208,7 +19260,7 @@
       <c r="U14" s="27"/>
       <c r="V14" s="28"/>
       <c r="W14" s="29" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="X14" s="27"/>
       <c r="Y14" s="27"/>
@@ -19231,7 +19283,7 @@
       <c r="AP14" s="28"/>
       <c r="AQ14" s="26"/>
       <c r="AR14" s="30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AS14" s="27"/>
       <c r="AT14" s="27"/>
@@ -19242,7 +19294,7 @@
       <c r="AY14" s="27"/>
       <c r="AZ14" s="28"/>
       <c r="BA14" s="29" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="BB14" s="30"/>
       <c r="BC14" s="30"/>
@@ -19258,7 +19310,7 @@
       <c r="BM14" s="30"/>
       <c r="BN14" s="54"/>
       <c r="BO14" s="29" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="BP14" s="30"/>
       <c r="BQ14" s="30"/>
@@ -19279,15 +19331,16 @@
       <c r="CF14" s="27"/>
       <c r="CG14" s="27"/>
       <c r="CH14" s="27"/>
-      <c r="CI14" s="117" t="s">
-        <v>529</v>
-      </c>
-      <c r="CJ14" s="93"/>
-      <c r="CK14" s="93"/>
-      <c r="CL14" s="93"/>
-      <c r="CM14" s="94"/>
+      <c r="CI14" s="89" t="s">
+        <v>527</v>
+      </c>
+      <c r="CJ14" s="90"/>
+      <c r="CK14" s="90"/>
+      <c r="CL14" s="90"/>
+      <c r="CM14" s="91"/>
+      <c r="CN14" s="61"/>
     </row>
-    <row r="15" spans="2:91" ht="2.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:96" ht="2.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="29"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -19298,7 +19351,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
       <c r="K15" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L15" s="27"/>
       <c r="M15" s="27"/>
@@ -19312,7 +19365,7 @@
       <c r="U15" s="27"/>
       <c r="V15" s="28"/>
       <c r="W15" s="29" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="X15" s="27"/>
       <c r="Y15" s="27"/>
@@ -19345,7 +19398,7 @@
       <c r="AZ15" s="28"/>
       <c r="BA15" s="29"/>
       <c r="BB15" s="30" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BC15" s="30"/>
       <c r="BD15" s="30"/>
@@ -19379,19 +19432,20 @@
       <c r="CF15" s="27"/>
       <c r="CG15" s="27"/>
       <c r="CH15" s="27"/>
-      <c r="CI15" s="117"/>
-      <c r="CJ15" s="93"/>
-      <c r="CK15" s="93"/>
-      <c r="CL15" s="93"/>
-      <c r="CM15" s="94"/>
+      <c r="CI15" s="89"/>
+      <c r="CJ15" s="90"/>
+      <c r="CK15" s="90"/>
+      <c r="CL15" s="90"/>
+      <c r="CM15" s="91"/>
+      <c r="CN15" s="61"/>
     </row>
-    <row r="16" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
@@ -19400,7 +19454,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="28"/>
       <c r="K16" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L16" s="27"/>
       <c r="M16" s="27"/>
@@ -19414,7 +19468,7 @@
       <c r="U16" s="27"/>
       <c r="V16" s="28"/>
       <c r="W16" s="29" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="X16" s="27"/>
       <c r="Y16" s="27"/>
@@ -19437,7 +19491,7 @@
       <c r="AP16" s="28"/>
       <c r="AQ16" s="26"/>
       <c r="AR16" s="30" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AS16" s="27"/>
       <c r="AT16" s="27"/>
@@ -19448,7 +19502,7 @@
       <c r="AY16" s="27"/>
       <c r="AZ16" s="28"/>
       <c r="BA16" s="29" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="BB16" s="30"/>
       <c r="BC16" s="30"/>
@@ -19478,7 +19532,7 @@
       <c r="CA16" s="27"/>
       <c r="CB16" s="28"/>
       <c r="CC16" s="29" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="CD16" s="27"/>
       <c r="CE16" s="27"/>
@@ -19486,18 +19540,19 @@
       <c r="CG16" s="27"/>
       <c r="CH16" s="27"/>
       <c r="CI16" s="29" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="CJ16" s="27"/>
       <c r="CK16" s="27"/>
       <c r="CL16" s="27"/>
       <c r="CM16" s="28"/>
+      <c r="CN16" s="61"/>
     </row>
-    <row r="17" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="27"/>
       <c r="D17" s="30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -19506,7 +19561,7 @@
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
       <c r="K17" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L17" s="27"/>
       <c r="M17" s="27"/>
@@ -19520,7 +19575,7 @@
       <c r="U17" s="27"/>
       <c r="V17" s="28"/>
       <c r="W17" s="29" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X17" s="27"/>
       <c r="Y17" s="27"/>
@@ -19586,18 +19641,19 @@
       <c r="CG17" s="27"/>
       <c r="CH17" s="27"/>
       <c r="CI17" s="29" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="CJ17" s="27"/>
       <c r="CK17" s="27"/>
       <c r="CL17" s="27"/>
       <c r="CM17" s="28"/>
+      <c r="CN17" s="61"/>
     </row>
-    <row r="18" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B18" s="26"/>
       <c r="C18" s="27"/>
       <c r="D18" s="30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -19606,7 +19662,7 @@
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
       <c r="K18" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L18" s="27"/>
       <c r="M18" s="27"/>
@@ -19620,7 +19676,7 @@
       <c r="U18" s="27"/>
       <c r="V18" s="28"/>
       <c r="W18" s="29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="X18" s="27"/>
       <c r="Y18" s="27"/>
@@ -19643,7 +19699,7 @@
       <c r="AP18" s="28"/>
       <c r="AQ18" s="26"/>
       <c r="AR18" s="30" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AS18" s="27"/>
       <c r="AT18" s="27"/>
@@ -19654,7 +19710,7 @@
       <c r="AY18" s="27"/>
       <c r="AZ18" s="28"/>
       <c r="BA18" s="29" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BB18" s="30"/>
       <c r="BC18" s="30"/>
@@ -19684,7 +19740,7 @@
       <c r="CA18" s="27"/>
       <c r="CB18" s="28"/>
       <c r="CC18" s="29" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="CD18" s="27"/>
       <c r="CE18" s="27"/>
@@ -19696,12 +19752,13 @@
       <c r="CK18" s="30"/>
       <c r="CL18" s="30"/>
       <c r="CM18" s="54"/>
+      <c r="CN18" s="61"/>
     </row>
-    <row r="19" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B19" s="26"/>
       <c r="C19" s="27"/>
       <c r="D19" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -19710,7 +19767,7 @@
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
       <c r="K19" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L19" s="27"/>
       <c r="M19" s="27"/>
@@ -19788,14 +19845,14 @@
       <c r="CG19" s="27"/>
       <c r="CH19" s="27"/>
       <c r="CI19" s="55" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="CJ19" s="30"/>
       <c r="CK19" s="30"/>
       <c r="CL19" s="30"/>
       <c r="CM19" s="54"/>
     </row>
-    <row r="20" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B20" s="26"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -19806,7 +19863,7 @@
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
       <c r="K20" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L20" s="27"/>
       <c r="M20" s="27"/>
@@ -19820,7 +19877,7 @@
       <c r="U20" s="27"/>
       <c r="V20" s="28"/>
       <c r="W20" s="29" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="X20" s="27"/>
       <c r="Y20" s="27"/>
@@ -19843,7 +19900,7 @@
       <c r="AP20" s="28"/>
       <c r="AQ20" s="26"/>
       <c r="AR20" s="30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="AS20" s="27"/>
       <c r="AT20" s="27"/>
@@ -19854,7 +19911,7 @@
       <c r="AY20" s="27"/>
       <c r="AZ20" s="28"/>
       <c r="BA20" s="29" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BB20" s="30"/>
       <c r="BC20" s="30"/>
@@ -19870,7 +19927,7 @@
       <c r="BM20" s="30"/>
       <c r="BN20" s="54"/>
       <c r="BO20" s="29" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="BP20" s="30"/>
       <c r="BQ20" s="30"/>
@@ -19886,7 +19943,7 @@
       <c r="CA20" s="27"/>
       <c r="CB20" s="28"/>
       <c r="CC20" s="29" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="CD20" s="27"/>
       <c r="CE20" s="27"/>
@@ -19894,16 +19951,16 @@
       <c r="CG20" s="27"/>
       <c r="CH20" s="27"/>
       <c r="CI20" s="29" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="CJ20" s="30"/>
       <c r="CK20" s="30"/>
       <c r="CL20" s="30"/>
       <c r="CM20" s="54"/>
     </row>
-    <row r="21" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B21" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -19914,7 +19971,7 @@
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
       <c r="K21" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L21" s="27"/>
       <c r="M21" s="27"/>
@@ -19928,7 +19985,7 @@
       <c r="U21" s="27"/>
       <c r="V21" s="28"/>
       <c r="W21" s="29" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="X21" s="27"/>
       <c r="Y21" s="27"/>
@@ -19974,7 +20031,7 @@
       <c r="BM21" s="30"/>
       <c r="BN21" s="54"/>
       <c r="BO21" s="29" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="BP21" s="30"/>
       <c r="BQ21" s="30"/>
@@ -19996,14 +20053,14 @@
       <c r="CG21" s="27"/>
       <c r="CH21" s="27"/>
       <c r="CI21" s="29" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="CJ21" s="30"/>
       <c r="CK21" s="30"/>
       <c r="CL21" s="30"/>
       <c r="CM21" s="54"/>
     </row>
-    <row r="22" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B22" s="29"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -20014,7 +20071,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
       <c r="K22" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L22" s="27"/>
       <c r="M22" s="27"/>
@@ -20028,7 +20085,7 @@
       <c r="U22" s="27"/>
       <c r="V22" s="28"/>
       <c r="W22" s="29" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
@@ -20051,7 +20108,7 @@
       <c r="AP22" s="28"/>
       <c r="AQ22" s="26"/>
       <c r="AR22" s="30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="AS22" s="27"/>
       <c r="AT22" s="27"/>
@@ -20062,7 +20119,7 @@
       <c r="AY22" s="27"/>
       <c r="AZ22" s="28"/>
       <c r="BA22" s="29" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="BB22" s="30"/>
       <c r="BC22" s="30"/>
@@ -20078,7 +20135,7 @@
       <c r="BM22" s="30"/>
       <c r="BN22" s="54"/>
       <c r="BO22" s="29" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="BP22" s="30"/>
       <c r="BQ22" s="30"/>
@@ -20094,24 +20151,24 @@
       <c r="CA22" s="27"/>
       <c r="CB22" s="28"/>
       <c r="CC22" s="29" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="CD22" s="27"/>
       <c r="CE22" s="27"/>
       <c r="CF22" s="27"/>
       <c r="CG22" s="27"/>
       <c r="CH22" s="27"/>
-      <c r="CI22" s="117" t="s">
-        <v>535</v>
-      </c>
-      <c r="CJ22" s="93"/>
-      <c r="CK22" s="93"/>
-      <c r="CL22" s="93"/>
-      <c r="CM22" s="94"/>
+      <c r="CI22" s="89" t="s">
+        <v>533</v>
+      </c>
+      <c r="CJ22" s="90"/>
+      <c r="CK22" s="90"/>
+      <c r="CL22" s="90"/>
+      <c r="CM22" s="91"/>
     </row>
-    <row r="23" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B23" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -20122,7 +20179,7 @@
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
       <c r="K23" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
@@ -20136,16 +20193,16 @@
       <c r="U23" s="27"/>
       <c r="V23" s="28"/>
       <c r="W23" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="X23" s="27" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y23" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="X23" s="27" t="s">
+      <c r="Z23" s="27" t="s">
         <v>432</v>
-      </c>
-      <c r="Y23" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="Z23" s="27" t="s">
-        <v>434</v>
       </c>
       <c r="AA23" s="27"/>
       <c r="AB23" s="27"/>
@@ -20165,7 +20222,7 @@
       <c r="AP23" s="28"/>
       <c r="AQ23" s="26"/>
       <c r="AR23" s="53" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AS23" s="27"/>
       <c r="AT23" s="27"/>
@@ -20190,7 +20247,7 @@
       <c r="BM23" s="30"/>
       <c r="BN23" s="54"/>
       <c r="BO23" s="29" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="BP23" s="30"/>
       <c r="BQ23" s="30"/>
@@ -20211,13 +20268,13 @@
       <c r="CF23" s="27"/>
       <c r="CG23" s="27"/>
       <c r="CH23" s="27"/>
-      <c r="CI23" s="117"/>
-      <c r="CJ23" s="93"/>
-      <c r="CK23" s="93"/>
-      <c r="CL23" s="93"/>
-      <c r="CM23" s="94"/>
+      <c r="CI23" s="89"/>
+      <c r="CJ23" s="90"/>
+      <c r="CK23" s="90"/>
+      <c r="CL23" s="90"/>
+      <c r="CM23" s="91"/>
     </row>
-    <row r="24" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B24" s="29"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -20228,7 +20285,7 @@
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
       <c r="K24" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
@@ -20263,7 +20320,7 @@
       <c r="AP24" s="28"/>
       <c r="AQ24" s="26"/>
       <c r="AR24" s="30" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="AS24" s="27"/>
       <c r="AT24" s="27"/>
@@ -20274,7 +20331,7 @@
       <c r="AY24" s="27"/>
       <c r="AZ24" s="28"/>
       <c r="BA24" s="29" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="BB24" s="30"/>
       <c r="BC24" s="30"/>
@@ -20290,7 +20347,7 @@
       <c r="BM24" s="30"/>
       <c r="BN24" s="54"/>
       <c r="BO24" s="29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="BP24" s="30"/>
       <c r="BQ24" s="30"/>
@@ -20306,22 +20363,22 @@
       <c r="CA24" s="27"/>
       <c r="CB24" s="28"/>
       <c r="CC24" s="29" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="CD24" s="27"/>
       <c r="CE24" s="27"/>
       <c r="CF24" s="27"/>
       <c r="CG24" s="27"/>
       <c r="CH24" s="27"/>
-      <c r="CI24" s="117"/>
-      <c r="CJ24" s="93"/>
-      <c r="CK24" s="93"/>
-      <c r="CL24" s="93"/>
-      <c r="CM24" s="94"/>
+      <c r="CI24" s="89"/>
+      <c r="CJ24" s="90"/>
+      <c r="CK24" s="90"/>
+      <c r="CL24" s="90"/>
+      <c r="CM24" s="91"/>
     </row>
-    <row r="25" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -20332,10 +20389,10 @@
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
       <c r="K25" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L25" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M25" s="27"/>
       <c r="N25" s="27"/>
@@ -20348,7 +20405,7 @@
       <c r="U25" s="27"/>
       <c r="V25" s="28"/>
       <c r="W25" s="29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="X25" s="27"/>
       <c r="Y25" s="27"/>
@@ -20371,7 +20428,7 @@
       <c r="AP25" s="28"/>
       <c r="AQ25" s="26"/>
       <c r="AR25" s="53" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="AS25" s="27"/>
       <c r="AT25" s="27"/>
@@ -20396,7 +20453,7 @@
       <c r="BM25" s="30"/>
       <c r="BN25" s="54"/>
       <c r="BO25" s="29" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="BP25" s="30"/>
       <c r="BQ25" s="30"/>
@@ -20418,14 +20475,14 @@
       <c r="CG25" s="27"/>
       <c r="CH25" s="27"/>
       <c r="CI25" s="29" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="CJ25" s="27"/>
       <c r="CK25" s="27"/>
       <c r="CL25" s="27"/>
       <c r="CM25" s="28"/>
     </row>
-    <row r="26" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B26" s="29"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -20437,7 +20494,7 @@
       <c r="J26" s="28"/>
       <c r="K26" s="26"/>
       <c r="L26" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
@@ -20450,7 +20507,7 @@
       <c r="U26" s="27"/>
       <c r="V26" s="28"/>
       <c r="W26" s="29" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="X26" s="27"/>
       <c r="Y26" s="27"/>
@@ -20473,7 +20530,7 @@
       <c r="AP26" s="28"/>
       <c r="AQ26" s="26"/>
       <c r="AR26" s="53" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AS26" s="27"/>
       <c r="AT26" s="27"/>
@@ -20484,7 +20541,7 @@
       <c r="AY26" s="27"/>
       <c r="AZ26" s="28"/>
       <c r="BA26" s="29" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="BB26" s="30"/>
       <c r="BC26" s="30"/>
@@ -20514,7 +20571,7 @@
       <c r="CA26" s="27"/>
       <c r="CB26" s="28"/>
       <c r="CC26" s="29" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="CD26" s="27"/>
       <c r="CE26" s="27"/>
@@ -20522,16 +20579,16 @@
       <c r="CG26" s="27"/>
       <c r="CH26" s="27"/>
       <c r="CI26" s="29" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="CJ26" s="27"/>
       <c r="CK26" s="27"/>
       <c r="CL26" s="27"/>
       <c r="CM26" s="28"/>
     </row>
-    <row r="27" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -20543,7 +20600,7 @@
       <c r="J27" s="28"/>
       <c r="K27" s="26"/>
       <c r="L27" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27"/>
@@ -20577,7 +20634,7 @@
       <c r="AP27" s="28"/>
       <c r="AQ27" s="26"/>
       <c r="AR27" s="53" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="AS27" s="27"/>
       <c r="AT27" s="27"/>
@@ -20622,14 +20679,14 @@
       <c r="CG27" s="27"/>
       <c r="CH27" s="27"/>
       <c r="CI27" s="29" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="CJ27" s="27"/>
       <c r="CK27" s="27"/>
       <c r="CL27" s="27"/>
       <c r="CM27" s="28"/>
     </row>
-    <row r="28" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B28" s="29"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -20640,10 +20697,10 @@
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
       <c r="K28" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L28" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="27"/>
@@ -20656,7 +20713,7 @@
       <c r="U28" s="27"/>
       <c r="V28" s="28"/>
       <c r="W28" s="29" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="X28" s="27"/>
       <c r="Y28" s="27"/>
@@ -20688,7 +20745,7 @@
       <c r="AY28" s="27"/>
       <c r="AZ28" s="28"/>
       <c r="BA28" s="29" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="BB28" s="30"/>
       <c r="BC28" s="30"/>
@@ -20718,7 +20775,7 @@
       <c r="CA28" s="27"/>
       <c r="CB28" s="28"/>
       <c r="CC28" s="29" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="CD28" s="27"/>
       <c r="CE28" s="27"/>
@@ -20731,14 +20788,14 @@
       <c r="CL28" s="27"/>
       <c r="CM28" s="28"/>
     </row>
-    <row r="29" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B29" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
       <c r="E29" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
@@ -20821,20 +20878,20 @@
       <c r="CF29" s="27"/>
       <c r="CG29" s="27"/>
       <c r="CH29" s="27"/>
-      <c r="CI29" s="114" t="s">
-        <v>536</v>
-      </c>
-      <c r="CJ29" s="115"/>
-      <c r="CK29" s="115"/>
-      <c r="CL29" s="115"/>
-      <c r="CM29" s="116"/>
+      <c r="CI29" s="92" t="s">
+        <v>534</v>
+      </c>
+      <c r="CJ29" s="93"/>
+      <c r="CK29" s="93"/>
+      <c r="CL29" s="93"/>
+      <c r="CM29" s="94"/>
     </row>
-    <row r="30" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B30" s="26"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
@@ -20842,7 +20899,7 @@
       <c r="I30" s="27"/>
       <c r="J30" s="28"/>
       <c r="K30" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L30" s="51"/>
       <c r="M30" s="27"/>
@@ -20856,7 +20913,7 @@
       <c r="U30" s="27"/>
       <c r="V30" s="28"/>
       <c r="W30" s="29" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="X30" s="27"/>
       <c r="Y30" s="27"/>
@@ -20888,7 +20945,7 @@
       <c r="AY30" s="27"/>
       <c r="AZ30" s="28"/>
       <c r="BA30" s="29" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="BB30" s="30"/>
       <c r="BC30" s="30"/>
@@ -20918,25 +20975,25 @@
       <c r="CA30" s="27"/>
       <c r="CB30" s="28"/>
       <c r="CC30" s="29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="CD30" s="27"/>
       <c r="CE30" s="27"/>
       <c r="CF30" s="27"/>
       <c r="CG30" s="27"/>
       <c r="CH30" s="27"/>
-      <c r="CI30" s="114"/>
-      <c r="CJ30" s="115"/>
-      <c r="CK30" s="115"/>
-      <c r="CL30" s="115"/>
-      <c r="CM30" s="116"/>
+      <c r="CI30" s="92"/>
+      <c r="CJ30" s="93"/>
+      <c r="CK30" s="93"/>
+      <c r="CL30" s="93"/>
+      <c r="CM30" s="94"/>
     </row>
-    <row r="31" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B31" s="26"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
       <c r="E31" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
@@ -20944,7 +21001,7 @@
       <c r="I31" s="27"/>
       <c r="J31" s="28"/>
       <c r="K31" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L31" s="51"/>
       <c r="M31" s="27"/>
@@ -20958,7 +21015,7 @@
       <c r="U31" s="27"/>
       <c r="V31" s="28"/>
       <c r="W31" s="26" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="X31" s="27"/>
       <c r="Y31" s="27"/>
@@ -21029,12 +21086,12 @@
       <c r="CL31" s="27"/>
       <c r="CM31" s="28"/>
     </row>
-    <row r="32" spans="2:91" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:92" x14ac:dyDescent="0.3">
       <c r="B32" s="26"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
       <c r="E32" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
@@ -21042,7 +21099,7 @@
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
       <c r="K32" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="L32" s="51"/>
       <c r="M32" s="27"/>
@@ -21056,7 +21113,7 @@
       <c r="U32" s="27"/>
       <c r="V32" s="28"/>
       <c r="W32" s="29" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="X32" s="27"/>
       <c r="Y32" s="27"/>
@@ -21088,7 +21145,7 @@
       <c r="AY32" s="27"/>
       <c r="AZ32" s="28"/>
       <c r="BA32" s="29" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BB32" s="30"/>
       <c r="BC32" s="30"/>
@@ -21118,7 +21175,7 @@
       <c r="CA32" s="27"/>
       <c r="CB32" s="28"/>
       <c r="CC32" s="55" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="CD32" s="27"/>
       <c r="CE32" s="27"/>
@@ -21142,7 +21199,7 @@
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
       <c r="K33" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L33" s="51"/>
       <c r="M33" s="27"/>
@@ -21156,7 +21213,7 @@
       <c r="U33" s="27"/>
       <c r="V33" s="28"/>
       <c r="W33" s="26" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="X33" s="27"/>
       <c r="Y33" s="27"/>
@@ -21229,12 +21286,12 @@
     </row>
     <row r="34" spans="2:91" x14ac:dyDescent="0.3">
       <c r="B34" s="26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
       <c r="E34" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
@@ -21242,7 +21299,7 @@
       <c r="I34" s="27"/>
       <c r="J34" s="28"/>
       <c r="K34" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L34" s="51"/>
       <c r="M34" s="27"/>
@@ -21286,7 +21343,7 @@
       <c r="AY34" s="27"/>
       <c r="AZ34" s="28"/>
       <c r="BA34" s="29" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="BB34" s="30"/>
       <c r="BC34" s="30"/>
@@ -21421,7 +21478,7 @@
     </row>
     <row r="36" spans="2:91" x14ac:dyDescent="0.3">
       <c r="B36" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -21474,7 +21531,7 @@
       <c r="AY36" s="27"/>
       <c r="AZ36" s="28"/>
       <c r="BA36" s="55" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="BB36" s="30"/>
       <c r="BC36" s="30"/>
@@ -21568,7 +21625,7 @@
       <c r="AY37" s="27"/>
       <c r="AZ37" s="28"/>
       <c r="BA37" s="29" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="BB37" s="30"/>
       <c r="BC37" s="30"/>
@@ -21614,7 +21671,7 @@
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
       <c r="E38" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -21664,7 +21721,7 @@
       <c r="AY38" s="27"/>
       <c r="AZ38" s="28"/>
       <c r="BA38" s="29" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="BB38" s="30"/>
       <c r="BC38" s="30"/>
@@ -21758,7 +21815,7 @@
       <c r="AY39" s="27"/>
       <c r="AZ39" s="28"/>
       <c r="BA39" s="29" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="BB39" s="30"/>
       <c r="BC39" s="30"/>
@@ -21804,7 +21861,7 @@
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
       <c r="E40" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
@@ -21854,7 +21911,7 @@
       <c r="AY40" s="27"/>
       <c r="AZ40" s="28"/>
       <c r="BA40" s="29" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="BB40" s="30"/>
       <c r="BC40" s="30"/>
@@ -21948,7 +22005,7 @@
       <c r="AY41" s="27"/>
       <c r="AZ41" s="28"/>
       <c r="BA41" s="29" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="BB41" s="30"/>
       <c r="BC41" s="30"/>
@@ -21994,7 +22051,7 @@
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
       <c r="E42" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
@@ -22180,7 +22237,7 @@
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F44" s="27"/>
       <c r="G44" s="27"/>
@@ -22366,7 +22423,7 @@
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
@@ -22460,7 +22517,7 @@
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F47" s="27"/>
       <c r="G47" s="27"/>
@@ -22646,7 +22703,7 @@
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F49" s="27"/>
       <c r="G49" s="27"/>
@@ -22832,7 +22889,7 @@
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
@@ -23018,7 +23075,7 @@
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
@@ -23204,7 +23261,7 @@
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
@@ -23390,7 +23447,7 @@
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
@@ -23576,7 +23633,7 @@
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F59" s="27"/>
       <c r="G59" s="27"/>
@@ -23762,7 +23819,7 @@
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="27"/>
       <c r="G61" s="27"/>
@@ -23948,7 +24005,7 @@
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
@@ -24134,7 +24191,7 @@
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
@@ -24228,7 +24285,7 @@
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F66" s="27"/>
       <c r="G66" s="27"/>
@@ -24322,7 +24379,7 @@
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
@@ -24416,7 +24473,7 @@
       <c r="C68" s="32"/>
       <c r="D68" s="32"/>
       <c r="E68" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F68" s="32"/>
       <c r="G68" s="32"/>
@@ -24507,11 +24564,12 @@
     </row>
     <row r="79" spans="2:91" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="CN1:CR3"/>
     <mergeCell ref="CI14:CM15"/>
     <mergeCell ref="CI22:CM24"/>
     <mergeCell ref="CI29:CM30"/>
